--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="409">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1212,49 +1212,40 @@
     <t xml:space="preserve">Android_002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0.0</t>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ios_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXSMax_iOS_13.3.0_9049f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/bitbar/test-samples/raw/master/apps/ios/bitbar-ios-sample.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.bitbar.testdroid.BitbarIOSSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ios_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXSMax_iOS_13.3.0_9049f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/bitbar/test-samples/raw/master/apps/ios/bitbar-ios-sample.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.bitbar.testdroid.BitbarIOSSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.automation</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
@@ -1458,7 +1449,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1599,10 +1590,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1689,7 +1676,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="1" sqref="H6:I6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20513,11 +20500,11 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20755,10 +20742,10 @@
         <v>377</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>392</v>
@@ -20786,7 +20773,7 @@
     </row>
     <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20807,10 +20794,10 @@
         <v>377</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>399</v>
+        <v>390</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>391</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>392</v>
@@ -20838,7 +20825,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20862,7 +20849,7 @@
         <v>390</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>392</v>
@@ -20890,7 +20877,7 @@
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20899,7 +20886,7 @@
         <v>386</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>388</v>
@@ -20911,21 +20898,21 @@
         <v>377</v>
       </c>
       <c r="H8" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>404</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>407</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
       <c r="N8" s="34" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>500</v>
@@ -20938,33 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="32"/>
-    </row>
-    <row r="10" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L10" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>410</v>
-      </c>
-    </row>
+    <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21002,7 +20963,7 @@
   <dimension ref="B4:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="H6:I6 E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21012,37 +20973,37 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
-        <v>401</v>
+      <c r="B5" s="35" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
-        <v>397</v>
+      <c r="B6" s="35" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
-        <v>401</v>
+      <c r="B7" s="35" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
-        <v>411</v>
+      <c r="B8" s="35" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
-        <v>411</v>
+      <c r="B11" s="35" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="411">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1213,6 +1213,12 @@
   </si>
   <si>
     <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
   </si>
   <si>
     <t xml:space="preserve">Android_0003</t>
@@ -1676,7 +1682,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="1" sqref="H6:I6 A1"/>
+      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20504,7 +20510,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6:I6"/>
+      <selection pane="bottomRight" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20771,7 +20777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>396</v>
       </c>
@@ -20794,10 +20800,10 @@
         <v>377</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>392</v>
@@ -20825,7 +20831,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20849,7 +20855,7 @@
         <v>390</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>392</v>
@@ -20877,7 +20883,7 @@
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20886,7 +20892,7 @@
         <v>386</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>388</v>
@@ -20898,21 +20904,21 @@
         <v>377</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
       <c r="N8" s="34" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>500</v>
@@ -20963,7 +20969,7 @@
   <dimension ref="B4:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="H6:I6 E8"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20973,27 +20979,27 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="35" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="35" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="35" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="35" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21003,7 +21009,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="35" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="411">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1224,31 +1224,31 @@
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
+    <t xml:space="preserve">Ios_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXSMax_iOS_13.3.0_9049f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/bitbar/test-samples/raw/master/apps/ios/bitbar-ios-sample.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.bitbar.testdroid.BitbarIOSSample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ios_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXSMax_iOS_13.3.0_9049f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/bitbar/test-samples/raw/master/apps/ios/bitbar-ios-sample.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.bitbar.testdroid.BitbarIOSSample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
@@ -1268,7 +1268,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1367,6 +1367,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
@@ -1455,7 +1461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1588,15 +1594,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20510,7 +20524,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20852,10 +20866,10 @@
         <v>377</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>398</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>392</v>
@@ -20883,7 +20897,7 @@
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20891,8 +20905,8 @@
       <c r="C8" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>402</v>
+      <c r="D8" s="34" t="s">
+        <v>401</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>388</v>
@@ -20903,22 +20917,22 @@
       <c r="G8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="K8" s="30" t="s">
         <v>405</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>406</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="34" t="s">
-        <v>407</v>
+      <c r="N8" s="35" t="s">
+        <v>406</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>500</v>
@@ -20966,10 +20980,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:B11"/>
+  <dimension ref="B4:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20979,37 +20993,42 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="36" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>400</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
-        <v>400</v>
+      <c r="B7" s="36" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="37" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="410">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1203,7 +1203,7 @@
     <t xml:space="preserve">uiautomator2</t>
   </si>
   <si>
-    <t xml:space="preserve">app-debugOct11.apk</t>
+    <t xml:space="preserve">Automation-1-0-0-18-11-2021.apk</t>
   </si>
   <si>
     <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
@@ -1224,25 +1224,22 @@
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
-    <t xml:space="preserve">Ios_01</t>
+    <t xml:space="preserve">IOS_001</t>
   </si>
   <si>
     <t xml:space="preserve">ios</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXSMax_iOS_13.3.0_9049f</t>
+    <t xml:space="preserve">12.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPadMini2_iOS_12.5.1_a3ea4</t>
   </si>
   <si>
     <t xml:space="preserve">XCUITest</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/bitbar/test-samples/raw/master/apps/ios/bitbar-ios-sample.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.bitbar.testdroid.BitbarIOSSample</t>
+    <t xml:space="preserve">Automation-1-0-0-18-11-2021.ipa</t>
   </si>
   <si>
     <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
@@ -1366,10 +1363,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1461,7 +1458,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1594,11 +1591,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1607,10 +1604,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20524,7 +20517,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20687,7 +20680,7 @@
       </c>
       <c r="S3" s="28"/>
     </row>
-    <row r="4" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>385</v>
       </c>
@@ -20868,7 +20861,7 @@
       <c r="H7" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="30" t="s">
         <v>398</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -20905,7 +20898,7 @@
       <c r="C8" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>401</v>
       </c>
       <c r="E8" s="29" t="s">
@@ -20931,9 +20924,7 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="35" t="s">
-        <v>406</v>
-      </c>
+      <c r="N8" s="35"/>
       <c r="O8" s="1" t="n">
         <v>500</v>
       </c>
@@ -20962,8 +20953,7 @@
     <hyperlink ref="E7" r:id="rId9" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="P7" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E8" r:id="rId11" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="K8" r:id="rId12" display="https://github.com/bitbar/test-samples/raw/master/apps/ios/bitbar-ios-sample.ipa"/>
-    <hyperlink ref="P8" r:id="rId13" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="P8" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -20993,27 +20983,27 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21023,11 +21013,11 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>398</v>
       </c>
     </row>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -1230,16 +1230,16 @@
     <t xml:space="preserve">ios</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPadMini2_iOS_12.5.1_a3ea4</t>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
   </si>
   <si>
     <t xml:space="preserve">XCUITest</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-0-18-11-2021.ipa</t>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
   </si>
   <si>
     <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
@@ -1265,7 +1265,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1363,12 +1363,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
@@ -1458,7 +1452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1596,10 +1590,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20517,7 +20507,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20910,21 +20900,21 @@
       <c r="G8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="11" t="s">
         <v>403</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="11" t="s">
         <v>405</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="35"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="1" t="n">
         <v>500</v>
       </c>
@@ -20987,37 +20977,37 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>398</v>
       </c>
     </row>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="411">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1194,64 +1194,67 @@
     <t xml:space="preserve">bkx8w6zydrxh6kj7xxw5t4kr</t>
   </si>
   <si>
+    <t xml:space="preserve">11.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-0-18-11-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1268,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1353,13 +1356,6 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono:case"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1452,7 +1448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1577,10 +1573,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1589,7 +1581,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20503,11 +20495,11 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20701,7 +20693,7 @@
       <c r="J4" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="8" t="s">
         <v>393</v>
       </c>
       <c r="L4" s="24" t="s">
@@ -20712,12 +20704,12 @@
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="19" t="n">
-        <v>104</v>
+        <v>306</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q4" s="32" t="n">
+      <c r="Q4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20745,15 +20737,15 @@
         <v>377</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="8" t="s">
         <v>393</v>
       </c>
       <c r="L5" s="24" t="s">
@@ -20769,14 +20761,14 @@
       <c r="P5" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q5" s="32" t="n">
+      <c r="Q5" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20797,15 +20789,15 @@
         <v>377</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="8" t="s">
         <v>393</v>
       </c>
       <c r="L6" s="24" t="s">
@@ -20821,7 +20813,7 @@
       <c r="P6" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q6" s="32" t="n">
+      <c r="Q6" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20849,15 +20841,15 @@
         <v>377</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="8" t="s">
         <v>393</v>
       </c>
       <c r="L7" s="24" t="s">
@@ -20873,7 +20865,7 @@
       <c r="P7" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q7" s="32" t="n">
+      <c r="Q7" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20888,7 +20880,7 @@
       <c r="C8" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>401</v>
       </c>
       <c r="E8" s="29" t="s">
@@ -20900,7 +20892,7 @@
       <c r="G8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>402</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -20914,14 +20906,14 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="34"/>
+      <c r="N8" s="33"/>
       <c r="O8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q8" s="32" t="n">
+      <c r="Q8" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20963,7 +20955,7 @@
   <dimension ref="B4:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20977,38 +20969,43 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="34" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="415">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1197,30 +1197,33 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
   </si>
   <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
@@ -1233,7 +1236,7 @@
     <t xml:space="preserve">13.5.1</t>
   </si>
   <si>
-    <t xml:space="preserve">APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
   </si>
   <si>
     <t xml:space="preserve">XCUITest</t>
@@ -1245,9 +1248,6 @@
     <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
   </si>
   <si>
@@ -1255,6 +1255,18 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1280,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1357,6 +1369,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1448,7 +1466,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1585,7 +1603,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20499,7 +20525,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20792,7 +20818,7 @@
         <v>390</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>392</v>
@@ -20820,7 +20846,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20844,7 +20870,7 @@
         <v>390</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>392</v>
@@ -20872,7 +20898,7 @@
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20881,7 +20907,7 @@
         <v>386</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>388</v>
@@ -20893,20 +20919,20 @@
         <v>377</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="I8" s="11" t="s">
         <v>403</v>
       </c>
+      <c r="I8" s="33" t="s">
+        <v>404</v>
+      </c>
       <c r="J8" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="33"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="1" t="n">
         <v>500</v>
       </c>
@@ -20952,10 +20978,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:B13"/>
+  <dimension ref="B4:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20965,31 +20991,31 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
-        <v>407</v>
+      <c r="B5" s="35" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="34" t="s">
-        <v>407</v>
+      <c r="B7" s="35" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>410</v>
       </c>
     </row>
@@ -20999,13 +21025,39 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="34" t="s">
-        <v>391</v>
+      <c r="B13" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="416">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1194,79 +1194,82 @@
     <t xml:space="preserve">bkx8w6zydrxh6kj7xxw5t4kr</t>
   </si>
   <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
   </si>
   <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
   </si>
   <si>
     <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1283,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1369,6 +1372,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1466,7 +1475,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,7 +1596,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1595,15 +1604,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20521,11 +20534,11 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20763,10 +20776,10 @@
         <v>377</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>396</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>397</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>392</v>
@@ -20794,7 +20807,7 @@
     </row>
     <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20815,9 +20828,9 @@
         <v>377</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I6" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>399</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -20867,9 +20880,9 @@
         <v>377</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I7" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>399</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -20906,7 +20919,7 @@
       <c r="C8" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>402</v>
       </c>
       <c r="E8" s="29" t="s">
@@ -20918,13 +20931,13 @@
       <c r="G8" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="32" t="s">
         <v>405</v>
       </c>
       <c r="K8" s="11" t="s">
@@ -20932,7 +20945,7 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="34"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="1" t="n">
         <v>500</v>
       </c>
@@ -20981,7 +20994,7 @@
   <dimension ref="B4:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20995,42 +21008,42 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="36" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>409</v>
+      <c r="B11" s="36" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>399</v>
       </c>
     </row>
@@ -21048,16 +21061,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>403</v>
+      <c r="B19" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -1227,43 +1227,43 @@
     <t xml:space="preserve">Android_002</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.qa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.qa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
@@ -20610,11 +20610,11 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20881,7 +20881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>403</v>
       </c>
@@ -20906,20 +20906,20 @@
       <c r="H6" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>404</v>
+      <c r="I6" s="30" t="s">
+        <v>395</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>384</v>
+      <c r="K6" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>398</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="19" t="n">
@@ -20935,7 +20935,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20959,7 +20959,7 @@
         <v>394</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>396</v>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20996,7 +20996,7 @@
         <v>390</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>392</v>
@@ -21008,16 +21008,16 @@
         <v>381</v>
       </c>
       <c r="H8" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="K8" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
@@ -21070,7 +21070,7 @@
   <dimension ref="B4:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21080,12 +21080,12 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="38" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21095,7 +21095,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="38" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21120,7 +21120,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21158,7 +21158,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="425">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1209,7 +1209,7 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
   </si>
   <si>
     <t xml:space="preserve">uiautomator2</t>
@@ -1236,6 +1236,9 @@
     <t xml:space="preserve">Android_003</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
@@ -1263,9 +1266,6 @@
     <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
   </si>
   <si>
@@ -1276,9 +1276,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
@@ -1404,10 +1401,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1416,10 +1413,10 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1648,16 +1645,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -20614,7 +20611,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20777,7 +20774,7 @@
       </c>
       <c r="S3" s="28"/>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>389</v>
       </c>
@@ -20854,7 +20851,7 @@
       <c r="H5" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="34" t="s">
         <v>401</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -20906,8 +20903,8 @@
       <c r="H6" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>395</v>
+      <c r="I6" s="34" t="s">
+        <v>404</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>396</v>
@@ -20935,7 +20932,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20958,14 +20955,14 @@
       <c r="H7" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="35" t="s">
         <v>401</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>396</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L7" s="24" t="s">
         <v>384</v>
@@ -20987,7 +20984,7 @@
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20995,8 +20992,8 @@
       <c r="C8" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>407</v>
+      <c r="D8" s="36" t="s">
+        <v>408</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>392</v>
@@ -21007,17 +21004,17 @@
       <c r="G8" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="H8" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>410</v>
       </c>
+      <c r="J8" s="35" t="s">
+        <v>411</v>
+      </c>
       <c r="K8" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
@@ -21070,7 +21067,7 @@
   <dimension ref="B4:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21080,12 +21077,12 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="38" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21095,7 +21092,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="38" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21125,45 +21122,45 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" s="39" t="s">
         <v>423</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -1209,73 +1209,73 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-5-6-12-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.qa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-5-6-12-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.qa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
@@ -1310,7 +1310,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1399,18 +1399,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1508,7 +1496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1633,19 +1621,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1657,7 +1633,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20611,7 +20587,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20805,10 +20781,10 @@
       <c r="J4" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="24" t="s">
         <v>398</v>
       </c>
       <c r="M4" s="11" t="s">
@@ -20821,7 +20797,7 @@
       <c r="P4" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="Q4" s="33" t="n">
+      <c r="Q4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20851,16 +20827,16 @@
       <c r="H5" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>401</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="24" t="s">
         <v>398</v>
       </c>
       <c r="M5" s="11" t="s">
@@ -20873,7 +20849,7 @@
       <c r="P5" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="Q5" s="33" t="n">
+      <c r="Q5" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20903,16 +20879,16 @@
       <c r="H6" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>404</v>
+      <c r="I6" s="32" t="s">
+        <v>395</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="24" t="s">
         <v>398</v>
       </c>
       <c r="M6" s="11" t="s">
@@ -20925,14 +20901,14 @@
       <c r="P6" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="Q6" s="33" t="n">
+      <c r="Q6" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20955,14 +20931,14 @@
       <c r="H7" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>401</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>396</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L7" s="24" t="s">
         <v>384</v>
@@ -20977,14 +20953,14 @@
       <c r="P7" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="Q7" s="33" t="n">
+      <c r="Q7" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20992,8 +20968,8 @@
       <c r="C8" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>408</v>
+      <c r="D8" s="33" t="s">
+        <v>407</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>392</v>
@@ -21004,28 +20980,28 @@
       <c r="G8" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="K8" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="37"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="Q8" s="33" t="n">
+      <c r="Q8" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21067,7 +21043,7 @@
   <dimension ref="B4:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21077,52 +21053,52 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="35" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="38" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="35" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="38" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="35" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="38" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="38" t="s">
-        <v>415</v>
+      <c r="B11" s="35" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="35" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21146,16 +21122,16 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="36" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="427">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1137,6 +1137,9 @@
     <t xml:space="preserve">automationName</t>
   </si>
   <si>
+    <t xml:space="preserve">applicationURL</t>
+  </si>
+  <si>
     <t xml:space="preserve">applicationName</t>
   </si>
   <si>
@@ -1279,6 +1282,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
@@ -1310,7 +1316,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1402,12 +1408,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
@@ -1496,7 +1496,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1617,7 +1617,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1625,15 +1625,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20580,14 +20576,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20601,12 +20597,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20655,375 +20651,382 @@
       <c r="O1" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="18" t="s">
         <v>377</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="22" t="n">
+      <c r="N2" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="22" t="n">
         <v>500</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q2" s="22" t="n">
+      <c r="Q2" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="R2" s="22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K3" s="26"/>
-      <c r="L3" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19" t="n">
+      <c r="N3" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="n">
         <v>103</v>
       </c>
-      <c r="P3" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q3" s="27" t="n">
+      <c r="Q3" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="R3" s="27" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="S3" s="28"/>
-    </row>
-    <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K4" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="19" t="n">
+      <c r="M4" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="19" t="n">
         <v>306</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q4" s="31" t="n">
+      <c r="Q4" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="R4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="19" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="19" t="n">
-        <v>105</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q5" s="31" t="n">
+      <c r="R5" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="19" t="n">
+      <c r="O6" s="8"/>
+      <c r="P6" s="19" t="n">
         <v>106</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q6" s="31" t="n">
+      <c r="Q6" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="R6" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>401</v>
+        <v>395</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>402</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="M7" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="19" t="n">
+      <c r="N7" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="19" t="n">
         <v>306</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q7" s="31" t="n">
+      <c r="Q7" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="R7" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>407</v>
+        <v>391</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>408</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>408</v>
+        <v>382</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>409</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="J8" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="J8" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="1" t="n">
+      <c r="K8" s="30"/>
+      <c r="L8" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q8" s="31" t="n">
+      <c r="Q8" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="R8" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
-    <hyperlink ref="P3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
+    <hyperlink ref="Q2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
+    <hyperlink ref="Q3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="P4" r:id="rId4" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="Q4" r:id="rId4" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E5" r:id="rId5" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="P5" r:id="rId6" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="Q5" r:id="rId6" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E6" r:id="rId7" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="P6" r:id="rId8" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="Q6" r:id="rId8" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E7" r:id="rId9" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="P7" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="Q7" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E8" r:id="rId11" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="P8" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="Q8" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -21040,10 +21043,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:F24"/>
+  <dimension ref="B4:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21053,90 +21056,97 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>395</v>
+      <c r="B5" s="34" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
-        <v>413</v>
+      <c r="B6" s="34" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
-        <v>395</v>
+      <c r="B7" s="34" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
-        <v>414</v>
+      <c r="B8" s="34" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
-        <v>415</v>
+      <c r="B9" s="34" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>414</v>
+      <c r="B11" s="34" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
-        <v>401</v>
+      <c r="B13" s="34" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>423</v>
-      </c>
-    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="35" t="s">
         <v>424</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="427">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1218,6 +1218,9 @@
     <t xml:space="preserve">uiautomator2</t>
   </si>
   <si>
+    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Automation-1-0-5-6-12-2021.apk</t>
   </si>
   <si>
@@ -1231,9 +1234,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.qa</t>
   </si>
   <si>
     <t xml:space="preserve">Android_003</t>
@@ -1316,7 +1316,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1408,6 +1408,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
@@ -1496,7 +1502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1625,11 +1631,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20579,11 +20589,11 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20751,7 +20761,7 @@
       </c>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>390</v>
       </c>
@@ -20782,12 +20792,14 @@
       <c r="J4" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="L4" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>386</v>
@@ -20797,16 +20809,16 @@
         <v>306</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>44</v>
@@ -20829,28 +20841,30 @@
       <c r="H5" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>402</v>
+      <c r="I5" s="32" t="s">
+        <v>403</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="L5" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="19" t="n">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R5" s="31" t="n">
         <f aca="false">FALSE()</f>
@@ -20890,20 +20904,20 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="19" t="n">
         <v>106</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R6" s="31" t="n">
         <f aca="false">FALSE()</f>
@@ -20936,7 +20950,7 @@
         <v>395</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>397</v>
@@ -20956,7 +20970,7 @@
         <v>306</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R7" s="31" t="n">
         <f aca="false">FALSE()</f>
@@ -20973,7 +20987,7 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="33" t="s">
         <v>408</v>
       </c>
       <c r="E8" s="29" t="s">
@@ -20985,7 +20999,7 @@
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
         <v>409</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -21000,12 +21014,12 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R8" s="31" t="n">
         <f aca="false">FALSE()</f>
@@ -21046,7 +21060,7 @@
   <dimension ref="B4:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21060,27 +21074,27 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>416</v>
       </c>
     </row>
@@ -21090,13 +21104,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="34" t="s">
-        <v>402</v>
+      <c r="B13" s="35" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21132,10 +21146,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="36" t="s">
         <v>425</v>
       </c>
     </row>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="428">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1233,13 +1233,16 @@
     <t xml:space="preserve">Android_002</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
     <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
@@ -1316,7 +1319,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1408,12 +1411,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
@@ -1502,7 +1499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1631,15 +1628,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1730,10 +1723,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B10" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="topRight" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20589,11 +20582,11 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20841,7 +20834,7 @@
       <c r="H5" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>403</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -20950,14 +20943,14 @@
         <v>395</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>397</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>385</v>
@@ -20979,7 +20972,7 @@
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20987,8 +20980,8 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>408</v>
+      <c r="D8" s="32" t="s">
+        <v>409</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>393</v>
@@ -20999,22 +20992,22 @@
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>409</v>
+      <c r="H8" s="32" t="s">
+        <v>410</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
@@ -21060,7 +21053,7 @@
   <dimension ref="B4:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21070,62 +21063,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
-        <v>414</v>
+      <c r="B6" s="34" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
-        <v>415</v>
+      <c r="B8" s="34" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
-        <v>416</v>
+      <c r="B9" s="34" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>415</v>
+      <c r="B11" s="34" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
-        <v>403</v>
+      <c r="B13" s="34" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21134,33 +21127,33 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="F25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>425</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="427">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1221,7 +1221,25 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-5-6-12-2021.apk</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Automation-1-0-6-13-12-2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF067D17"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.apk</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1245,67 +1263,64 @@
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-0-24-11-2021.apk</t>
-  </si>
-  <si>
     <t xml:space="preserve">IOS_001</t>
   </si>
   <si>
     <t xml:space="preserve">ios</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3.1</t>
+    <t xml:space="preserve">14.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5.1</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37/AUTOMATIONDebug-1.0.0-20-11-2021-22%3A37.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1334,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1408,6 +1423,25 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1499,7 +1533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1624,6 +1658,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1632,7 +1670,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20582,11 +20624,11 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20600,7 +20642,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="9.17"/>
@@ -20788,7 +20831,7 @@
       <c r="K4" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="31" t="s">
         <v>399</v>
       </c>
       <c r="M4" s="24" t="s">
@@ -20804,7 +20847,7 @@
       <c r="Q4" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R4" s="31" t="n">
+      <c r="R4" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20843,7 +20886,7 @@
       <c r="K5" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="31" t="s">
         <v>399</v>
       </c>
       <c r="M5" s="24" t="s">
@@ -20859,7 +20902,7 @@
       <c r="Q5" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R5" s="31" t="n">
+      <c r="R5" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20896,7 +20939,7 @@
         <v>397</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="31" t="s">
         <v>399</v>
       </c>
       <c r="M6" s="24" t="s">
@@ -20912,7 +20955,7 @@
       <c r="Q6" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R6" s="31" t="n">
+      <c r="R6" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20949,8 +20992,8 @@
         <v>397</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
-        <v>407</v>
+      <c r="L7" s="31" t="s">
+        <v>399</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>385</v>
@@ -20965,14 +21008,14 @@
       <c r="Q7" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R7" s="31" t="n">
+      <c r="R7" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -20980,8 +21023,8 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>409</v>
+      <c r="D8" s="33" t="s">
+        <v>408</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>393</v>
@@ -20992,29 +21035,29 @@
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="I8" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="K8" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="11" t="s">
-        <v>413</v>
-      </c>
+      <c r="L8" s="31"/>
       <c r="M8" s="1"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="33"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R8" s="31" t="n">
+      <c r="R8" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21053,7 +21096,7 @@
   <dimension ref="B4:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21063,62 +21106,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="36" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="36" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="36" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="34" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="36" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
-        <v>416</v>
+      <c r="B11" s="36" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21127,33 +21170,33 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="F24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="37" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="35" t="s">
+      <c r="F25" s="37" t="s">
         <v>425</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="426">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1212,7 +1212,7 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
   </si>
   <si>
     <t xml:space="preserve">uiautomator2</t>
@@ -1257,6 +1257,9 @@
     <t xml:space="preserve">Android_003</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
@@ -1269,58 +1272,52 @@
     <t xml:space="preserve">ios</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0.0</t>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
 </sst>
 </file>
@@ -1425,6 +1422,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
@@ -1436,12 +1439,6 @@
       <name val=""/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1654,11 +1651,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1666,12 +1663,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -20624,11 +20621,11 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20797,7 +20794,7 @@
       </c>
       <c r="T3" s="28"/>
     </row>
-    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>390</v>
       </c>
@@ -20877,7 +20874,7 @@
       <c r="H5" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="33" t="s">
         <v>403</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -20932,8 +20929,8 @@
       <c r="H6" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>396</v>
+      <c r="I6" s="33" t="s">
+        <v>405</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>397</v>
@@ -20962,7 +20959,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20985,8 +20982,8 @@
       <c r="H7" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>406</v>
+      <c r="I7" s="33" t="s">
+        <v>407</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>397</v>
@@ -21015,7 +21012,7 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -21023,8 +21020,8 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>408</v>
+      <c r="D8" s="34" t="s">
+        <v>409</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>393</v>
@@ -21035,17 +21032,17 @@
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="H8" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="I8" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="J8" s="33" t="s">
         <v>412</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>413</v>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="1"/>
@@ -21096,7 +21093,7 @@
   <dimension ref="B4:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21106,62 +21103,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21183,20 +21180,20 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -1212,7 +1212,7 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
   </si>
   <si>
     <t xml:space="preserve">uiautomator2</t>
@@ -1227,6 +1227,7 @@
         <color rgb="FF067D17"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Automation-1-0-6-13-12-2021</t>
     </r>
@@ -1234,8 +1235,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF067D17"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.apk</t>
@@ -1257,9 +1258,6 @@
     <t xml:space="preserve">Android_003</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
@@ -1303,6 +1301,9 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
@@ -1331,7 +1332,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1422,22 +1423,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF067D17"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1530,7 +1525,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1655,10 +1650,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1671,7 +1662,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20625,7 +20616,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20828,7 +20819,7 @@
       <c r="K4" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="11" t="s">
         <v>399</v>
       </c>
       <c r="M4" s="24" t="s">
@@ -20844,7 +20835,7 @@
       <c r="Q4" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R4" s="32" t="n">
+      <c r="R4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20874,7 +20865,7 @@
       <c r="H5" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>403</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -20883,7 +20874,7 @@
       <c r="K5" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="11" t="s">
         <v>399</v>
       </c>
       <c r="M5" s="24" t="s">
@@ -20899,7 +20890,7 @@
       <c r="Q5" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R5" s="32" t="n">
+      <c r="R5" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20929,14 +20920,14 @@
       <c r="H6" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="33" t="s">
-        <v>405</v>
+      <c r="I6" s="32" t="s">
+        <v>396</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>397</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="11" t="s">
         <v>399</v>
       </c>
       <c r="M6" s="24" t="s">
@@ -20952,14 +20943,14 @@
       <c r="Q6" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R6" s="32" t="n">
+      <c r="R6" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20982,14 +20973,14 @@
       <c r="H7" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>407</v>
+      <c r="I7" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>397</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="11" t="s">
         <v>399</v>
       </c>
       <c r="M7" s="24" t="s">
@@ -21005,14 +20996,14 @@
       <c r="Q7" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R7" s="32" t="n">
+      <c r="R7" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -21020,8 +21011,8 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>409</v>
+      <c r="D8" s="33" t="s">
+        <v>408</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>393</v>
@@ -21032,29 +21023,29 @@
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="K8" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="1"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="35"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R8" s="32" t="n">
+      <c r="R8" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21093,7 +21084,7 @@
   <dimension ref="B4:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21103,62 +21094,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="35" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="35" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="35" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
-        <v>416</v>
+      <c r="B11" s="35" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
-        <v>407</v>
+      <c r="B13" s="35" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21179,11 +21170,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="F25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>410</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="428">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1212,7 +1212,7 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
   </si>
   <si>
     <t xml:space="preserve">uiautomator2</t>
@@ -1252,18 +1252,18 @@
     <t xml:space="preserve">Android_002</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e4</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
   </si>
   <si>
     <t xml:space="preserve">Android_003</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">IOS_001</t>
   </si>
   <si>
@@ -1282,6 +1282,15 @@
     <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
   </si>
   <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
+  </si>
+  <si>
     <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
   </si>
   <si>
@@ -1301,9 +1310,6 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
@@ -1424,16 +1430,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1525,7 +1531,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1594,6 +1600,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1638,19 +1648,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1659,11 +1669,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -20612,34 +20626,34 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="17" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="17" width="9.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -20652,10 +20666,10 @@
       <c r="D1" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>366</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -20688,102 +20702,102 @@
       <c r="P1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="19" t="s">
         <v>377</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25" t="s">
         <v>385</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="22" t="n">
+      <c r="O2" s="24"/>
+      <c r="P2" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="R2" s="22" t="n">
+      <c r="R2" s="23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="24" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="25" t="s">
         <v>385</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19" t="n">
+      <c r="O3" s="20"/>
+      <c r="P3" s="20" t="n">
         <v>103</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="R3" s="27" t="n">
+      <c r="R3" s="28" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T3" s="28"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -20798,10 +20812,10 @@
       <c r="D4" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>394</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -20810,7 +20824,7 @@
       <c r="H4" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="8" t="s">
         <v>396</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -20822,14 +20836,14 @@
       <c r="L4" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="25" t="s">
         <v>400</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>386</v>
       </c>
       <c r="O4" s="8"/>
-      <c r="P4" s="19" t="n">
+      <c r="P4" s="20" t="n">
         <v>306</v>
       </c>
       <c r="Q4" s="8" t="s">
@@ -20840,7 +20854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>402</v>
       </c>
@@ -20853,10 +20867,10 @@
       <c r="D5" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>394</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -20877,14 +20891,14 @@
       <c r="L5" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="25" t="s">
         <v>400</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>386</v>
       </c>
       <c r="O5" s="8"/>
-      <c r="P5" s="19" t="n">
+      <c r="P5" s="20" t="n">
         <v>307</v>
       </c>
       <c r="Q5" s="8" t="s">
@@ -20908,10 +20922,10 @@
       <c r="D6" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>394</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -20920,8 +20934,8 @@
       <c r="H6" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>396</v>
+      <c r="I6" s="33" t="s">
+        <v>405</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>397</v>
@@ -20930,14 +20944,14 @@
       <c r="L6" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="25" t="s">
         <v>400</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>386</v>
       </c>
       <c r="O6" s="8"/>
-      <c r="P6" s="19" t="n">
+      <c r="P6" s="20" t="n">
         <v>106</v>
       </c>
       <c r="Q6" s="8" t="s">
@@ -20950,7 +20964,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20961,10 +20975,10 @@
       <c r="D7" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>394</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -20973,8 +20987,8 @@
       <c r="H7" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>406</v>
+      <c r="I7" s="33" t="s">
+        <v>396</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>397</v>
@@ -20983,14 +20997,14 @@
       <c r="L7" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="25" t="s">
         <v>385</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>386</v>
       </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="19" t="n">
+      <c r="P7" s="20" t="n">
         <v>306</v>
       </c>
       <c r="Q7" s="8" t="s">
@@ -21011,34 +21025,34 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>394</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="34" t="s">
         <v>409</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="33" t="s">
         <v>412</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="1"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
@@ -21050,7 +21064,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="R9" s="31" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
@@ -21065,6 +21123,8 @@
     <hyperlink ref="Q7" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E8" r:id="rId11" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="Q8" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E9" r:id="rId13" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="Q9" r:id="rId14" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -21081,10 +21141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:F27"/>
+  <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21094,62 +21154,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>396</v>
+      <c r="B5" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
-        <v>414</v>
+      <c r="B6" s="37" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
-        <v>396</v>
+      <c r="B7" s="37" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
-        <v>415</v>
+      <c r="B8" s="37" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
-        <v>416</v>
+      <c r="B9" s="37" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>415</v>
+      <c r="B11" s="37" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
-        <v>406</v>
+      <c r="B13" s="37" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21158,33 +21218,38 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="38" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="429">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1252,64 +1252,67 @@
     <t xml:space="preserve">Android_002</t>
   </si>
   <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
@@ -20626,11 +20629,11 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20799,7 +20802,7 @@
       </c>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>390</v>
       </c>
@@ -20877,10 +20880,10 @@
         <v>382</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>397</v>
@@ -20911,7 +20914,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20935,7 +20938,7 @@
         <v>395</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>397</v>
@@ -20964,7 +20967,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -21017,7 +21020,7 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -21026,7 +21029,7 @@
         <v>391</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>393</v>
@@ -21038,16 +21041,16 @@
         <v>382</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="1"/>
@@ -21066,7 +21069,7 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>44</v>
@@ -21075,7 +21078,7 @@
         <v>391</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>393</v>
@@ -21087,16 +21090,16 @@
         <v>382</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>501</v>
@@ -21144,7 +21147,7 @@
   <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21154,42 +21157,42 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="37" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="37" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21209,7 +21212,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21218,38 +21221,38 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" s="38" t="s">
         <v>410</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -1341,7 +1341,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1439,12 +1439,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
@@ -1534,7 +1528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1663,10 +1657,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1675,7 +1665,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20629,11 +20619,11 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20756,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
         <v>388</v>
       </c>
@@ -20802,7 +20792,7 @@
       </c>
       <c r="T3" s="29"/>
     </row>
-    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>390</v>
       </c>
@@ -20882,7 +20872,7 @@
       <c r="H5" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="8" t="s">
         <v>404</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -20937,7 +20927,7 @@
       <c r="H6" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>406</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -20990,8 +20980,8 @@
       <c r="H7" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>396</v>
+      <c r="I7" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>397</v>
@@ -21028,7 +21018,7 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>409</v>
       </c>
       <c r="E8" s="30" t="s">
@@ -21040,22 +21030,22 @@
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>410</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>413</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="1"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="35"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
@@ -21086,19 +21076,19 @@
       <c r="F9" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="35" t="s">
         <v>413</v>
       </c>
       <c r="P9" s="1" t="n">
@@ -21147,7 +21137,7 @@
   <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21161,27 +21151,27 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>420</v>
       </c>
     </row>
@@ -21191,12 +21181,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>396</v>
       </c>
     </row>
@@ -21233,10 +21223,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="37" t="s">
         <v>410</v>
       </c>
     </row>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -1212,107 +1212,88 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
   </si>
   <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF067D17"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Automation-1-0-6-13-12-2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.apk</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
@@ -1341,7 +1322,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1430,6 +1411,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1528,7 +1515,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1653,6 +1640,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1665,7 +1660,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20619,11 +20614,11 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20817,7 +20812,7 @@
       <c r="H4" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="31" t="s">
         <v>396</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -20826,7 +20821,7 @@
       <c r="K4" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="32" t="s">
         <v>399</v>
       </c>
       <c r="M4" s="25" t="s">
@@ -20842,7 +20837,7 @@
       <c r="Q4" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R4" s="31" t="n">
+      <c r="R4" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20881,7 +20876,7 @@
       <c r="K5" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="32" t="s">
         <v>399</v>
       </c>
       <c r="M5" s="25" t="s">
@@ -20897,7 +20892,7 @@
       <c r="Q5" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R5" s="31" t="n">
+      <c r="R5" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20927,14 +20922,14 @@
       <c r="H6" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="34" t="s">
         <v>406</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>397</v>
       </c>
       <c r="K6" s="8"/>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="32" t="s">
         <v>399</v>
       </c>
       <c r="M6" s="25" t="s">
@@ -20950,7 +20945,7 @@
       <c r="Q6" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R6" s="31" t="n">
+      <c r="R6" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20980,14 +20975,14 @@
       <c r="H7" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="34" t="s">
         <v>406</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>397</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="32" t="s">
         <v>399</v>
       </c>
       <c r="M7" s="25" t="s">
@@ -21003,7 +20998,7 @@
       <c r="Q7" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R7" s="31" t="n">
+      <c r="R7" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21018,7 +21013,7 @@
       <c r="C8" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="35" t="s">
         <v>409</v>
       </c>
       <c r="E8" s="30" t="s">
@@ -21030,29 +21025,29 @@
       <c r="G8" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="35" t="s">
         <v>410</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="34" t="s">
         <v>413</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="1"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R8" s="31" t="n">
+      <c r="R8" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21076,19 +21071,19 @@
       <c r="F9" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="35" t="s">
         <v>415</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="37" t="s">
         <v>413</v>
       </c>
       <c r="P9" s="1" t="n">
@@ -21097,7 +21092,7 @@
       <c r="Q9" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="R9" s="31" t="n">
+      <c r="R9" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21137,7 +21132,7 @@
   <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21151,27 +21146,27 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>420</v>
       </c>
     </row>
@@ -21181,28 +21176,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
-        <v>396</v>
+      <c r="B13" s="38" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21223,10 +21218,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="39" t="s">
         <v>410</v>
       </c>
     </row>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="433">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1140,6 +1140,9 @@
     <t xml:space="preserve">applicationURL</t>
   </si>
   <si>
+    <t xml:space="preserve">oldAppURL</t>
+  </si>
+  <si>
     <t xml:space="preserve">applicationName</t>
   </si>
   <si>
@@ -1212,103 +1215,112 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.6-13-12-2021-17:50.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
   </si>
   <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
   </si>
   <si>
     <t xml:space="preserve">13.5.1</t>
   </si>
   <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1334,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1426,6 +1438,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
@@ -1515,7 +1533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1652,6 +1670,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1660,7 +1682,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1763,56 +1785,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20611,37 +20633,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="17" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="17" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="17" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="17" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -20690,429 +20712,448 @@
       <c r="P1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="19" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S1" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+        <v>382</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" s="21"/>
+        <v>383</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" s="21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="23" t="n">
+      <c r="O2" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="Q2" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="R2" s="23" t="n">
+      <c r="R2" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" s="20" t="n">
+        <v>103</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20" t="n">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="R3" s="28" t="n">
+      <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="T3" s="29"/>
-    </row>
-    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U3" s="29"/>
+    </row>
+    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="L4" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="L4" t="s">
+        <v>432</v>
+      </c>
+      <c r="M4" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="20" t="n">
+      <c r="N4" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4" s="20" t="n">
         <v>306</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R4" s="33" t="n">
+      <c r="R4" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="S4" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5" s="20" t="n">
+        <v>307</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="20" t="n">
-        <v>307</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R5" s="33" t="n">
+      <c r="S5" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>397</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="M6" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="M6" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="20" t="n">
+      <c r="N6" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6" s="20" t="n">
         <v>106</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R6" s="33" t="n">
+      <c r="R6" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="S6" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>409</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="N7" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="20" t="n">
+      <c r="O7" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7" s="20" t="n">
         <v>306</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R7" s="33" t="n">
+      <c r="R7" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="S7" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>409</v>
+        <v>392</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="J8" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="I8" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="1" t="n">
+      <c r="J8" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="Q8" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R8" s="33" t="n">
+      <c r="R8" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="H9" s="35" t="s">
+      <c r="K9" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>413</v>
-      </c>
-      <c r="P9" s="1" t="n">
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="R9" s="33" t="n">
+      <c r="R9" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
-    <hyperlink ref="Q3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
+    <hyperlink ref="R2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
+    <hyperlink ref="R3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="Q4" r:id="rId4" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="R4" r:id="rId4" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E5" r:id="rId5" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="Q5" r:id="rId6" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="R5" r:id="rId6" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E6" r:id="rId7" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="Q6" r:id="rId8" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="R6" r:id="rId8" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E7" r:id="rId9" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="Q7" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="R7" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E8" r:id="rId11" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="Q8" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="R8" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E9" r:id="rId13" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="Q9" r:id="rId14" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="R9" r:id="rId14" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -21132,72 +21173,72 @@
   <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="38" t="s">
-        <v>406</v>
+      <c r="B5" s="39" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="38" t="s">
-        <v>418</v>
+      <c r="B6" s="39" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="38" t="s">
-        <v>406</v>
+      <c r="B7" s="39" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="38" t="s">
-        <v>419</v>
+      <c r="B8" s="39" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="38" t="s">
-        <v>420</v>
+      <c r="B9" s="39" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="38" t="s">
-        <v>419</v>
+      <c r="B11" s="39" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="38" t="s">
-        <v>421</v>
+      <c r="B13" s="39" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21206,38 +21247,38 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>410</v>
+      <c r="B25" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="432">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1224,6 +1224,9 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+  </si>
+  <si>
     <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
   </si>
   <si>
@@ -1315,12 +1318,6 @@
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1331,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1397,13 +1394,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13.5"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
@@ -1425,27 +1415,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
@@ -1533,7 +1504,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1622,15 +1593,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1638,11 +1601,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1654,15 +1617,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1670,11 +1629,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1682,15 +1637,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1720,11 +1671,11 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF067D17"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB4C7DC"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF6A8759"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1785,56 +1736,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20636,31 +20587,31 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20735,35 +20686,28 @@
       <c r="D2" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2" s="23" t="n">
+      <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="S2" s="23" t="n">
+      <c r="S2" s="22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20780,41 +20724,34 @@
       <c r="D3" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="H3"/>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P3"/>
       <c r="Q3" s="20" t="n">
         <v>103</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="S3" s="28" t="b">
+      <c r="S3" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U3" s="29"/>
-    </row>
-    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U3" s="27"/>
+    </row>
+    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>391</v>
       </c>
@@ -20827,10 +20764,10 @@
       <c r="D4" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>395</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -20839,7 +20776,7 @@
       <c r="H4" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="8" t="s">
         <v>397</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -20848,33 +20785,32 @@
       <c r="K4" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="L4" t="s">
-        <v>432</v>
-      </c>
-      <c r="M4" s="32" t="s">
+      <c r="L4" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="M4" s="29" t="s">
         <v>401</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>402</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="S4" s="33" t="b">
+        <v>403</v>
+      </c>
+      <c r="S4" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>44</v>
@@ -20885,20 +20821,20 @@
       <c r="D5" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="28" t="s">
         <v>395</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>383</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>398</v>
@@ -20906,31 +20842,32 @@
       <c r="K5" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="L5"/>
-      <c r="M5" s="32" t="s">
+      <c r="L5" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="M5" s="29" t="s">
         <v>401</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>402</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="20" t="n">
         <v>307</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="S5" s="33" t="b">
+        <v>403</v>
+      </c>
+      <c r="S5" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20941,10 +20878,10 @@
       <c r="D6" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="28" t="s">
         <v>395</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -20953,40 +20890,38 @@
       <c r="H6" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="8" t="s">
         <v>397</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K6"/>
-      <c r="L6" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="N6" s="25" t="s">
+      <c r="L6" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="M6" s="29" t="s">
         <v>401</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>402</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="20" t="n">
         <v>106</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="S6" s="33" t="b">
+        <v>403</v>
+      </c>
+      <c r="S6" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20997,10 +20932,10 @@
       <c r="D7" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>395</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -21009,38 +20944,35 @@
       <c r="H7" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>409</v>
+      <c r="I7" s="31" t="s">
+        <v>410</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="N7" s="25" t="s">
+      <c r="M7" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="S7" s="33" t="b">
+        <v>403</v>
+      </c>
+      <c r="S7" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -21048,49 +20980,44 @@
       <c r="C8" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="28" t="s">
         <v>395</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="J8" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+      <c r="K8" s="31" t="s">
+        <v>416</v>
+      </c>
       <c r="Q8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="S8" s="33" t="b">
+        <v>403</v>
+      </c>
+      <c r="S8" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>44</v>
@@ -21099,41 +21026,36 @@
         <v>392</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>417</v>
+      <c r="H9" s="32" t="s">
+        <v>418</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="K9" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
+      <c r="K9" s="33" t="s">
+        <v>416</v>
+      </c>
       <c r="Q9" s="1" t="n">
         <v>501</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="S9" s="33" t="b">
+        <v>403</v>
+      </c>
+      <c r="S9" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21178,7 +21100,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21187,58 +21109,58 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="39" t="s">
-        <v>409</v>
+      <c r="B5" s="34" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="39" t="s">
-        <v>419</v>
+      <c r="B6" s="34" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="39" t="s">
-        <v>409</v>
+      <c r="B7" s="34" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="39" t="s">
-        <v>420</v>
+      <c r="B8" s="34" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="39" t="s">
-        <v>421</v>
+      <c r="B9" s="34" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="39" t="s">
-        <v>420</v>
+      <c r="B11" s="34" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="39" t="s">
-        <v>422</v>
+      <c r="B13" s="34" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21247,38 +21169,38 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="F25" s="40" t="s">
+      <c r="B25" s="35" t="s">
         <v>428</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="433">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1248,7 +1248,7 @@
     <t xml:space="preserve">Android_003</t>
   </si>
   <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.6-13-12-2021-17:50.apk</t>
+    <t xml:space="preserve">http://di</t>
   </si>
   <si>
     <t xml:space="preserve">Android_0003</t>
@@ -1318,6 +1318,9 @@
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -1736,56 +1739,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20587,31 +20590,31 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20686,21 +20689,28 @@
       <c r="D2" s="21" t="s">
         <v>382</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>383</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>384</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>385</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
@@ -20724,28 +20734,35 @@
       <c r="D3" s="20" t="s">
         <v>382</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>383</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="25" t="s">
         <v>390</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>385</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="20" t="n">
         <v>103</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="26" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20786,7 +20803,7 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>401</v>
@@ -20797,13 +20814,14 @@
       <c r="O4" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S4" s="30" t="n">
+      <c r="S4" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20854,18 +20872,19 @@
       <c r="O5" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="20" t="n">
         <v>307</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="30" t="n">
+      <c r="S5" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>407</v>
       </c>
@@ -20896,6 +20915,7 @@
       <c r="J6" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>408</v>
       </c>
@@ -20908,13 +20928,14 @@
       <c r="O6" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="20" t="n">
         <v>106</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S6" s="30" t="n">
+      <c r="S6" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20950,6 +20971,8 @@
       <c r="J7" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="29" t="s">
         <v>401</v>
       </c>
@@ -20959,13 +20982,14 @@
       <c r="O7" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S7" s="30" t="n">
+      <c r="S7" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21004,13 +21028,18 @@
       <c r="K8" s="31" t="s">
         <v>416</v>
       </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" s="30" t="n">
+      <c r="S8" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21049,13 +21078,18 @@
       <c r="K9" s="33" t="s">
         <v>416</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="1" t="n">
         <v>501</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S9" s="30" t="n">
+      <c r="S9" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21069,13 +21103,14 @@
     <hyperlink ref="E5" r:id="rId5" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="R5" r:id="rId6" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E6" r:id="rId7" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R6" r:id="rId8" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E7" r:id="rId9" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R7" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E8" r:id="rId11" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R8" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E9" r:id="rId13" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R9" r:id="rId14" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="L6" r:id="rId8" display="http://di"/>
+    <hyperlink ref="R6" r:id="rId9" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E7" r:id="rId10" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="R7" r:id="rId11" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E8" r:id="rId12" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="R8" r:id="rId13" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E9" r:id="rId14" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="R9" r:id="rId15" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -21100,7 +21135,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="434">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1224,27 +1224,30 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
+    <t xml:space="preserve">http://amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
     <t xml:space="preserve">Android_003</t>
   </si>
   <si>
@@ -1320,7 +1323,7 @@
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
   </si>
   <si>
-    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -20590,11 +20593,11 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L7" activeCellId="0" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20768,7 +20771,7 @@
       </c>
       <c r="U3" s="27"/>
     </row>
-    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>391</v>
       </c>
@@ -20803,7 +20806,7 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>401</v>
@@ -20861,7 +20864,7 @@
         <v>399</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>401</v>
@@ -20886,7 +20889,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20917,7 +20920,7 @@
       </c>
       <c r="K6"/>
       <c r="L6" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M6" s="29" t="s">
         <v>401</v>
@@ -20942,7 +20945,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>44</v>
@@ -20966,13 +20969,15 @@
         <v>396</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>398</v>
       </c>
       <c r="K7"/>
-      <c r="L7"/>
+      <c r="L7" t="s">
+        <v>433</v>
+      </c>
       <c r="M7" s="29" t="s">
         <v>401</v>
       </c>
@@ -20996,7 +21001,7 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -21005,7 +21010,7 @@
         <v>392</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>394</v>
@@ -21017,16 +21022,16 @@
         <v>383</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -21046,7 +21051,7 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>44</v>
@@ -21055,7 +21060,7 @@
         <v>392</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>394</v>
@@ -21067,16 +21072,16 @@
         <v>383</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -21099,18 +21104,19 @@
     <hyperlink ref="R2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="R3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R4" r:id="rId4" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E5" r:id="rId5" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R5" r:id="rId6" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E6" r:id="rId7" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="L6" r:id="rId8" display="http://di"/>
-    <hyperlink ref="R6" r:id="rId9" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E7" r:id="rId10" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R7" r:id="rId11" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E8" r:id="rId12" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R8" r:id="rId13" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
-    <hyperlink ref="E9" r:id="rId14" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="R9" r:id="rId15" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="L4" r:id="rId4" display="http://amazon"/>
+    <hyperlink ref="R4" r:id="rId5" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E5" r:id="rId6" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="R5" r:id="rId7" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E6" r:id="rId8" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="L6" r:id="rId9" display="http://di"/>
+    <hyperlink ref="R6" r:id="rId10" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E7" r:id="rId11" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="R7" r:id="rId12" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E8" r:id="rId13" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="R8" r:id="rId14" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
+    <hyperlink ref="E9" r:id="rId15" display="sriganesh.d@i-exceed.com"/>
+    <hyperlink ref="R9" r:id="rId16" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -21145,27 +21151,27 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="34" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21175,27 +21181,27 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="34" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21204,38 +21210,38 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="35" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="435">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1324,6 +1324,9 @@
   </si>
   <si>
     <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+  </si>
+  <si>
+    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -20806,7 +20809,7 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>401</v>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="433">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1266,67 +1266,61 @@
     <t xml:space="preserve">ios</t>
   </si>
   <si>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
-  </si>
-  <si>
-    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1334,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1430,6 +1424,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1513,7 +1513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1646,6 +1646,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1745,56 +1749,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20596,31 +20600,31 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20695,28 +20699,21 @@
       <c r="D2" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>384</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
@@ -20740,35 +20737,28 @@
       <c r="D3" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="25" t="s">
         <v>390</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P3"/>
       <c r="Q3" s="20" t="n">
         <v>103</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="S3" s="26" t="b">
+      <c r="S3" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20809,7 +20799,7 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>401</v>
@@ -20820,14 +20810,13 @@
       <c r="O4" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S4" s="30" t="b">
+      <c r="S4" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20878,14 +20867,13 @@
       <c r="O5" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="20" t="n">
         <v>307</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="30" t="b">
+      <c r="S5" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20921,7 +20909,6 @@
       <c r="J6" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>409</v>
       </c>
@@ -20934,14 +20921,13 @@
       <c r="O6" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="20" t="n">
         <v>106</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S6" s="30" t="b">
+      <c r="S6" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20977,10 +20963,6 @@
       <c r="J7" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>433</v>
-      </c>
       <c r="M7" s="29" t="s">
         <v>401</v>
       </c>
@@ -20990,14 +20972,13 @@
       <c r="O7" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S7" s="30" t="b">
+      <c r="S7" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21027,7 +21008,7 @@
       <c r="H8" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="33" t="s">
         <v>415</v>
       </c>
       <c r="J8" s="31" t="s">
@@ -21036,18 +21017,13 @@
       <c r="K8" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
       <c r="Q8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" s="30" t="b">
+      <c r="S8" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21083,21 +21059,16 @@
       <c r="J9" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
       <c r="Q9" s="1" t="n">
         <v>501</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S9" s="30" t="b">
+      <c r="S9" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21139,12 +21110,12 @@
   <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21153,27 +21124,27 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>423</v>
       </c>
     </row>
@@ -21183,12 +21154,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>424</v>
       </c>
     </row>
@@ -21218,18 +21189,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F25" s="36" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="434">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1321,6 +1321,9 @@
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -1749,56 +1752,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20609,22 +20612,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20699,21 +20702,28 @@
       <c r="D2" s="21" t="s">
         <v>382</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>383</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>384</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>385</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
@@ -20737,28 +20747,35 @@
       <c r="D3" s="20" t="s">
         <v>382</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>383</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="25" t="s">
         <v>390</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>385</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="23" t="s">
         <v>386</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="20" t="n">
         <v>103</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="26" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20799,7 +20816,7 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>401</v>
@@ -20810,13 +20827,14 @@
       <c r="O4" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S4" s="30" t="n">
+      <c r="S4" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20867,13 +20885,14 @@
       <c r="O5" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="20" t="n">
         <v>307</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="30" t="n">
+      <c r="S5" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20909,6 +20928,7 @@
       <c r="J6" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>409</v>
       </c>
@@ -20921,13 +20941,14 @@
       <c r="O6" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="20" t="n">
         <v>106</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S6" s="30" t="n">
+      <c r="S6" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20963,6 +20984,8 @@
       <c r="J7" s="8" t="s">
         <v>398</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="29" t="s">
         <v>401</v>
       </c>
@@ -20972,13 +20995,14 @@
       <c r="O7" s="11" t="s">
         <v>387</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="20" t="n">
         <v>306</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S7" s="30" t="n">
+      <c r="S7" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21017,13 +21041,18 @@
       <c r="K8" s="31" t="s">
         <v>417</v>
       </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" s="30" t="n">
+      <c r="S8" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21062,13 +21091,18 @@
       <c r="K9" s="34" t="s">
         <v>417</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="1" t="n">
         <v>501</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S9" s="30" t="n">
+      <c r="S9" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21115,7 +21149,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="436">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1215,112 +1215,136 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://amazon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Automation-1-0-8-03-01-2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF067D17"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.apk</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
     <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
   </si>
   <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://amazon</t>
+    <t xml:space="preserve">http://di</t>
   </si>
   <si>
     <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
   </si>
   <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3</t>
   </si>
   <si>
     <t xml:space="preserve">13.5.1</t>
   </si>
   <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7plus_iOS_13.3.1_ce483</t>
   </si>
   <si>
     <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
@@ -1337,7 +1361,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1418,6 +1442,25 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1516,7 +1559,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1637,11 +1680,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1649,7 +1700,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20603,11 +20654,11 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20806,7 +20857,7 @@
       <c r="H4" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="29" t="s">
         <v>397</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -20816,9 +20867,9 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="M4" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>401</v>
       </c>
       <c r="N4" s="23" t="s">
@@ -20834,12 +20885,12 @@
       <c r="R4" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S4" s="30" t="b">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>404</v>
       </c>
@@ -20862,10 +20913,10 @@
         <v>383</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>406</v>
+        <v>396</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>397</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>398</v>
@@ -20874,9 +20925,9 @@
         <v>399</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="M5" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>401</v>
       </c>
       <c r="N5" s="23" t="s">
@@ -20892,14 +20943,14 @@
       <c r="R5" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="30" t="b">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20923,17 +20974,19 @@
         <v>396</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="L6" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="M6" s="32" t="s">
         <v>409</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>401</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>402</v>
@@ -20948,7 +21001,7 @@
       <c r="R6" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S6" s="30" t="b">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20976,18 +21029,20 @@
         <v>383</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I7" s="31" t="s">
         <v>411</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>407</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K7"/>
+      <c r="K7" s="8" t="s">
+        <v>399</v>
+      </c>
       <c r="L7"/>
-      <c r="M7" s="29" t="s">
-        <v>401</v>
+      <c r="M7" s="32" t="s">
+        <v>409</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>386</v>
@@ -21002,7 +21057,7 @@
       <c r="R7" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S7" s="30" t="b">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21017,7 +21072,7 @@
       <c r="C8" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>413</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -21029,16 +21084,16 @@
       <c r="G8" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="34" t="s">
         <v>414</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="35" t="s">
         <v>417</v>
       </c>
       <c r="L8"/>
@@ -21052,7 +21107,7 @@
       <c r="R8" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" s="30" t="b">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21076,19 +21131,19 @@
       <c r="F9" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="36" t="s">
         <v>417</v>
       </c>
       <c r="L9"/>
@@ -21102,7 +21157,7 @@
       <c r="R9" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S9" s="30" t="b">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21141,10 +21196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:F28"/>
+  <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21154,46 +21209,46 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="37" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>411</v>
-      </c>
-    </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="37" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="37" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>422</v>
+      <c r="B11" s="37" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>424</v>
       </c>
     </row>
@@ -21230,26 +21285,31 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>414</v>
+      <c r="F25" s="38" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="436">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1224,7 +1224,7 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">http://amazon</t>
+    <t xml:space="preserve">http://20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.8-31-12-2021-14:16.apk</t>
   </si>
   <si>
     <r>
@@ -1233,6 +1233,7 @@
         <color rgb="FF067D17"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Automation-1-0-8-03-01-2022</t>
     </r>
@@ -1240,8 +1241,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF067D17"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.apk</t>
@@ -1347,7 +1348,7 @@
     <t xml:space="preserve">APPLE_iPhone7plus_iOS_13.3.1_ce483</t>
   </si>
   <si>
-    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1362,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1446,35 +1447,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1559,7 +1535,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1676,11 +1652,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1688,20 +1660,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -20654,11 +20618,11 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20867,9 +20831,9 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="M4" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>401</v>
       </c>
       <c r="N4" s="23" t="s">
@@ -20885,7 +20849,7 @@
       <c r="R4" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S4" s="31" t="b">
+      <c r="S4" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20927,7 +20891,7 @@
       <c r="L5" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="11" t="s">
         <v>401</v>
       </c>
       <c r="N5" s="23" t="s">
@@ -20943,7 +20907,7 @@
       <c r="R5" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="31" t="b">
+      <c r="S5" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20985,7 +20949,7 @@
       <c r="L6" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="31" t="s">
         <v>409</v>
       </c>
       <c r="N6" s="23" t="s">
@@ -21001,7 +20965,7 @@
       <c r="R6" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S6" s="31" t="b">
+      <c r="S6" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21031,7 +20995,7 @@
       <c r="H7" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="8" t="s">
         <v>407</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -21041,7 +21005,7 @@
         <v>399</v>
       </c>
       <c r="L7"/>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="31" t="s">
         <v>409</v>
       </c>
       <c r="N7" s="23" t="s">
@@ -21057,7 +21021,7 @@
       <c r="R7" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S7" s="31" t="b">
+      <c r="S7" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21072,7 +21036,7 @@
       <c r="C8" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>413</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -21084,19 +21048,21 @@
       <c r="G8" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>435</v>
+      </c>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -21107,7 +21073,7 @@
       <c r="R8" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" s="31" t="b">
+      <c r="S8" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21131,19 +21097,19 @@
       <c r="F9" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="32" t="s">
         <v>414</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="33" t="s">
         <v>417</v>
       </c>
       <c r="L9"/>
@@ -21157,7 +21123,7 @@
       <c r="R9" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S9" s="31" t="b">
+      <c r="S9" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21167,7 +21133,7 @@
     <hyperlink ref="R2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="R3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="L4" r:id="rId4" display="http://amazon"/>
+    <hyperlink ref="L4" r:id="rId4" display="http://20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.8-31-12-2021-14:16.apk"/>
     <hyperlink ref="R4" r:id="rId5" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E5" r:id="rId6" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="R5" r:id="rId7" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
@@ -21199,7 +21165,7 @@
   <dimension ref="B4:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21213,27 +21179,27 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>422</v>
       </c>
     </row>
@@ -21243,12 +21209,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="34" t="s">
         <v>424</v>
       </c>
     </row>
@@ -21285,10 +21251,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="35" t="s">
         <v>431</v>
       </c>
     </row>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="433">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1224,29 +1224,10 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">http://20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.8-31-12-2021-14:16.apk</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF067D17"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Automation-1-0-8-03-01-2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.apk</t>
-    </r>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1258,7 +1239,10 @@
     <t xml:space="preserve">Android_002</t>
   </si>
   <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
   </si>
   <si>
     <t xml:space="preserve">Android_003</t>
@@ -1270,36 +1254,33 @@
     <t xml:space="preserve">http://di</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-7-21-12-2021.apk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">IOS_001</t>
   </si>
   <si>
     <t xml:space="preserve">ios</t>
   </si>
   <si>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
     <t xml:space="preserve">13.3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
   </si>
   <si>
@@ -1312,9 +1293,6 @@
     <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
   </si>
   <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
   </si>
   <si>
@@ -1336,19 +1314,13 @@
     <t xml:space="preserve">13.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
   </si>
   <si>
-    <t xml:space="preserve">APPLE_iPhone7plus_iOS_13.3.1_ce483</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1334,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1444,6 +1416,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1535,7 +1513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1652,7 +1630,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1660,7 +1642,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -20618,11 +20600,11 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20831,9 +20813,9 @@
         <v>399</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="M4" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>401</v>
       </c>
       <c r="N4" s="23" t="s">
@@ -20849,12 +20831,12 @@
       <c r="R4" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S4" s="30" t="b">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>404</v>
       </c>
@@ -20877,10 +20859,10 @@
         <v>383</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>397</v>
+        <v>405</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>398</v>
@@ -20889,9 +20871,9 @@
         <v>399</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="M5" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>401</v>
       </c>
       <c r="N5" s="23" t="s">
@@ -20907,14 +20889,14 @@
       <c r="R5" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S5" s="30" t="b">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>44</v>
@@ -20938,19 +20920,17 @@
         <v>396</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>399</v>
-      </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="M6" s="31" t="s">
         <v>409</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>401</v>
       </c>
       <c r="N6" s="23" t="s">
         <v>402</v>
@@ -20965,7 +20945,7 @@
       <c r="R6" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S6" s="30" t="b">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20993,20 +20973,18 @@
         <v>383</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>407</v>
+        <v>396</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>397</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>399</v>
-      </c>
+      <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="31" t="s">
-        <v>409</v>
+      <c r="M7" s="30" t="s">
+        <v>401</v>
       </c>
       <c r="N7" s="23" t="s">
         <v>386</v>
@@ -21021,14 +20999,14 @@
       <c r="R7" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S7" s="30" t="b">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>44</v>
@@ -21036,8 +21014,8 @@
       <c r="C8" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>413</v>
+      <c r="D8" s="33" t="s">
+        <v>412</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>394</v>
@@ -21048,21 +21026,19 @@
       <c r="G8" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="L8" t="s">
-        <v>435</v>
-      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
@@ -21073,14 +21049,14 @@
       <c r="R8" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S8" s="30" t="b">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>44</v>
@@ -21089,7 +21065,7 @@
         <v>392</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>394</v>
@@ -21097,20 +21073,20 @@
       <c r="F9" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>414</v>
+      <c r="H9" s="33" t="s">
+        <v>418</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="K9" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>417</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -21123,7 +21099,7 @@
       <c r="R9" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="S9" s="30" t="b">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21133,7 +21109,7 @@
     <hyperlink ref="R2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="R3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="L4" r:id="rId4" display="http://20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.8-31-12-2021-14:16.apk"/>
+    <hyperlink ref="L4" r:id="rId4" display="https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk"/>
     <hyperlink ref="R4" r:id="rId5" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E5" r:id="rId6" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="R5" r:id="rId7" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
@@ -21162,10 +21138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:F29"/>
+  <dimension ref="B4:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21175,62 +21151,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="35" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="34" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21239,43 +21215,38 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>431</v>
+      <c r="B25" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="435">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -21004,7 +21004,7 @@
         <v>401</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>403</v>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="559">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -2042,6 +2042,9 @@
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
   </si>
 </sst>
 </file>
@@ -2460,56 +2463,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23661,22 +23664,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="18" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="18" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23751,21 +23754,28 @@
       <c r="D2" s="22" t="s">
         <v>508</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="22" t="s">
         <v>509</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="22" t="s">
         <v>510</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>511</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="24" t="s">
         <v>512</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>513</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
@@ -23789,28 +23799,35 @@
       <c r="D3" s="21" t="s">
         <v>508</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="21" t="s">
         <v>509</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="26" t="s">
         <v>516</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>511</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="24" t="s">
         <v>512</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>513</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="21" t="n">
         <v>103</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="S3" s="27" t="n">
+      <c r="S3" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23851,7 +23868,7 @@
         <v>525</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>527</v>
@@ -23862,13 +23879,14 @@
       <c r="O4" s="11" t="s">
         <v>513</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="21" t="n">
         <v>306</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="S4" s="31" t="n">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23919,13 +23937,14 @@
       <c r="O5" s="11" t="s">
         <v>513</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="21" t="n">
         <v>307</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="S5" s="31" t="n">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -23961,6 +23980,7 @@
       <c r="J6" s="8" t="s">
         <v>524</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>535</v>
       </c>
@@ -23973,13 +23993,14 @@
       <c r="O6" s="11" t="s">
         <v>513</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="21" t="n">
         <v>106</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="S6" s="31" t="n">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24015,6 +24036,8 @@
       <c r="J7" s="8" t="s">
         <v>524</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="11" t="s">
         <v>527</v>
       </c>
@@ -24024,13 +24047,14 @@
       <c r="O7" s="11" t="s">
         <v>513</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="21" t="n">
         <v>306</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="S7" s="31" t="n">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24069,13 +24093,18 @@
       <c r="K8" s="30" t="s">
         <v>542</v>
       </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="1" t="n">
         <v>500</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="S8" s="31" t="n">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24114,13 +24143,18 @@
       <c r="K9" s="33" t="s">
         <v>542</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="1" t="n">
         <v>501</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="S9" s="31" t="n">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24167,7 +24201,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4227" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="704">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -2045,22 +2045,25 @@
     <t xml:space="preserve">14.6.0</t>
   </si>
   <si>
+    <t xml:space="preserve">APPLE_iPad7_iOS_14.0.1_7de055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">APPLE_iPad_iOS_13.7.0_c08f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7.0</t>
   </si>
   <si>
     <t xml:space="preserve">14.4.2</t>
@@ -2165,6 +2168,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">listIOS</t>
     </r>
@@ -2174,6 +2178,7 @@
         <color rgb="FF080808"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.add(</t>
     </r>
@@ -2183,6 +2188,7 @@
         <color rgb="FF067D17"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"APPLE_iPad9.7_iOS_14.4.0_a1d17"</t>
     </r>
@@ -2192,6 +2198,7 @@
         <color rgb="FF080808"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
@@ -2206,6 +2213,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">listIOS</t>
     </r>
@@ -2215,6 +2223,7 @@
         <color rgb="FF080808"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.add(</t>
     </r>
@@ -2224,6 +2233,7 @@
         <color rgb="FF067D17"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"APPLE_iPad9.7_iOS_14.3.0_a13e3"</t>
     </r>
@@ -2233,6 +2243,7 @@
         <color rgb="FF080808"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">);
 </t>
@@ -2243,6 +2254,7 @@
         <color rgb="FF000000"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">listIOS</t>
     </r>
@@ -2252,6 +2264,7 @@
         <color rgb="FF080808"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.add(</t>
     </r>
@@ -2261,6 +2274,7 @@
         <color rgb="FF067D17"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"APPLE_iPad8thGen_iOS_14.4.2_d5dd0"</t>
     </r>
@@ -2270,6 +2284,7 @@
         <color rgb="FF080808"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
@@ -2290,7 +2305,7 @@
     <numFmt numFmtId="168" formatCode="&quot;+91&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2381,28 +2396,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF080808"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2487,7 +2498,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2616,16 +2627,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2727,7 +2734,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -25999,10 +26006,10 @@
   </sheetPr>
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
       <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
@@ -26423,13 +26430,13 @@
       <c r="F8" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>660</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="33" t="s">
         <v>661</v>
       </c>
       <c r="J8" s="29" t="s">
@@ -26439,7 +26446,7 @@
         <v>663</v>
       </c>
       <c r="L8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -26475,19 +26482,19 @@
       <c r="F9" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="31" t="s">
         <v>659</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>666</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="34" t="s">
         <v>663</v>
       </c>
       <c r="L9"/>
@@ -26514,11 +26521,11 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="33" t="s">
-        <v>667</v>
+      <c r="H10" s="32" t="s">
+        <v>668</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>662</v>
@@ -26632,8 +26639,8 @@
   </sheetPr>
   <dimension ref="B4:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26645,32 +26652,32 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
-        <v>670</v>
+      <c r="B6" s="35" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
-        <v>671</v>
+      <c r="B8" s="35" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
-        <v>672</v>
+      <c r="B9" s="35" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26679,28 +26686,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
-        <v>671</v>
+      <c r="B11" s="35" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
-        <v>673</v>
+      <c r="B13" s="35" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -26709,139 +26716,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="s">
-        <v>680</v>
-      </c>
-      <c r="F25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>681</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37" t="s">
-        <v>688</v>
+      <c r="B32" s="36" t="s">
+        <v>689</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>689</v>
-      </c>
       <c r="F33" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>692</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="37" t="s">
-        <v>697</v>
+      <c r="B44" s="36" t="s">
+        <v>698</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="38" t="s">
-        <v>699</v>
+      <c r="B45" s="37" t="s">
+        <v>700</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="39" t="s">
-        <v>701</v>
+      <c r="B46" s="38" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4228" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="704">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">14.6.0</t>
   </si>
   <si>
-    <t xml:space="preserve">APPLE_iPad7_iOS_14.0.1_7de055</t>
+    <t xml:space="preserve">APPLE_iPadPro3_iOS_14.7.1_c7375</t>
   </si>
   <si>
     <t xml:space="preserve">XCUITest</t>
@@ -2133,9 +2133,6 @@
   </si>
   <si>
     <t xml:space="preserve">us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPadPro3_iOS_14.7.1_c7375</t>
   </si>
   <si>
     <t xml:space="preserve">add</t>
@@ -2291,6 +2288,9 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.11-13-01-2022-15:16.apk</t>
   </si>
 </sst>
 </file>
@@ -26220,7 +26220,7 @@
         <v>645</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>647</v>
@@ -26446,7 +26446,7 @@
         <v>663</v>
       </c>
       <c r="L8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -26773,43 +26773,43 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>690</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>690</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>690</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>690</v>
@@ -26823,32 +26823,32 @@
         <v>690</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>698</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>700</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="703">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -2285,9 +2285,6 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.11-13-01-2022-15:16.apk</t>
@@ -2734,10 +2731,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26006,12 +26003,12 @@
   </sheetPr>
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26220,7 +26217,7 @@
         <v>645</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>647</v>
@@ -26445,9 +26442,7 @@
       <c r="K8" s="29" t="s">
         <v>663</v>
       </c>
-      <c r="L8" t="s">
-        <v>702</v>
-      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="482">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1638,6 +1638,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk</t>
   </si>
 </sst>
 </file>
@@ -2092,56 +2095,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16408,22 +16411,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="18" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="18" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16498,21 +16501,28 @@
       <c r="D2" s="22" t="s">
         <v>408</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="22" t="s">
         <v>409</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="22" t="s">
         <v>410</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>411</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="24" t="s">
         <v>412</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>413</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
@@ -16536,28 +16546,35 @@
       <c r="D3" s="21" t="s">
         <v>408</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="21" t="s">
         <v>409</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="26" t="s">
         <v>416</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>411</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="24" t="s">
         <v>412</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>413</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="23" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="S3" s="27" t="n">
+      <c r="S3" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16598,7 +16615,7 @@
         <v>425</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>427</v>
@@ -16609,13 +16626,14 @@
       <c r="O4" s="11" t="s">
         <v>413</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="23" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="S4" s="31" t="n">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16666,13 +16684,14 @@
       <c r="O5" s="11" t="s">
         <v>413</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="23" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="S5" s="31" t="n">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16708,6 +16727,7 @@
       <c r="J6" s="8" t="s">
         <v>424</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>434</v>
       </c>
@@ -16720,13 +16740,14 @@
       <c r="O6" s="11" t="s">
         <v>413</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="23" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="S6" s="31" t="n">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16762,6 +16783,8 @@
       <c r="J7" s="8" t="s">
         <v>424</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="11" t="s">
         <v>427</v>
       </c>
@@ -16771,13 +16794,14 @@
       <c r="O7" s="11" t="s">
         <v>413</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="23" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="S7" s="31" t="n">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16816,14 +16840,18 @@
       <c r="K8" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="M8" s="11"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="23" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="S8" s="31" t="n">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16862,19 +16890,30 @@
       <c r="K9" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="M9" s="11"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="23" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="S9" s="31" t="n">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="33" t="s">
         <v>447</v>
       </c>
@@ -16884,20 +16923,78 @@
       <c r="J10" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="Q10" s="23"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M11" s="11"/>
-      <c r="Q11" s="23"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M12" s="11"/>
-      <c r="Q12" s="23"/>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M13" s="11"/>
-      <c r="Q13" s="23"/>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16941,9 +17038,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="482">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="482">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="482">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="493">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1173,78 +1173,57 @@
     <t xml:space="preserve">fund transfer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Business Logic screen-countrycode and type of operation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">,with valid input</t>
-    </r>
+    <t xml:space="preserve">Business Logic screen-countrycode and type of operation,with valid input</t>
   </si>
   <si>
     <t xml:space="preserve">TestCase_156</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Business Logic screen-countrycode and type of operation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -Arabic</t>
-    </r>
+    <t xml:space="preserve">Business Logic screen-countrycode and type of operation -Arabic</t>
   </si>
   <si>
     <t xml:space="preserve">TestCase_157</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Business Logic screen-countrycode and type of operation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-Arabic</t>
-    </r>
+    <t xml:space="preserve">Business Logic screen-countrycode and type of operation-Arabic</t>
   </si>
   <si>
     <t xml:space="preserve">TestCase_158</t>
   </si>
   <si>
+    <t xml:space="preserve">Home page -invalid username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page -invalid username max 100 character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divyadivyadivyajkjkjkjktaetaejinjinjinRMRMRMRMRSugasugajhopjhopejhopetaehyungjiminjiminjhopetarantarantypetypetypetharantype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BusinessLocation page -fill all mandatoty details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_164</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode</t>
   </si>
   <si>
@@ -1356,25 +1335,28 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-15-21-01-2022.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-15-21-01-2022.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
   </si>
   <si>
     <t xml:space="preserve">Android_003</t>
@@ -1639,9 +1621,6 @@
       <t xml:space="preserve">);</t>
     </r>
   </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk</t>
-  </si>
 </sst>
 </file>
 
@@ -1655,7 +1634,7 @@
     <numFmt numFmtId="168" formatCode="&quot;+91&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1743,12 +1722,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1847,7 +1820,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1984,10 +1957,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2000,11 +1969,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2087,64 +2056,64 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B157" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A157" activeCellId="0" sqref="A157"/>
-      <selection pane="topRight" activeCell="A162" activeCellId="0" sqref="A162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B162" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
+      <selection pane="topRight" activeCell="A168" activeCellId="0" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16159,7 +16128,7 @@
       <c r="AJ159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="8" t="s">
         <v>383</v>
       </c>
       <c r="B160" s="8" t="s">
@@ -16215,7 +16184,7 @@
       <c r="AJ160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="8" t="s">
         <v>385</v>
       </c>
       <c r="B161" s="8" t="s">
@@ -16273,7 +16242,7 @@
       <c r="AJ161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="8" t="s">
         <v>387</v>
       </c>
       <c r="B162" s="8" t="s">
@@ -16329,6 +16298,240 @@
       <c r="AH162" s="16"/>
       <c r="AI162" s="8"/>
       <c r="AJ162" s="8"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G163" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G164" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K167" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N167" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R167" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T167" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="U167" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V167" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z167" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA167" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB167" s="16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G168" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J168" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K168" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M168" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N168" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R168" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T168" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="U168" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V168" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z168" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA168" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB168" s="16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -16383,6 +16586,8 @@
     <hyperlink ref="I160" r:id="rId48" display="parkjimin@gmail.com"/>
     <hyperlink ref="I161" r:id="rId49" display="parkjimin@gmail.com"/>
     <hyperlink ref="I162" r:id="rId50" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I167" r:id="rId51" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I168" r:id="rId52" display="parkjimin@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16399,9 +16604,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
@@ -16411,22 +16616,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="18" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="18" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16437,97 +16642,90 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>419</v>
+      </c>
       <c r="G2" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="H2"/>
+        <v>420</v>
+      </c>
       <c r="I2" s="22" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>422</v>
+      </c>
       <c r="N2" s="24" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="P2"/>
+        <v>424</v>
+      </c>
       <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="S2" s="23" t="n">
         <v>0</v>
@@ -16535,46 +16733,39 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>419</v>
+      </c>
       <c r="G3" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="H3"/>
+        <v>420</v>
+      </c>
       <c r="I3" s="26" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+        <v>422</v>
+      </c>
       <c r="N3" s="24" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="P3"/>
+        <v>424</v>
+      </c>
       <c r="Q3" s="23" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="S3" s="27" t="b">
+        <v>425</v>
+      </c>
+      <c r="S3" s="27" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16582,426 +16773,330 @@
     </row>
     <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="P4"/>
       <c r="Q4" s="23" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="S4" s="31" t="b">
+        <v>440</v>
+      </c>
+      <c r="S4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>419</v>
-      </c>
       <c r="E5" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="P5"/>
       <c r="Q5" s="23" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="S5" s="31" t="b">
+        <v>440</v>
+      </c>
+      <c r="S5" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>422</v>
-      </c>
       <c r="I6" s="30" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="K6"/>
-      <c r="L6" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="P6"/>
       <c r="Q6" s="23" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="S6" s="31" t="b">
+        <v>440</v>
+      </c>
+      <c r="S6" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="I7" s="30" t="s">
+      <c r="M7" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="O7" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="P7"/>
       <c r="Q7" s="23" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="S7" s="31" t="b">
+        <v>440</v>
+      </c>
+      <c r="S7" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>440</v>
+        <v>451</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+        <v>454</v>
+      </c>
       <c r="Q8" s="23" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="S8" s="31" t="b">
+        <v>455</v>
+      </c>
+      <c r="S8" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
+        <v>453</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>454</v>
+      </c>
       <c r="Q9" s="23" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="S9" s="31" t="b">
+        <v>455</v>
+      </c>
+      <c r="S9" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="33" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
+        <v>453</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="R3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="L4" r:id="rId4" display="https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.7-21-12-2021-15:37.apk"/>
+    <hyperlink ref="L4" r:id="rId4" display="https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk"/>
     <hyperlink ref="R4" r:id="rId5" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E5" r:id="rId6" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="R5" r:id="rId7" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
@@ -17038,69 +17133,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="36" t="s">
-        <v>423</v>
+      <c r="B5" s="35" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
-        <v>450</v>
+      <c r="B6" s="35" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
-        <v>423</v>
+      <c r="B7" s="35" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
-        <v>451</v>
+      <c r="B8" s="35" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
-        <v>452</v>
+      <c r="B9" s="35" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
-        <v>451</v>
+      <c r="B11" s="35" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
-        <v>453</v>
+      <c r="B13" s="35" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17109,139 +17204,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>461</v>
+      <c r="B25" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="37" t="s">
-        <v>468</v>
+      <c r="B32" s="36" t="s">
+        <v>480</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="37" t="s">
-        <v>476</v>
+      <c r="B44" s="36" t="s">
+        <v>488</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="38" t="s">
-        <v>478</v>
+      <c r="B45" s="37" t="s">
+        <v>490</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="39" t="s">
-        <v>480</v>
+      <c r="B46" s="38" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="494">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1338,7 +1338,7 @@
     <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-15-21-01-2022.apk</t>
+    <t xml:space="preserve">Automation-1-0-16-27-01-2022.apk</t>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1620,6 +1620,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
 </sst>
 </file>
@@ -2056,64 +2059,64 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B165" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B159" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
       <selection pane="topRight" activeCell="A168" activeCellId="0" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16606,32 +16609,32 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="18" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="18" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16706,21 +16709,28 @@
       <c r="D2" s="22" t="s">
         <v>419</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="22" t="s">
         <v>420</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="22" t="s">
         <v>421</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>422</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="24" t="s">
         <v>423</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
@@ -16744,28 +16754,35 @@
       <c r="D3" s="21" t="s">
         <v>419</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="21" t="s">
         <v>420</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="26" t="s">
         <v>427</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>422</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="24" t="s">
         <v>423</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="23" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="S3" s="27" t="n">
+      <c r="S3" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16806,7 +16823,7 @@
         <v>436</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>438</v>
@@ -16817,13 +16834,14 @@
       <c r="O4" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="23" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S4" s="31" t="n">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16874,13 +16892,14 @@
       <c r="O5" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="23" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S5" s="31" t="n">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16916,6 +16935,7 @@
       <c r="J6" s="8" t="s">
         <v>435</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>446</v>
       </c>
@@ -16928,13 +16948,14 @@
       <c r="O6" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="23" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S6" s="31" t="n">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16970,6 +16991,8 @@
       <c r="J7" s="8" t="s">
         <v>435</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="11" t="s">
         <v>438</v>
       </c>
@@ -16979,13 +17002,14 @@
       <c r="O7" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="23" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S7" s="31" t="n">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17024,13 +17048,18 @@
       <c r="K8" s="30" t="s">
         <v>454</v>
       </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="23" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="S8" s="31" t="n">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17069,18 +17098,30 @@
       <c r="K9" s="34" t="s">
         <v>454</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="23" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="S9" s="31" t="n">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="33" t="s">
         <v>459</v>
       </c>
@@ -17090,6 +17131,15 @@
       <c r="J10" s="30" t="s">
         <v>453</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17133,9 +17183,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="498">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="498">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="497">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1632,9 +1632,6 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
 </sst>
 </file>
@@ -2074,61 +2071,61 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B165" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
-      <selection pane="topRight" activeCell="B169" activeCellId="0" sqref="B169"/>
+      <selection pane="topRight" activeCell="G166" activeCellId="0" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16775,22 +16772,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="18" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="18" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="18" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16865,28 +16862,21 @@
       <c r="D2" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="22" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" s="24" t="s">
         <v>427</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="P2"/>
       <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
@@ -16910,35 +16900,28 @@
       <c r="D3" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="26" t="s">
         <v>431</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" s="24" t="s">
         <v>427</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="P3"/>
       <c r="Q3" s="23" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="S3" s="27" t="b">
+      <c r="S3" s="27" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16979,7 +16962,7 @@
         <v>440</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>442</v>
@@ -16990,14 +16973,13 @@
       <c r="O4" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="23" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S4" s="31" t="b">
+      <c r="S4" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17048,14 +17030,13 @@
       <c r="O5" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="23" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S5" s="31" t="b">
+      <c r="S5" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17091,7 +17072,6 @@
       <c r="J6" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>450</v>
       </c>
@@ -17104,14 +17084,13 @@
       <c r="O6" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="23" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S6" s="31" t="b">
+      <c r="S6" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17147,8 +17126,6 @@
       <c r="J7" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
       <c r="M7" s="11" t="s">
         <v>442</v>
       </c>
@@ -17158,14 +17135,13 @@
       <c r="O7" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="23" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S7" s="31" t="b">
+      <c r="S7" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17204,18 +17180,13 @@
       <c r="K8" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
       <c r="Q8" s="23" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="S8" s="31" t="b">
+      <c r="S8" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17254,30 +17225,18 @@
       <c r="K9" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
       <c r="Q9" s="23" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="S9" s="31" t="b">
+      <c r="S9" s="31" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="33" t="s">
         <v>463</v>
       </c>
@@ -17287,15 +17246,6 @@
       <c r="J10" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17339,9 +17289,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="498">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1632,6 +1632,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
 </sst>
 </file>
@@ -2076,56 +2079,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16772,22 +16775,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="18" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="18" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="18" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="18" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="18" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="18" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="18" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="18" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16862,21 +16865,28 @@
       <c r="D2" s="22" t="s">
         <v>423</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="22" t="s">
         <v>424</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="22" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>426</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="24" t="s">
         <v>427</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>428</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="23" t="n">
         <v>500</v>
       </c>
@@ -16900,28 +16910,35 @@
       <c r="D3" s="21" t="s">
         <v>423</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="21" t="s">
         <v>424</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="26" t="s">
         <v>431</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>426</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="24" t="s">
         <v>427</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>428</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="23" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="S3" s="27" t="n">
+      <c r="S3" s="27" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16962,7 +16979,7 @@
         <v>440</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>442</v>
@@ -16973,13 +16990,14 @@
       <c r="O4" s="11" t="s">
         <v>428</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="23" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S4" s="31" t="n">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17030,13 +17048,14 @@
       <c r="O5" s="11" t="s">
         <v>428</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="23" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S5" s="31" t="n">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17072,6 +17091,7 @@
       <c r="J6" s="8" t="s">
         <v>439</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>450</v>
       </c>
@@ -17084,13 +17104,14 @@
       <c r="O6" s="11" t="s">
         <v>428</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="23" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S6" s="31" t="n">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17126,6 +17147,8 @@
       <c r="J7" s="8" t="s">
         <v>439</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="11" t="s">
         <v>442</v>
       </c>
@@ -17135,13 +17158,14 @@
       <c r="O7" s="11" t="s">
         <v>428</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="23" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="S7" s="31" t="n">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17180,13 +17204,18 @@
       <c r="K8" s="30" t="s">
         <v>458</v>
       </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="23" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="S8" s="31" t="n">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17225,18 +17254,30 @@
       <c r="K9" s="34" t="s">
         <v>458</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="23" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="S9" s="31" t="n">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="33" t="s">
         <v>463</v>
       </c>
@@ -17246,6 +17287,15 @@
       <c r="J10" s="30" t="s">
         <v>457</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17289,9 +17339,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="498">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="498">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="501">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1236,6 +1236,18 @@
     <t xml:space="preserve">TestCase_166</t>
   </si>
   <si>
+    <t xml:space="preserve">TestCase_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arabic</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode</t>
   </si>
   <si>
@@ -1347,7 +1359,7 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk</t>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
   <si>
     <t xml:space="preserve">Automation-1-0-16-27-01-2022.apk</t>
@@ -1633,9 +1645,6 @@
       <t xml:space="preserve">);</t>
     </r>
   </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
-  </si>
 </sst>
 </file>
 
@@ -1649,7 +1658,7 @@
     <numFmt numFmtId="168" formatCode="&quot;+91&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1694,12 +1703,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1835,7 +1838,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1904,19 +1907,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1936,11 +1935,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1952,11 +1951,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1972,11 +1971,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1984,11 +1983,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2071,64 +2070,64 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B165" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
-      <selection pane="topRight" activeCell="G166" activeCellId="0" sqref="G166"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B121" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="topRight" activeCell="A124" activeCellId="0" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13565,7 +13564,7 @@
         <v>40</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>100</v>
@@ -16416,7 +16415,7 @@
       <c r="C167" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="17" t="s">
+      <c r="E167" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F167" s="1" t="s">
@@ -16425,7 +16424,7 @@
       <c r="G167" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="H167" s="17" t="s">
+      <c r="H167" s="8" t="s">
         <v>398</v>
       </c>
       <c r="I167" s="8" t="s">
@@ -16496,7 +16495,7 @@
       <c r="G168" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="H168" s="17" t="s">
+      <c r="H168" s="8" t="s">
         <v>398</v>
       </c>
       <c r="I168" s="8" t="s">
@@ -16558,7 +16557,7 @@
       <c r="C169" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E169" s="17" t="s">
+      <c r="E169" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F169" s="1" t="s">
@@ -16567,7 +16566,7 @@
       <c r="G169" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="H169" s="17" t="s">
+      <c r="H169" s="8" t="s">
         <v>398</v>
       </c>
       <c r="I169" s="8" t="s">
@@ -16619,7 +16618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>402</v>
       </c>
@@ -16638,7 +16637,7 @@
       <c r="G170" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="H170" s="17" t="s">
+      <c r="H170" s="8" t="s">
         <v>398</v>
       </c>
       <c r="I170" s="8" t="s">
@@ -16689,6 +16688,88 @@
       <c r="AB170" s="16" t="n">
         <v>12</v>
       </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G171" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K171" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N171" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+      <c r="AN171" s="1"/>
+      <c r="AO171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K172" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M172" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N172" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R172" s="8"/>
+      <c r="T172" s="8"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -16747,6 +16828,8 @@
     <hyperlink ref="I168" r:id="rId52" display="parkjimin@gmail.com"/>
     <hyperlink ref="I169" r:id="rId53" display="parkjimin@gmail.com"/>
     <hyperlink ref="I170" r:id="rId54" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I171" r:id="rId55" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I172" r:id="rId56" display="parkjimin@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -16775,22 +16858,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="18" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="18" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="18" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="18" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="18" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="18" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="18" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="18" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="18" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="18" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="18" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="18" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16801,508 +16884,461 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>407</v>
+        <v>409</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>411</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>419</v>
+        <v>422</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="B2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="24" t="s">
+      <c r="D2" s="21" t="s">
         <v>427</v>
       </c>
+      <c r="G2" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>431</v>
+      </c>
       <c r="O2" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q2" s="22" t="n">
+        <v>500</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="S2" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2" s="23" t="n">
-        <v>500</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="S2" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="I3" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" s="26" t="s">
+      <c r="N3" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" s="24" t="s">
-        <v>427</v>
-      </c>
       <c r="O3" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3" s="23" t="n">
+        <v>432</v>
+      </c>
+      <c r="Q3" s="22" t="n">
         <v>501</v>
       </c>
-      <c r="R3" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="S3" s="27" t="b">
+      <c r="R3" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="S3" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U3" s="28"/>
+      <c r="U3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="P4"/>
-      <c r="Q4" s="23" t="n">
+      <c r="Q4" s="22" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="S4" s="31" t="b">
+        <v>448</v>
+      </c>
+      <c r="S4" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>440</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="N5" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="L5" s="18" t="s">
+      <c r="O5" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q5" s="22" t="n">
+        <v>503</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="P5"/>
-      <c r="Q5" s="23" t="n">
-        <v>503</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="S5" s="31" t="b">
+      <c r="S5" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>440</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>442</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="K6"/>
+        <v>443</v>
+      </c>
       <c r="L6" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>443</v>
+        <v>446</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>447</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="P6"/>
-      <c r="Q6" s="23" t="n">
+        <v>432</v>
+      </c>
+      <c r="Q6" s="22" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="S6" s="31" t="b">
+        <v>448</v>
+      </c>
+      <c r="S6" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>440</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>442</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
+        <v>443</v>
+      </c>
       <c r="M7" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>427</v>
+        <v>446</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>431</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="P7"/>
-      <c r="Q7" s="23" t="n">
+        <v>432</v>
+      </c>
+      <c r="Q7" s="22" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="S7" s="31" t="b">
+        <v>448</v>
+      </c>
+      <c r="S7" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>440</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>459</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8" s="23" t="n">
+        <v>460</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q8" s="22" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="S8" s="31" t="b">
+        <v>463</v>
+      </c>
+      <c r="S8" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="H9" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="K9" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9" s="23" t="n">
+      <c r="Q9" s="22" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="S9" s="31" t="b">
+        <v>463</v>
+      </c>
+      <c r="S9" s="30" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10" s="33" t="s">
-        <v>463</v>
+      <c r="H10" s="32" t="s">
+        <v>467</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+        <v>468</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>461</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="R3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="L4" r:id="rId4" display="https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.15-21-01-2022-14:05.apk"/>
+    <hyperlink ref="L4" r:id="rId4" display="https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk"/>
     <hyperlink ref="R4" r:id="rId5" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E5" r:id="rId6" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="R5" r:id="rId7" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
@@ -17339,69 +17375,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="35" t="s">
-        <v>438</v>
+      <c r="B5" s="34" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
-        <v>466</v>
+      <c r="B6" s="34" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
-        <v>438</v>
+      <c r="B7" s="34" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
-        <v>467</v>
+      <c r="B8" s="34" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
-        <v>468</v>
+      <c r="B9" s="34" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>467</v>
+      <c r="B11" s="34" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
-        <v>469</v>
+      <c r="B13" s="34" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17410,139 +17446,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>477</v>
+      <c r="B25" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="36" t="s">
-        <v>484</v>
+      <c r="B32" s="35" t="s">
+        <v>488</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="36" t="s">
-        <v>492</v>
+      <c r="B44" s="35" t="s">
+        <v>496</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="37" t="s">
-        <v>494</v>
+      <c r="B45" s="36" t="s">
+        <v>498</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="38" t="s">
-        <v>496</v>
+      <c r="B46" s="37" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="503">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1398,9 +1398,6 @@
     <t xml:space="preserve">ios</t>
   </si>
   <si>
-    <t xml:space="preserve">landscape</t>
-  </si>
-  <si>
     <t xml:space="preserve">14.6.0</t>
   </si>
   <si>
@@ -1411,6 +1408,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
   </si>
   <si>
     <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
@@ -1644,6 +1644,12 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2076,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B121" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
       <selection pane="topRight" activeCell="A124" activeCellId="0" sqref="A124"/>
@@ -2078,56 +2084,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16848,32 +16854,32 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16948,21 +16954,28 @@
       <c r="D2" s="21" t="s">
         <v>427</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>428</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>429</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>430</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="23" t="s">
         <v>431</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>432</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
@@ -16986,28 +16999,35 @@
       <c r="D3" s="20" t="s">
         <v>427</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>428</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="25" t="s">
         <v>435</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>430</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="23" t="s">
         <v>431</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>432</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="22" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="26" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17048,7 +17068,7 @@
         <v>444</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>446</v>
@@ -17059,13 +17079,14 @@
       <c r="O4" s="11" t="s">
         <v>432</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="22" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S4" s="30" t="n">
+      <c r="S4" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17116,13 +17137,14 @@
       <c r="O5" s="11" t="s">
         <v>432</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="22" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S5" s="30" t="n">
+      <c r="S5" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17158,6 +17180,7 @@
       <c r="J6" s="8" t="s">
         <v>443</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>454</v>
       </c>
@@ -17170,13 +17193,14 @@
       <c r="O6" s="11" t="s">
         <v>432</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="22" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S6" s="30" t="n">
+      <c r="S6" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17212,6 +17236,8 @@
       <c r="J7" s="8" t="s">
         <v>443</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="11" t="s">
         <v>446</v>
       </c>
@@ -17221,13 +17247,14 @@
       <c r="O7" s="11" t="s">
         <v>432</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="22" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S7" s="30" t="n">
+      <c r="S7" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17251,28 +17278,35 @@
       <c r="F8" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="I8" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>462</v>
-      </c>
+      <c r="L8" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="22" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="S8" s="30" t="n">
+      <c r="S8" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17296,8 +17330,8 @@
       <c r="F9" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>458</v>
+      <c r="G9" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>465</v>
@@ -17306,23 +17340,35 @@
         <v>466</v>
       </c>
       <c r="J9" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="K9" s="33" t="s">
-        <v>462</v>
-      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="22" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="S9" s="30" t="n">
+      <c r="S9" s="30" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="32" t="s">
         <v>467</v>
       </c>
@@ -17330,8 +17376,17 @@
         <v>468</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>461</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17375,9 +17430,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17503,7 +17558,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>489</v>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="503">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="503">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="503">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="502">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1647,9 +1647,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
 </sst>
 </file>
@@ -2076,16 +2073,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B121" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
-      <selection pane="topRight" activeCell="A124" activeCellId="0" sqref="A124"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="12.85" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
     <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
     <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
     <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
@@ -16854,12 +16851,12 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17068,7 +17065,7 @@
         <v>444</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>446</v>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="502">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="502">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1362,7 +1362,25 @@
     <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/manual/qaRelease-1.0.16-27-01-2022-10:18.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-16-27-01-2022.apk</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Automation-1-0-18-02-02-2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF067D17"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.apk</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1646,7 +1664,7 @@
     </r>
   </si>
   <si>
-    <t>null</t>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.18-02-02-2022-14:23.apk</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1679,7 @@
     <numFmt numFmtId="168" formatCode="&quot;+91&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1742,6 +1760,19 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1841,7 +1872,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1962,6 +1993,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1986,11 +2021,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2073,7 +2108,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E4" activeCellId="0" sqref="E4"/>
@@ -16851,12 +16886,12 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17030,7 +17065,7 @@
       </c>
       <c r="U3" s="27"/>
     </row>
-    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>436</v>
       </c>
@@ -17065,9 +17100,9 @@
         <v>444</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="M4" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="M4" s="30" t="s">
         <v>446</v>
       </c>
       <c r="N4" s="23" t="s">
@@ -17083,12 +17118,12 @@
       <c r="R4" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S4" s="30" t="b">
+      <c r="S4" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>449</v>
       </c>
@@ -17125,7 +17160,7 @@
       <c r="L5" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="30" t="s">
         <v>446</v>
       </c>
       <c r="N5" s="23" t="s">
@@ -17141,7 +17176,7 @@
       <c r="R5" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S5" s="30" t="b">
+      <c r="S5" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17181,7 +17216,7 @@
       <c r="L6" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="30" t="s">
         <v>446</v>
       </c>
       <c r="N6" s="23" t="s">
@@ -17197,7 +17232,7 @@
       <c r="R6" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S6" s="30" t="b">
+      <c r="S6" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17235,7 +17270,7 @@
       </c>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="30" t="s">
         <v>446</v>
       </c>
       <c r="N7" s="23" t="s">
@@ -17251,7 +17286,7 @@
       <c r="R7" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S7" s="30" t="b">
+      <c r="S7" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17266,7 +17301,7 @@
       <c r="C8" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>457</v>
       </c>
       <c r="E8" s="28" t="s">
@@ -17278,7 +17313,7 @@
       <c r="G8" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="33" t="s">
         <v>458</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -17291,7 +17326,7 @@
         <v>461</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -17303,7 +17338,7 @@
       <c r="R8" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="S8" s="30" t="b">
+      <c r="S8" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17330,7 +17365,7 @@
       <c r="G9" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="33" t="s">
         <v>465</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -17339,7 +17374,7 @@
       <c r="J9" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="34" t="s">
         <v>461</v>
       </c>
       <c r="L9"/>
@@ -17353,7 +17388,7 @@
       <c r="R9" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="S9" s="30" t="b">
+      <c r="S9" s="31" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17366,7 +17401,7 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="33" t="s">
         <v>467</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -17438,27 +17473,27 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>472</v>
       </c>
     </row>
@@ -17468,12 +17503,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>473</v>
       </c>
     </row>
@@ -17510,10 +17545,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="36" t="s">
         <v>481</v>
       </c>
     </row>
@@ -17546,7 +17581,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="36" t="s">
         <v>488</v>
       </c>
       <c r="E32" s="0" t="s">
@@ -17613,7 +17648,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>496</v>
       </c>
       <c r="E44" s="0" t="s">
@@ -17621,7 +17656,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="37" t="s">
         <v>498</v>
       </c>
       <c r="F45" s="0" t="s">
@@ -17629,7 +17664,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="38" t="s">
         <v>500</v>
       </c>
     </row>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -2147,10 +2147,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B80" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
-      <selection pane="topRight" activeCell="E84" activeCellId="0" sqref="E84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B7" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topRight" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17309,10 +17309,10 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="521">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1701,6 +1701,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
   </si>
 </sst>
 </file>
@@ -2155,56 +2158,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17318,22 +17321,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17408,21 +17411,28 @@
       <c r="D2" s="21" t="s">
         <v>447</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>448</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>449</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>450</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="23" t="s">
         <v>451</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
@@ -17446,28 +17456,35 @@
       <c r="D3" s="20" t="s">
         <v>447</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>448</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="25" t="s">
         <v>455</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>450</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="23" t="s">
         <v>451</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="22" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="26" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17508,7 +17525,7 @@
         <v>464</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>466</v>
@@ -17519,13 +17536,14 @@
       <c r="O4" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="22" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S4" s="32" t="n">
+      <c r="S4" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17576,13 +17594,14 @@
       <c r="O5" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="22" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S5" s="32" t="n">
+      <c r="S5" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17618,6 +17637,7 @@
       <c r="J6" s="8" t="s">
         <v>463</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>473</v>
       </c>
@@ -17630,13 +17650,14 @@
       <c r="O6" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="22" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S6" s="32" t="n">
+      <c r="S6" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17672,6 +17693,8 @@
       <c r="J7" s="8" t="s">
         <v>463</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="31" t="s">
         <v>466</v>
       </c>
@@ -17681,13 +17704,14 @@
       <c r="O7" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="22" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S7" s="32" t="n">
+      <c r="S7" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17729,13 +17753,17 @@
       <c r="L8" s="17" t="s">
         <v>481</v>
       </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="22" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="S8" s="32" t="n">
+      <c r="S8" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17774,18 +17802,30 @@
       <c r="K9" s="35" t="s">
         <v>480</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="22" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="S9" s="32" t="n">
+      <c r="S9" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="34" t="s">
         <v>486</v>
       </c>
@@ -17795,6 +17835,15 @@
       <c r="J10" s="29" t="s">
         <v>479</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17839,9 +17888,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="520">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1701,9 +1701,6 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
   </si>
 </sst>
 </file>
@@ -2150,64 +2147,64 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B7" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="topRight" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B172" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A172" activeCellId="0" sqref="A172"/>
+      <selection pane="topRight" activeCell="B175" activeCellId="0" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17321,22 +17318,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17411,28 +17408,21 @@
       <c r="D2" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>449</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" s="23" t="s">
         <v>451</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
@@ -17456,35 +17446,28 @@
       <c r="D3" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="25" t="s">
         <v>455</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" s="23" t="s">
         <v>451</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="P3"/>
       <c r="Q3" s="22" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="S3" s="26" t="b">
+      <c r="S3" s="26" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17525,7 +17508,7 @@
         <v>464</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>466</v>
@@ -17536,14 +17519,13 @@
       <c r="O4" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="22" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S4" s="32" t="b">
+      <c r="S4" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17594,14 +17576,13 @@
       <c r="O5" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="22" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S5" s="32" t="b">
+      <c r="S5" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17637,7 +17618,6 @@
       <c r="J6" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>473</v>
       </c>
@@ -17650,14 +17630,13 @@
       <c r="O6" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="22" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S6" s="32" t="b">
+      <c r="S6" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17693,8 +17672,6 @@
       <c r="J7" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
       <c r="M7" s="31" t="s">
         <v>466</v>
       </c>
@@ -17704,14 +17681,13 @@
       <c r="O7" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="22" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S7" s="32" t="b">
+      <c r="S7" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17753,17 +17729,13 @@
       <c r="L8" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
       <c r="Q8" s="22" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="S8" s="32" t="b">
+      <c r="S8" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17802,30 +17774,18 @@
       <c r="K9" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
       <c r="Q9" s="22" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="S9" s="32" t="b">
+      <c r="S9" s="32" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="34" t="s">
         <v>486</v>
       </c>
@@ -17835,15 +17795,6 @@
       <c r="J10" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17882,15 +17833,15 @@
   </sheetPr>
   <dimension ref="B4:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="521">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1701,6 +1701,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
   </si>
 </sst>
 </file>
@@ -2155,56 +2158,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17318,22 +17321,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="17" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="17" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="17" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="17" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="17" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="17" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="17" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="17" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="17" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="17" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="17" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="17" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="17" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="17" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="17" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="17" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="17" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="17" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17408,21 +17411,28 @@
       <c r="D2" s="21" t="s">
         <v>447</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="21" t="s">
         <v>448</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="21" t="s">
         <v>449</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>450</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="23" t="s">
         <v>451</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
@@ -17446,28 +17456,35 @@
       <c r="D3" s="20" t="s">
         <v>447</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="20" t="s">
         <v>448</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="25" t="s">
         <v>455</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>450</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="23" t="s">
         <v>451</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="22" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="26" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17508,7 +17525,7 @@
         <v>464</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>466</v>
@@ -17519,13 +17536,14 @@
       <c r="O4" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="22" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S4" s="32" t="n">
+      <c r="S4" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17576,13 +17594,14 @@
       <c r="O5" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="22" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S5" s="32" t="n">
+      <c r="S5" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17618,6 +17637,7 @@
       <c r="J6" s="8" t="s">
         <v>463</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="11" t="s">
         <v>473</v>
       </c>
@@ -17630,13 +17650,14 @@
       <c r="O6" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="22" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S6" s="32" t="n">
+      <c r="S6" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17672,6 +17693,8 @@
       <c r="J7" s="8" t="s">
         <v>463</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="31" t="s">
         <v>466</v>
       </c>
@@ -17681,13 +17704,14 @@
       <c r="O7" s="11" t="s">
         <v>452</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="22" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="S7" s="32" t="n">
+      <c r="S7" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17729,13 +17753,17 @@
       <c r="L8" s="17" t="s">
         <v>481</v>
       </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="22" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="S8" s="32" t="n">
+      <c r="S8" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17774,18 +17802,30 @@
       <c r="K9" s="35" t="s">
         <v>480</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="22" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="S9" s="32" t="n">
+      <c r="S9" s="32" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="34" t="s">
         <v>486</v>
       </c>
@@ -17795,6 +17835,15 @@
       <c r="J10" s="29" t="s">
         <v>479</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17839,9 +17888,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="522">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1704,6 +1704,9 @@
   </si>
   <si>
     <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -17751,7 +17754,7 @@
         <v>480</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="522">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="520">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1287,9 +1287,6 @@
     <t xml:space="preserve">TestCase_170</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agriculture, forestry and fishing</t>
   </si>
   <si>
@@ -1422,7 +1419,25 @@
     <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-19-02-02-2022.apk</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Automation-1-0-20-02-02-2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF067D17"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.apk</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1705,9 +1720,6 @@
   <si>
     <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
   </si>
-  <si>
-    <t>null</t>
-  </si>
 </sst>
 </file>
 
@@ -1721,7 +1733,7 @@
     <numFmt numFmtId="168" formatCode="&quot;+91&quot;"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1809,12 +1821,20 @@
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF067D17"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2066,11 +2086,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2153,10 +2173,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B172" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A172" activeCellId="0" sqref="A172"/>
-      <selection pane="topRight" activeCell="B175" activeCellId="0" sqref="B175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="I105" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A105" activeCellId="0" sqref="A105"/>
+      <selection pane="topRight" activeCell="I107" activeCellId="0" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17046,19 +17066,19 @@
         <v>12</v>
       </c>
       <c r="AC174" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD174" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AD174" s="1" t="s">
+      <c r="AE174" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AE174" s="1" t="s">
+      <c r="AF174" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AF174" s="1" t="s">
+      <c r="AG174" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="AG174" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17066,7 +17086,7 @@
         <v>413</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>35</v>
@@ -17152,7 +17172,7 @@
         <v>413</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>35</v>
@@ -17218,19 +17238,19 @@
         <v>12</v>
       </c>
       <c r="AC176" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD176" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AD176" s="1" t="s">
+      <c r="AE176" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AE176" s="1" t="s">
+      <c r="AF176" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AF176" s="1" t="s">
+      <c r="AG176" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="AG176" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17314,11 +17334,11 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
       <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -17350,97 +17370,97 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>446</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>447</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>449</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>450</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S2" s="22" t="n">
         <v>0</v>
@@ -17448,44 +17468,44 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>446</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>447</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="P3"/>
       <c r="Q3" s="22" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S3" s="26" t="b">
         <f aca="false">FALSE()</f>
@@ -17495,56 +17515,56 @@
     </row>
     <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>464</v>
-      </c>
       <c r="L4" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M4" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="N4" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="N4" s="23" t="s">
-        <v>467</v>
-      </c>
       <c r="O4" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P4"/>
       <c r="Q4" s="22" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S4" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17553,56 +17573,56 @@
     </row>
     <row r="5" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>471</v>
-      </c>
       <c r="J5" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="N5" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>467</v>
-      </c>
       <c r="O5" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P5"/>
       <c r="Q5" s="22" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S5" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17611,54 +17631,54 @@
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="J6" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M6" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>467</v>
-      </c>
       <c r="O6" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P6"/>
       <c r="Q6" s="22" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S6" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17667,52 +17687,52 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="F7" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N7" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>452</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="22" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S7" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17721,40 +17741,40 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H8" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="I8" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="L8" s="17" t="s">
         <v>480</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>521</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -17764,7 +17784,7 @@
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S8" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17773,37 +17793,37 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>485</v>
-      </c>
       <c r="J9" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>479</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>480</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -17814,7 +17834,7 @@
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S9" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17830,13 +17850,13 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>487</v>
-      </c>
       <c r="J10" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -17885,8 +17905,8 @@
   </sheetPr>
   <dimension ref="B4:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17898,62 +17918,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17962,139 +17982,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>499</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>507</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>508</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>508</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>517</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="528">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1303,6 +1303,30 @@
   </si>
   <si>
     <t xml:space="preserve">TestCase_172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#$#%$%^%^%^&amp;^        %^&amp;^&amp;*&amp;^*&amp;*(*(*)*()(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Logic screen-countrycode and type of operation,with invalid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_178</t>
   </si>
   <si>
     <t xml:space="preserve">mode</t>
@@ -1718,7 +1742,7 @@
     </r>
   </si>
   <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
   </si>
 </sst>
 </file>
@@ -2171,12 +2195,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="I105" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A105" activeCellId="0" sqref="A105"/>
-      <selection pane="topRight" activeCell="I107" activeCellId="0" sqref="I107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A180" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="Z180" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
+      <selection pane="topRight" activeCell="AB182" activeCellId="0" sqref="AB182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17253,7 +17277,344 @@
         <v>424</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G177" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K177" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W177" s="8"/>
+      <c r="X177" s="8"/>
+      <c r="Y177" s="8"/>
+      <c r="Z177" s="8"/>
+      <c r="AA177" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB177" s="16" t="n">
+        <v>189</v>
+      </c>
+      <c r="AC177" s="8"/>
+      <c r="AD177" s="8"/>
+      <c r="AE177" s="8"/>
+      <c r="AF177" s="8"/>
+      <c r="AG177" s="8"/>
+      <c r="AH177" s="16"/>
+      <c r="AI177" s="8"/>
+      <c r="AJ177" s="8"/>
+    </row>
+    <row r="178" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G178" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J178" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K178" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N178" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W178" s="8"/>
+      <c r="X178" s="8"/>
+      <c r="Y178" s="8"/>
+      <c r="Z178" s="8"/>
+      <c r="AA178" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB178" s="16" t="n">
+        <v>129</v>
+      </c>
+      <c r="AC178" s="8"/>
+      <c r="AD178" s="8"/>
+      <c r="AE178" s="8"/>
+      <c r="AF178" s="8"/>
+      <c r="AG178" s="8"/>
+      <c r="AH178" s="16"/>
+      <c r="AI178" s="8"/>
+      <c r="AJ178" s="8"/>
+    </row>
+    <row r="179" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G179" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K179" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N179" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W179" s="8"/>
+      <c r="X179" s="8"/>
+      <c r="Y179" s="8"/>
+      <c r="Z179" s="8"/>
+      <c r="AA179" s="8"/>
+      <c r="AB179" s="16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AC179" s="8"/>
+      <c r="AD179" s="8"/>
+      <c r="AE179" s="8"/>
+      <c r="AF179" s="8"/>
+      <c r="AG179" s="8"/>
+      <c r="AH179" s="16"/>
+      <c r="AI179" s="8"/>
+      <c r="AJ179" s="8"/>
+    </row>
+    <row r="180" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G180" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J180" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K180" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N180" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R180" s="8"/>
+      <c r="T180" s="8"/>
+      <c r="W180" s="8"/>
+      <c r="X180" s="8"/>
+      <c r="Y180" s="8"/>
+      <c r="Z180" s="8"/>
+      <c r="AA180" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB180" s="16" t="n">
+        <v>555</v>
+      </c>
+      <c r="AC180" s="8"/>
+      <c r="AD180" s="8"/>
+      <c r="AE180" s="8"/>
+      <c r="AF180" s="8"/>
+      <c r="AG180" s="8"/>
+      <c r="AH180" s="16"/>
+      <c r="AI180" s="8"/>
+      <c r="AJ180" s="8"/>
+    </row>
+    <row r="181" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G181" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J181" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K181" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N181" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R181" s="8"/>
+      <c r="T181" s="8"/>
+      <c r="W181" s="8"/>
+      <c r="X181" s="8"/>
+      <c r="Y181" s="8"/>
+      <c r="Z181" s="8"/>
+      <c r="AA181" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB181" s="16" t="n">
+        <v>345</v>
+      </c>
+      <c r="AC181" s="8"/>
+      <c r="AD181" s="8"/>
+      <c r="AE181" s="8"/>
+      <c r="AF181" s="8"/>
+      <c r="AG181" s="8"/>
+      <c r="AH181" s="16"/>
+      <c r="AI181" s="8"/>
+      <c r="AJ181" s="8"/>
+    </row>
+    <row r="182" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G182" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K182" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="M182" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N182" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R182" s="8"/>
+      <c r="T182" s="8"/>
+      <c r="W182" s="8"/>
+      <c r="X182" s="8"/>
+      <c r="Y182" s="8"/>
+      <c r="Z182" s="8"/>
+      <c r="AA182" s="8"/>
+      <c r="AB182" s="16" t="n">
+        <v>340</v>
+      </c>
+      <c r="AC182" s="8"/>
+      <c r="AD182" s="8"/>
+      <c r="AE182" s="8"/>
+      <c r="AF182" s="8"/>
+      <c r="AG182" s="8"/>
+      <c r="AH182" s="16"/>
+      <c r="AI182" s="8"/>
+      <c r="AJ182" s="8"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" display="kimtaehyung@gmail.com"/>
@@ -17316,6 +17677,12 @@
     <hyperlink ref="I174" r:id="rId58" display="parkjimin@gmail.com"/>
     <hyperlink ref="I175" r:id="rId59" display="parkjimin@gmail.com"/>
     <hyperlink ref="I176" r:id="rId60" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I177" r:id="rId61" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I178" r:id="rId62" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I179" r:id="rId63" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I180" r:id="rId64" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I181" r:id="rId65" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I182" r:id="rId66" display="parkjimin@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -17334,12 +17701,12 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17370,97 +17737,97 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="21" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="21" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" s="23" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P2"/>
       <c r="Q2" s="22" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="S2" s="22" t="n">
         <v>0</v>
@@ -17468,44 +17835,44 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>445</v>
-      </c>
       <c r="D3" s="20" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="20" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="25" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" s="23" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P3"/>
       <c r="Q3" s="22" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="S3" s="26" t="b">
         <f aca="false">FALSE()</f>
@@ -17515,56 +17882,56 @@
     </row>
     <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="H4" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="P4"/>
       <c r="Q4" s="22" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="S4" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17573,56 +17940,56 @@
     </row>
     <row r="5" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F5" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>451</v>
       </c>
       <c r="P5"/>
       <c r="Q5" s="22" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="S5" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17631,54 +17998,54 @@
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="11" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P6"/>
       <c r="Q6" s="22" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="S6" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17687,52 +18054,52 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" s="31" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="22" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="S7" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17741,40 +18108,40 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -17784,7 +18151,7 @@
         <v>506</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="S8" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17793,37 +18160,37 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -17834,7 +18201,7 @@
         <v>507</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="S9" s="32" t="b">
         <f aca="false">FALSE()</f>
@@ -17850,13 +18217,13 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="34" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>486</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>478</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -17918,62 +18285,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17982,139 +18349,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="37" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="38" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="39" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="538">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="538">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="539">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1771,6 +1771,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
@@ -2230,7 +2233,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="Z169" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A169" activeCellId="0" sqref="A169"/>
-      <selection pane="topRight" activeCell="AD175" activeCellId="0" sqref="AD175"/>
+      <selection pane="topRight" activeCell="AC175" activeCellId="0" sqref="AC175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16680,7 +16683,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>403</v>
       </c>
@@ -16754,16 +16757,16 @@
         <v>405</v>
       </c>
       <c r="AD175" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="AE175" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AF175" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AG175" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18115,7 +18118,7 @@
         <v>480</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>482</v>
@@ -18341,7 +18344,7 @@
         <v>497</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="539">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="539">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="539">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="538">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1774,9 +1774,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2230,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="Z169" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A169" activeCellId="0" sqref="A169"/>
-      <selection pane="topRight" activeCell="AC175" activeCellId="0" sqref="AC175"/>
+      <selection pane="topRight" activeCell="AC172" activeCellId="0" sqref="AC172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18118,7 +18115,7 @@
         <v>480</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>538</v>
+        <v>481</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>482</v>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="538">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="539">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1774,6 +1774,9 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
   </si>
 </sst>
 </file>
@@ -18115,7 +18118,7 @@
         <v>480</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>482</v>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="539">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -264,78 +264,81 @@
     <t xml:space="preserve">TestCase_012</t>
   </si>
   <si>
+    <t xml:space="preserve">parkjimin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parkjimin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9786284071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityDetailsPage-countrycode,with invalid email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(+91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7654321910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityDetailsPage-Mobile number valid input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">765432198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityDetailsPage-mobile number invalid input 30 character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">765432198765432198765432198765432198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityDetailsPage-mobile number invalid input with special character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@##$^fgxd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityDetailsPage-mobile number invalid input empty fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityDetailsPage-promt messageValidation -Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntityDetailsPage-promt messageValidation -Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_019</t>
+  </si>
+  <si>
     <t xml:space="preserve">park jimin</t>
   </si>
   <si>
-    <t xml:space="preserve">parkjimin@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9786284071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntityDetailsPage-countrycode,with invalid email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(+91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7654321910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntityDetailsPage-Mobile number valid input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765432198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntityDetailsPage-mobile number invalid input 30 character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765432198765432198765432198765432198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntityDetailsPage-mobile number invalid input with special character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@##$^fgxd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntityDetailsPage-mobile number invalid input empty fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntityDetailsPage-promt messageValidation -Cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntityDetailsPage-promt messageValidation -Ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancel</t>
   </si>
   <si>
@@ -850,6 +853,9 @@
   </si>
   <si>
     <t xml:space="preserve">TestCase_091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BruceLee</t>
   </si>
   <si>
     <t xml:space="preserve">EntityDetailsPage-countrycode,with invalid email -Arabic</t>
@@ -1771,12 +1777,6 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
   </si>
 </sst>
 </file>
@@ -2230,64 +2230,62 @@
   </sheetPr>
   <dimension ref="A1:AMJ192"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="Z169" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A169" activeCellId="0" sqref="A169"/>
-      <selection pane="topRight" activeCell="AC172" activeCellId="0" sqref="AC172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +3827,7 @@
       <c r="AMI14" s="4"/>
       <c r="AMJ14" s="4"/>
     </row>
-    <row r="15" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
@@ -3952,7 +3950,7 @@
       <c r="AMI15" s="4"/>
       <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>84</v>
       </c>
@@ -4075,7 +4073,7 @@
       <c r="AMI16" s="4"/>
       <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
@@ -4198,7 +4196,7 @@
       <c r="AMI17" s="4"/>
       <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>91</v>
       </c>
@@ -4321,7 +4319,7 @@
       <c r="AMI18" s="4"/>
       <c r="AMJ18" s="4"/>
     </row>
-    <row r="19" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>94</v>
       </c>
@@ -4444,7 +4442,7 @@
       <c r="AMI19" s="4"/>
       <c r="AMJ19" s="4"/>
     </row>
-    <row r="20" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>97</v>
       </c>
@@ -4565,7 +4563,7 @@
       <c r="AMI20" s="4"/>
       <c r="AMJ20" s="4"/>
     </row>
-    <row r="21" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>99</v>
       </c>
@@ -4706,14 +4704,14 @@
         <v>102</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>44</v>
@@ -4810,7 +4808,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>40</v>
@@ -4826,14 +4824,14 @@
         <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>44</v>
@@ -4927,10 +4925,10 @@
     </row>
     <row r="24" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>40</v>
@@ -4946,16 +4944,16 @@
         <v>100</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>101</v>
@@ -5052,10 +5050,10 @@
     </row>
     <row r="25" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>40</v>
@@ -5071,16 +5069,16 @@
         <v>101</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="10" t="s">
@@ -5175,10 +5173,10 @@
     </row>
     <row r="26" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>40</v>
@@ -5196,7 +5194,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="1"/>
@@ -5292,10 +5290,10 @@
     </row>
     <row r="27" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>40</v>
@@ -5309,7 +5307,7 @@
         <v>101</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="1"/>
@@ -5405,10 +5403,10 @@
     </row>
     <row r="28" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>40</v>
@@ -5437,7 +5435,7 @@
         <v>45</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -5524,10 +5522,10 @@
     </row>
     <row r="29" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>40</v>
@@ -5552,7 +5550,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -5639,10 +5637,10 @@
     </row>
     <row r="30" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>40</v>
@@ -5667,7 +5665,7 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -5754,10 +5752,10 @@
     </row>
     <row r="31" s="9" customFormat="true" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>40</v>
@@ -5786,7 +5784,7 @@
         <v>45</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -5873,10 +5871,10 @@
     </row>
     <row r="32" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>40</v>
@@ -5992,10 +5990,10 @@
     </row>
     <row r="33" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>40</v>
@@ -6107,10 +6105,10 @@
     </row>
     <row r="34" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>40</v>
@@ -6139,13 +6137,13 @@
         <v>45</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -6230,10 +6228,10 @@
     </row>
     <row r="35" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>40</v>
@@ -6258,13 +6256,13 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S35" s="1"/>
       <c r="U35" s="2"/>
@@ -6347,10 +6345,10 @@
     </row>
     <row r="36" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>40</v>
@@ -6375,13 +6373,13 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S36" s="1"/>
       <c r="U36" s="15"/>
@@ -6428,10 +6426,10 @@
     </row>
     <row r="37" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>40</v>
@@ -6460,13 +6458,13 @@
         <v>45</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S37" s="1"/>
       <c r="U37" s="15"/>
@@ -6513,10 +6511,10 @@
     </row>
     <row r="38" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>40</v>
@@ -6598,10 +6596,10 @@
     </row>
     <row r="39" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>40</v>
@@ -6675,10 +6673,10 @@
     </row>
     <row r="40" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>40</v>
@@ -6707,13 +6705,13 @@
         <v>45</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S40" s="1"/>
       <c r="U40" s="15"/>
@@ -6760,10 +6758,10 @@
     </row>
     <row r="41" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>40</v>
@@ -6788,13 +6786,13 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S41" s="1"/>
       <c r="U41" s="15"/>
@@ -6841,10 +6839,10 @@
     </row>
     <row r="42" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>40</v>
@@ -6869,13 +6867,13 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S42" s="1"/>
       <c r="U42" s="15"/>
@@ -6922,10 +6920,10 @@
     </row>
     <row r="43" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>40</v>
@@ -6954,13 +6952,13 @@
         <v>45</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S43" s="1"/>
       <c r="U43" s="15"/>
@@ -7007,10 +7005,10 @@
     </row>
     <row r="44" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>40</v>
@@ -7092,10 +7090,10 @@
     </row>
     <row r="45" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>40</v>
@@ -7169,10 +7167,10 @@
     </row>
     <row r="46" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>40</v>
@@ -7194,16 +7192,16 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S46" s="1"/>
       <c r="U46" s="15"/>
@@ -7250,10 +7248,10 @@
     </row>
     <row r="47" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>40</v>
@@ -7282,16 +7280,16 @@
         <v>45</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
@@ -7337,10 +7335,10 @@
     </row>
     <row r="48" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>40</v>
@@ -7365,16 +7363,16 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
@@ -7420,10 +7418,10 @@
     </row>
     <row r="49" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>40</v>
@@ -7448,16 +7446,16 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="U49" s="15"/>
       <c r="V49" s="15"/>
@@ -7503,10 +7501,10 @@
     </row>
     <row r="50" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>40</v>
@@ -7535,16 +7533,16 @@
         <v>45</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
@@ -7590,10 +7588,10 @@
     </row>
     <row r="51" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>40</v>
@@ -7677,10 +7675,10 @@
     </row>
     <row r="52" s="9" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>40</v>
@@ -7754,10 +7752,10 @@
     </row>
     <row r="53" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>40</v>
@@ -7784,19 +7782,19 @@
         <v>45</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
@@ -7842,10 +7840,10 @@
     </row>
     <row r="54" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>40</v>
@@ -7874,19 +7872,19 @@
         <v>45</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U54" s="15"/>
       <c r="V54" s="15"/>
@@ -7932,10 +7930,10 @@
     </row>
     <row r="55" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>40</v>
@@ -7960,19 +7958,19 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
@@ -8018,10 +8016,10 @@
     </row>
     <row r="56" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>40</v>
@@ -8046,19 +8044,19 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
@@ -8104,10 +8102,10 @@
     </row>
     <row r="57" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>40</v>
@@ -8136,19 +8134,19 @@
         <v>45</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U57" s="15"/>
       <c r="V57" s="15"/>
@@ -8194,10 +8192,10 @@
     </row>
     <row r="58" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>40</v>
@@ -8238,7 +8236,7 @@
         <v>61</v>
       </c>
       <c r="T58" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U58" s="15"/>
       <c r="V58" s="15"/>
@@ -8284,10 +8282,10 @@
     </row>
     <row r="59" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>40</v>
@@ -8361,10 +8359,10 @@
     </row>
     <row r="60" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>40</v>
@@ -8393,22 +8391,22 @@
         <v>45</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T60" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V60" s="15"/>
       <c r="AN60" s="15"/>
@@ -8453,10 +8451,10 @@
     </row>
     <row r="61" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>40</v>
@@ -8481,22 +8479,22 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V61" s="15"/>
       <c r="AN61" s="15"/>
@@ -8541,10 +8539,10 @@
     </row>
     <row r="62" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>40</v>
@@ -8569,22 +8567,22 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T62" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V62" s="15"/>
       <c r="AN62" s="15"/>
@@ -8629,10 +8627,10 @@
     </row>
     <row r="63" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>40</v>
@@ -8661,22 +8659,22 @@
         <v>45</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U63" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V63" s="15"/>
       <c r="AN63" s="15"/>
@@ -8721,10 +8719,10 @@
     </row>
     <row r="64" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>40</v>
@@ -8765,10 +8763,10 @@
         <v>61</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U64" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V64" s="15"/>
       <c r="AN64" s="15"/>
@@ -8813,10 +8811,10 @@
     </row>
     <row r="65" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>40</v>
@@ -8890,10 +8888,10 @@
     </row>
     <row r="66" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>40</v>
@@ -8922,25 +8920,25 @@
         <v>45</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T66" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V66" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN66" s="15"/>
       <c r="AO66" s="16"/>
@@ -8984,10 +8982,10 @@
     </row>
     <row r="67" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>40</v>
@@ -9012,25 +9010,25 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U67" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V67" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN67" s="15"/>
       <c r="AO67" s="16"/>
@@ -9074,10 +9072,10 @@
     </row>
     <row r="68" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>40</v>
@@ -9102,25 +9100,25 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T68" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V68" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN68" s="15"/>
       <c r="AO68" s="16"/>
@@ -9164,10 +9162,10 @@
     </row>
     <row r="69" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>40</v>
@@ -9196,25 +9194,25 @@
         <v>45</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V69" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN69" s="15"/>
       <c r="AO69" s="16"/>
@@ -9258,10 +9256,10 @@
     </row>
     <row r="70" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>40</v>
@@ -9302,13 +9300,13 @@
         <v>61</v>
       </c>
       <c r="T70" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V70" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN70" s="15"/>
       <c r="AO70" s="16"/>
@@ -9352,10 +9350,10 @@
     </row>
     <row r="71" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>40</v>
@@ -9429,10 +9427,10 @@
     </row>
     <row r="72" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>40</v>
@@ -9461,34 +9459,34 @@
         <v>45</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U72" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V72" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W72" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="X72" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y72" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN72" s="15"/>
       <c r="AO72" s="16"/>
@@ -9532,10 +9530,10 @@
     </row>
     <row r="73" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>40</v>
@@ -9560,34 +9558,34 @@
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U73" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V73" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W73" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X73" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y73" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN73" s="15"/>
       <c r="AO73" s="16"/>
@@ -9631,10 +9629,10 @@
     </row>
     <row r="74" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>40</v>
@@ -9659,34 +9657,34 @@
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U74" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V74" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W74" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X74" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y74" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN74" s="15"/>
       <c r="AO74" s="16"/>
@@ -9730,10 +9728,10 @@
     </row>
     <row r="75" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>40</v>
@@ -9762,34 +9760,34 @@
         <v>45</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U75" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V75" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN75" s="15"/>
       <c r="AO75" s="16"/>
@@ -9833,10 +9831,10 @@
     </row>
     <row r="76" s="9" customFormat="true" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>40</v>
@@ -9877,22 +9875,22 @@
         <v>61</v>
       </c>
       <c r="T76" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U76" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V76" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="W76" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X76" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y76" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN76" s="15"/>
       <c r="AO76" s="16"/>
@@ -9936,10 +9934,10 @@
     </row>
     <row r="77" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>40</v>
@@ -10013,10 +10011,10 @@
     </row>
     <row r="78" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>40</v>
@@ -10045,34 +10043,34 @@
         <v>45</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T78" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U78" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V78" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W78" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="X78" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y78" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z78" s="13" t="n">
         <v>124465767887989</v>
@@ -10119,10 +10117,10 @@
     </row>
     <row r="79" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>40</v>
@@ -10147,37 +10145,37 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U79" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V79" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X79" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y79" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z79" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN79" s="15"/>
       <c r="AO79" s="16"/>
@@ -10221,10 +10219,10 @@
     </row>
     <row r="80" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>40</v>
@@ -10249,37 +10247,37 @@
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T80" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U80" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V80" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W80" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X80" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y80" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z80" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN80" s="15"/>
       <c r="AO80" s="16"/>
@@ -10323,10 +10321,10 @@
     </row>
     <row r="81" s="9" customFormat="true" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>40</v>
@@ -10355,34 +10353,34 @@
         <v>45</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T81" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U81" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V81" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W81" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X81" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y81" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN81" s="15"/>
       <c r="AO81" s="16"/>
@@ -10426,10 +10424,10 @@
     </row>
     <row r="82" s="9" customFormat="true" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>40</v>
@@ -10470,25 +10468,25 @@
         <v>61</v>
       </c>
       <c r="T82" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U82" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V82" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="W82" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X82" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y82" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z82" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN82" s="15"/>
       <c r="AO82" s="16"/>
@@ -10532,10 +10530,10 @@
     </row>
     <row r="83" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>40</v>
@@ -10612,10 +10610,10 @@
     </row>
     <row r="84" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>40</v>
@@ -10633,7 +10631,7 @@
         <v>101</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9" t="s">
         <v>81</v>
@@ -10652,37 +10650,37 @@
         <v>45</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R84" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T84" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W84" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X84" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y84" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z84" s="9" t="n">
         <v>1234</v>
@@ -10784,10 +10782,10 @@
     </row>
     <row r="86" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>40</v>
@@ -10865,10 +10863,10 @@
     </row>
     <row r="87" s="9" customFormat="true" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>40</v>
@@ -10946,10 +10944,10 @@
     </row>
     <row r="88" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>40</v>
@@ -11027,10 +11025,10 @@
     </row>
     <row r="89" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>40</v>
@@ -11104,10 +11102,10 @@
     </row>
     <row r="90" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>40</v>
@@ -11180,10 +11178,10 @@
     </row>
     <row r="91" s="9" customFormat="true" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>40</v>
@@ -11257,10 +11255,10 @@
     </row>
     <row r="92" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>40</v>
@@ -11331,10 +11329,10 @@
     </row>
     <row r="93" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>40</v>
@@ -11403,10 +11401,10 @@
     </row>
     <row r="94" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>40</v>
@@ -11475,12 +11473,12 @@
       <c r="BJ94" s="9"/>
       <c r="BK94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>40</v>
@@ -11495,7 +11493,7 @@
         <v>100</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="I95" s="9" t="s">
         <v>81</v>
@@ -11556,12 +11554,12 @@
       <c r="BJ95" s="9"/>
       <c r="BK95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>40</v>
@@ -11576,7 +11574,7 @@
         <v>101</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="I96" s="9" t="s">
         <v>81</v>
@@ -11637,12 +11635,12 @@
       <c r="BJ96" s="9"/>
       <c r="BK96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>40</v>
@@ -11657,7 +11655,7 @@
         <v>100</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>81</v>
@@ -11718,12 +11716,12 @@
       <c r="BJ97" s="9"/>
       <c r="BK97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>40</v>
@@ -11738,7 +11736,7 @@
         <v>100</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>81</v>
@@ -11799,12 +11797,12 @@
       <c r="BJ98" s="9"/>
       <c r="BK98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>40</v>
@@ -11819,7 +11817,7 @@
         <v>100</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>81</v>
@@ -11882,10 +11880,10 @@
     </row>
     <row r="100" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>40</v>
@@ -11900,7 +11898,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I100" s="9" t="s">
         <v>81</v>
@@ -11963,7 +11961,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>40</v>
@@ -11978,7 +11976,7 @@
         <v>101</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="14" t="s">
@@ -12044,7 +12042,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>40</v>
@@ -12059,14 +12057,14 @@
         <v>102</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="14" t="s">
         <v>86</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M102" s="10" t="s">
         <v>44</v>
@@ -12125,7 +12123,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>40</v>
@@ -12140,14 +12138,14 @@
         <v>100</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="14" t="s">
         <v>86</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>44</v>
@@ -12202,10 +12200,10 @@
     </row>
     <row r="104" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>40</v>
@@ -12220,16 +12218,16 @@
         <v>100</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J104" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K104" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>101</v>
@@ -12289,7 +12287,7 @@
         <v>48</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>40</v>
@@ -12307,16 +12305,16 @@
         <v>101</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J105" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M105" s="10" t="s">
         <v>44</v>
@@ -12374,7 +12372,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>40</v>
@@ -12392,7 +12390,7 @@
         <v>101</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J106" s="14"/>
       <c r="K106" s="1"/>
@@ -12450,10 +12448,10 @@
     </row>
     <row r="107" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>40</v>
@@ -12471,16 +12469,16 @@
         <v>100</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J107" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>101</v>
@@ -12536,10 +12534,10 @@
     </row>
     <row r="108" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>40</v>
@@ -12557,16 +12555,16 @@
         <v>101</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J108" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M108" s="10" t="s">
         <v>44</v>
@@ -12621,10 +12619,10 @@
     </row>
     <row r="109" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>40</v>
@@ -12650,7 +12648,7 @@
         <v>45</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
@@ -12696,10 +12694,10 @@
     </row>
     <row r="110" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>40</v>
@@ -12721,7 +12719,7 @@
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
@@ -12767,10 +12765,10 @@
     </row>
     <row r="111" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>40</v>
@@ -12792,7 +12790,7 @@
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
@@ -12838,10 +12836,10 @@
     </row>
     <row r="112" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>40</v>
@@ -12867,7 +12865,7 @@
         <v>45</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
@@ -12913,10 +12911,10 @@
     </row>
     <row r="113" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>40</v>
@@ -12988,10 +12986,10 @@
     </row>
     <row r="114" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>40</v>
@@ -13061,10 +13059,10 @@
     </row>
     <row r="115" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>40</v>
@@ -13090,13 +13088,13 @@
         <v>45</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T115" s="9"/>
       <c r="W115" s="9"/>
@@ -13143,10 +13141,10 @@
     </row>
     <row r="116" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>40</v>
@@ -13168,13 +13166,13 @@
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R116" s="9"/>
       <c r="T116" s="9"/>
@@ -13195,10 +13193,10 @@
     </row>
     <row r="117" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>40</v>
@@ -13220,13 +13218,13 @@
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R117" s="9"/>
       <c r="T117" s="9"/>
@@ -13247,10 +13245,10 @@
     </row>
     <row r="118" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>40</v>
@@ -13276,13 +13274,13 @@
         <v>45</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R118" s="9"/>
       <c r="T118" s="9"/>
@@ -13303,10 +13301,10 @@
     </row>
     <row r="119" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>40</v>
@@ -13359,10 +13357,10 @@
     </row>
     <row r="120" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>40</v>
@@ -13407,10 +13405,10 @@
     </row>
     <row r="121" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>40</v>
@@ -13436,13 +13434,13 @@
         <v>45</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R121" s="9"/>
       <c r="T121" s="9"/>
@@ -13463,10 +13461,10 @@
     </row>
     <row r="122" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>40</v>
@@ -13488,13 +13486,13 @@
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R122" s="9"/>
       <c r="T122" s="9"/>
@@ -13515,10 +13513,10 @@
     </row>
     <row r="123" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>40</v>
@@ -13540,13 +13538,13 @@
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R123" s="9"/>
       <c r="T123" s="9"/>
@@ -13567,10 +13565,10 @@
     </row>
     <row r="124" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>40</v>
@@ -13596,13 +13594,13 @@
         <v>45</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R124" s="9"/>
       <c r="T124" s="9"/>
@@ -13623,10 +13621,10 @@
     </row>
     <row r="125" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>40</v>
@@ -13679,10 +13677,10 @@
     </row>
     <row r="126" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>40</v>
@@ -13727,10 +13725,10 @@
     </row>
     <row r="127" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>40</v>
@@ -13751,16 +13749,16 @@
       <c r="J127" s="9"/>
       <c r="N127" s="9"/>
       <c r="O127" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P127" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q127" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T127" s="9"/>
       <c r="W127" s="9"/>
@@ -13780,10 +13778,10 @@
     </row>
     <row r="128" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>40</v>
@@ -13809,17 +13807,17 @@
         <v>45</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R128" s="9"/>
       <c r="S128" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T128" s="9"/>
       <c r="U128" s="15"/>
@@ -13840,10 +13838,10 @@
     </row>
     <row r="129" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>40</v>
@@ -13865,17 +13863,17 @@
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
       <c r="O129" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R129" s="9"/>
       <c r="S129" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T129" s="9"/>
       <c r="U129" s="15"/>
@@ -13896,10 +13894,10 @@
     </row>
     <row r="130" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>40</v>
@@ -13921,17 +13919,17 @@
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
       <c r="O130" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R130" s="9"/>
       <c r="S130" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T130" s="9"/>
       <c r="U130" s="15"/>
@@ -13952,10 +13950,10 @@
     </row>
     <row r="131" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>40</v>
@@ -13981,20 +13979,20 @@
         <v>45</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R131" s="9"/>
       <c r="S131" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T131" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U131" s="15"/>
       <c r="V131" s="15"/>
@@ -14015,10 +14013,10 @@
     </row>
     <row r="132" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>40</v>
@@ -14040,20 +14038,20 @@
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R132" s="9"/>
       <c r="S132" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T132" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U132" s="15"/>
       <c r="V132" s="15"/>
@@ -14074,10 +14072,10 @@
     </row>
     <row r="133" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>40</v>
@@ -14099,20 +14097,20 @@
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R133" s="9"/>
       <c r="S133" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T133" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U133" s="15"/>
       <c r="V133" s="15"/>
@@ -14133,10 +14131,10 @@
     </row>
     <row r="134" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>40</v>
@@ -14162,20 +14160,20 @@
         <v>45</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R134" s="9"/>
       <c r="S134" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T134" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U134" s="15"/>
       <c r="V134" s="15"/>
@@ -14196,10 +14194,10 @@
     </row>
     <row r="135" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>40</v>
@@ -14238,7 +14236,7 @@
         <v>61</v>
       </c>
       <c r="T135" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U135" s="15"/>
       <c r="V135" s="15"/>
@@ -14277,10 +14275,10 @@
     </row>
     <row r="136" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>40</v>
@@ -14345,10 +14343,10 @@
     </row>
     <row r="137" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>40</v>
@@ -14374,23 +14372,23 @@
         <v>45</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R137" s="9"/>
       <c r="S137" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T137" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U137" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V137" s="15"/>
       <c r="W137" s="9"/>
@@ -14428,10 +14426,10 @@
     </row>
     <row r="138" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>40</v>
@@ -14453,23 +14451,23 @@
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R138" s="9"/>
       <c r="S138" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T138" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U138" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V138" s="15"/>
       <c r="W138" s="9"/>
@@ -14489,10 +14487,10 @@
     </row>
     <row r="139" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>40</v>
@@ -14514,23 +14512,23 @@
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
       <c r="O139" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R139" s="9"/>
       <c r="S139" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T139" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U139" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V139" s="15"/>
       <c r="W139" s="9"/>
@@ -14550,10 +14548,10 @@
     </row>
     <row r="140" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>40</v>
@@ -14579,23 +14577,23 @@
         <v>45</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R140" s="9"/>
       <c r="S140" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T140" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U140" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V140" s="15"/>
       <c r="W140" s="9"/>
@@ -14615,10 +14613,10 @@
     </row>
     <row r="141" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>40</v>
@@ -14657,10 +14655,10 @@
         <v>61</v>
       </c>
       <c r="T141" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U141" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V141" s="15"/>
       <c r="W141" s="9"/>
@@ -14680,10 +14678,10 @@
     </row>
     <row r="142" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>40</v>
@@ -14730,10 +14728,10 @@
     </row>
     <row r="143" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>40</v>
@@ -14759,26 +14757,26 @@
         <v>45</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R143" s="9"/>
       <c r="S143" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T143" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U143" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V143" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
@@ -14797,10 +14795,10 @@
     </row>
     <row r="144" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>40</v>
@@ -14822,26 +14820,26 @@
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R144" s="9"/>
       <c r="S144" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T144" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U144" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V144" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
@@ -14860,10 +14858,10 @@
     </row>
     <row r="145" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>40</v>
@@ -14885,26 +14883,26 @@
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
       <c r="O145" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R145" s="9"/>
       <c r="S145" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T145" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U145" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V145" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
@@ -14923,10 +14921,10 @@
     </row>
     <row r="146" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>40</v>
@@ -14952,26 +14950,26 @@
         <v>45</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R146" s="9"/>
       <c r="S146" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T146" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U146" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V146" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
@@ -14990,10 +14988,10 @@
     </row>
     <row r="147" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>40</v>
@@ -15019,35 +15017,35 @@
         <v>45</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R147" s="9"/>
       <c r="S147" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T147" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U147" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V147" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W147" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="X147" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y147" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
@@ -15063,10 +15061,10 @@
     </row>
     <row r="148" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>40</v>
@@ -15088,35 +15086,35 @@
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R148" s="9"/>
       <c r="S148" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T148" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U148" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V148" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W148" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X148" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y148" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
@@ -15132,10 +15130,10 @@
     </row>
     <row r="149" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>40</v>
@@ -15157,35 +15155,35 @@
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R149" s="9"/>
       <c r="S149" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T149" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U149" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V149" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W149" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X149" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y149" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
@@ -15201,10 +15199,10 @@
     </row>
     <row r="150" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>40</v>
@@ -15230,35 +15228,35 @@
         <v>45</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R150" s="9"/>
       <c r="S150" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T150" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U150" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V150" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W150" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X150" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y150" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
@@ -15274,10 +15272,10 @@
     </row>
     <row r="151" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>40</v>
@@ -15316,22 +15314,22 @@
         <v>61</v>
       </c>
       <c r="T151" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U151" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V151" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="W151" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X151" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y151" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
@@ -15347,10 +15345,10 @@
     </row>
     <row r="152" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>40</v>
@@ -15397,10 +15395,10 @@
     </row>
     <row r="153" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>40</v>
@@ -15426,35 +15424,35 @@
         <v>45</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R153" s="9"/>
       <c r="S153" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T153" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="U153" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V153" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W153" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="X153" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y153" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z153" s="13" t="n">
         <v>124465767887989</v>
@@ -15472,10 +15470,10 @@
     </row>
     <row r="154" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>40</v>
@@ -15497,38 +15495,38 @@
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R154" s="9"/>
       <c r="S154" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T154" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U154" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V154" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W154" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X154" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y154" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z154" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
@@ -15544,10 +15542,10 @@
     </row>
     <row r="155" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>40</v>
@@ -15569,38 +15567,38 @@
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q155" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R155" s="9"/>
       <c r="S155" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T155" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U155" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V155" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W155" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X155" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y155" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Z155" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
@@ -15618,7 +15616,7 @@
         <v>78</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>40</v>
@@ -15633,7 +15631,7 @@
         <v>100</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I156" s="9" t="s">
         <v>81</v>
@@ -15671,7 +15669,7 @@
         <v>84</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>40</v>
@@ -15686,7 +15684,7 @@
         <v>101</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>81</v>
@@ -15721,10 +15719,10 @@
     </row>
     <row r="158" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>40</v>
@@ -15742,7 +15740,7 @@
         <v>101</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>81</v>
@@ -15760,37 +15758,37 @@
         <v>45</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q158" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R158" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T158" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U158" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V158" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="W158" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X158" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y158" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z158" s="9" t="n">
         <v>1234</v>
@@ -15827,10 +15825,10 @@
     </row>
     <row r="159" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>40</v>
@@ -15845,7 +15843,7 @@
         <v>100</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>81</v>
@@ -15867,7 +15865,7 @@
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB159" s="17" t="n">
         <v>12</v>
@@ -15883,10 +15881,10 @@
     </row>
     <row r="160" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>40</v>
@@ -15901,7 +15899,7 @@
         <v>101</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I160" s="9" t="s">
         <v>81</v>
@@ -15923,7 +15921,7 @@
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB160" s="17" t="n">
         <v>12</v>
@@ -15939,10 +15937,10 @@
     </row>
     <row r="161" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>40</v>
@@ -15957,7 +15955,7 @@
         <v>100</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>81</v>
@@ -15981,7 +15979,7 @@
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB161" s="17" t="n">
         <v>55</v>
@@ -15997,10 +15995,10 @@
     </row>
     <row r="162" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>40</v>
@@ -16015,7 +16013,7 @@
         <v>101</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I162" s="9" t="s">
         <v>81</v>
@@ -16039,7 +16037,7 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB162" s="17" t="n">
         <v>34</v>
@@ -16055,10 +16053,10 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>40</v>
@@ -16073,15 +16071,15 @@
         <v>102</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>40</v>
@@ -16096,15 +16094,15 @@
         <v>103</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>40</v>
@@ -16119,15 +16117,15 @@
         <v>102</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>40</v>
@@ -16142,15 +16140,15 @@
         <v>103</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>40</v>
@@ -16165,7 +16163,7 @@
         <v>104</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I167" s="9" t="s">
         <v>81</v>
@@ -16183,34 +16181,34 @@
         <v>45</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q167" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R167" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T167" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U167" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V167" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z167" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA167" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB167" s="17" t="n">
         <v>12</v>
@@ -16218,10 +16216,10 @@
     </row>
     <row r="168" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>40</v>
@@ -16236,7 +16234,7 @@
         <v>104</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>81</v>
@@ -16254,34 +16252,34 @@
         <v>45</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q168" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R168" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T168" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V168" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z168" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA168" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB168" s="17" t="n">
         <v>12</v>
@@ -16289,10 +16287,10 @@
     </row>
     <row r="169" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>40</v>
@@ -16307,7 +16305,7 @@
         <v>105</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>81</v>
@@ -16325,34 +16323,34 @@
         <v>45</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q169" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R169" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T169" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U169" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V169" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z169" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA169" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB169" s="17" t="n">
         <v>12</v>
@@ -16360,10 +16358,10 @@
     </row>
     <row r="170" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>40</v>
@@ -16378,7 +16376,7 @@
         <v>105</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I170" s="9" t="s">
         <v>81</v>
@@ -16396,34 +16394,34 @@
         <v>45</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q170" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R170" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T170" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U170" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V170" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z170" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA170" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB170" s="17" t="n">
         <v>12</v>
@@ -16434,7 +16432,7 @@
         <v>78</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>40</v>
@@ -16449,7 +16447,7 @@
         <v>100</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I171" s="9" t="s">
         <v>81</v>
@@ -16473,10 +16471,10 @@
     </row>
     <row r="172" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>40</v>
@@ -16491,7 +16489,7 @@
         <v>100</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I172" s="9" t="s">
         <v>81</v>
@@ -16513,10 +16511,10 @@
     </row>
     <row r="173" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>40</v>
@@ -16531,7 +16529,7 @@
         <v>105</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I173" s="9" t="s">
         <v>81</v>
@@ -16549,60 +16547,60 @@
         <v>45</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q173" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R173" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T173" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U173" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V173" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z173" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA173" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB173" s="17" t="n">
         <v>12</v>
       </c>
       <c r="AC173" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AD173" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AE173" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF173" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG173" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>40</v>
@@ -16617,7 +16615,7 @@
         <v>105</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>81</v>
@@ -16635,60 +16633,60 @@
         <v>45</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R174" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T174" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U174" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V174" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z174" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA174" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB174" s="17" t="n">
         <v>12</v>
       </c>
       <c r="AC174" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AD174" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AE174" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG174" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>40</v>
@@ -16703,7 +16701,7 @@
         <v>105</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I175" s="9" t="s">
         <v>81</v>
@@ -16721,60 +16719,60 @@
         <v>45</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q175" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R175" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T175" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U175" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V175" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z175" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA175" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB175" s="17" t="n">
         <v>12</v>
       </c>
       <c r="AC175" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AD175" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AE175" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF175" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG175" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>40</v>
@@ -16789,7 +16787,7 @@
         <v>105</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I176" s="9" t="s">
         <v>81</v>
@@ -16807,60 +16805,60 @@
         <v>45</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q176" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R176" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S176" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T176" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U176" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V176" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z176" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA176" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB176" s="17" t="n">
         <v>12</v>
       </c>
       <c r="AC176" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AD176" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AE176" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG176" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>40</v>
@@ -16875,7 +16873,7 @@
         <v>100</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I177" s="9" t="s">
         <v>81</v>
@@ -16897,7 +16895,7 @@
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB177" s="17" t="n">
         <v>189</v>
@@ -16913,10 +16911,10 @@
     </row>
     <row r="178" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>40</v>
@@ -16931,7 +16929,7 @@
         <v>101</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I178" s="9" t="s">
         <v>81</v>
@@ -16953,7 +16951,7 @@
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AB178" s="17" t="n">
         <v>129</v>
@@ -16969,10 +16967,10 @@
     </row>
     <row r="179" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>40</v>
@@ -16987,7 +16985,7 @@
         <v>101</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I179" s="9" t="s">
         <v>81</v>
@@ -17023,10 +17021,10 @@
     </row>
     <row r="180" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>40</v>
@@ -17041,7 +17039,7 @@
         <v>100</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I180" s="9" t="s">
         <v>81</v>
@@ -17065,7 +17063,7 @@
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB180" s="17" t="n">
         <v>555</v>
@@ -17081,10 +17079,10 @@
     </row>
     <row r="181" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>40</v>
@@ -17099,7 +17097,7 @@
         <v>101</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I181" s="9" t="s">
         <v>81</v>
@@ -17123,7 +17121,7 @@
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AB181" s="17" t="n">
         <v>345</v>
@@ -17139,10 +17137,10 @@
     </row>
     <row r="182" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>40</v>
@@ -17157,7 +17155,7 @@
         <v>101</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I182" s="9" t="s">
         <v>81</v>
@@ -17195,10 +17193,10 @@
     </row>
     <row r="183" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>40</v>
@@ -17213,7 +17211,7 @@
         <v>100</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I183" s="9" t="s">
         <v>81</v>
@@ -17235,7 +17233,7 @@
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB183" s="17" t="n">
         <v>189</v>
@@ -17252,10 +17250,10 @@
     </row>
     <row r="184" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>40</v>
@@ -17270,7 +17268,7 @@
         <v>101</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I184" s="9" t="s">
         <v>81</v>
@@ -17292,7 +17290,7 @@
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AB184" s="17" t="n">
         <v>129</v>
@@ -17303,21 +17301,21 @@
       <c r="AF184" s="9"/>
       <c r="AG184" s="9"/>
       <c r="AH184" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI184" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AJ184" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>40</v>
@@ -17332,7 +17330,7 @@
         <v>101</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>81</v>
@@ -17363,21 +17361,21 @@
       <c r="AF185" s="9"/>
       <c r="AG185" s="9"/>
       <c r="AH185" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AI185" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AJ185" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>40</v>
@@ -17392,7 +17390,7 @@
         <v>101</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I186" s="9" t="s">
         <v>81</v>
@@ -17414,7 +17412,7 @@
       <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB186" s="17" t="n">
         <v>12</v>
@@ -17428,18 +17426,18 @@
         <v>12345</v>
       </c>
       <c r="AI186" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AJ186" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>40</v>
@@ -17454,7 +17452,7 @@
         <v>100</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I187" s="9" t="s">
         <v>81</v>
@@ -17478,7 +17476,7 @@
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AB187" s="17" t="n">
         <v>55</v>
@@ -17494,10 +17492,10 @@
     </row>
     <row r="188" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>40</v>
@@ -17512,7 +17510,7 @@
         <v>100</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I188" s="9" t="s">
         <v>81</v>
@@ -17536,7 +17534,7 @@
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB188" s="17" t="n">
         <v>555</v>
@@ -17547,21 +17545,21 @@
       <c r="AF188" s="9"/>
       <c r="AG188" s="9"/>
       <c r="AH188" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AI188" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AJ188" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>40</v>
@@ -17576,7 +17574,7 @@
         <v>101</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I189" s="9" t="s">
         <v>81</v>
@@ -17600,7 +17598,7 @@
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AB189" s="17" t="n">
         <v>345</v>
@@ -17611,21 +17609,21 @@
       <c r="AF189" s="9"/>
       <c r="AG189" s="9"/>
       <c r="AH189" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AI189" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AJ189" s="17" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>40</v>
@@ -17640,7 +17638,7 @@
         <v>101</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I190" s="9" t="s">
         <v>81</v>
@@ -17676,18 +17674,18 @@
         <v>12345</v>
       </c>
       <c r="AI190" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AJ190" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>40</v>
@@ -17702,7 +17700,7 @@
         <v>100</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I191" s="9" t="s">
         <v>81</v>
@@ -17724,7 +17722,7 @@
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
       <c r="AA191" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB191" s="17" t="n">
         <v>189</v>
@@ -17738,19 +17736,19 @@
         <v>12346</v>
       </c>
       <c r="AI191" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AJ191" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AK191" s="18"/>
     </row>
     <row r="192" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>40</v>
@@ -17765,7 +17763,7 @@
         <v>100</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="I192" s="9" t="s">
         <v>81</v>
@@ -17787,7 +17785,7 @@
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB192" s="17" t="n">
         <v>189</v>
@@ -17801,10 +17799,10 @@
         <v>12347</v>
       </c>
       <c r="AI192" s="19" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AJ192" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AK192" s="18"/>
     </row>
@@ -17914,22 +17912,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17940,97 +17938,90 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>465</v>
+      </c>
       <c r="G2" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="H2"/>
+        <v>466</v>
+      </c>
       <c r="I2" s="23" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>468</v>
+      </c>
       <c r="N2" s="25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P2"/>
+        <v>470</v>
+      </c>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="S2" s="24" t="n">
         <v>0</v>
@@ -18038,46 +18029,39 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="S3" s="28" t="b">
+        <v>471</v>
+      </c>
+      <c r="S3" s="28" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18085,358 +18069,326 @@
     </row>
     <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P4"/>
+        <v>470</v>
+      </c>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="S4" s="33" t="b">
+        <v>486</v>
+      </c>
+      <c r="S4" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>483</v>
-      </c>
       <c r="O5" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P5"/>
+        <v>470</v>
+      </c>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="S5" s="33" t="b">
+        <v>486</v>
+      </c>
+      <c r="S5" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K6"/>
+        <v>481</v>
+      </c>
       <c r="L6" s="12" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P6"/>
+        <v>470</v>
+      </c>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="S6" s="33" t="b">
+        <v>486</v>
+      </c>
+      <c r="S6" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
+        <v>481</v>
+      </c>
       <c r="M7" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="P7"/>
+        <v>470</v>
+      </c>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="S7" s="33" t="b">
+        <v>486</v>
+      </c>
+      <c r="S7" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+        <v>500</v>
+      </c>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="S8" s="33" t="b">
+        <v>501</v>
+      </c>
+      <c r="S8" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
+        <v>499</v>
+      </c>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="S9" s="33" t="b">
+        <v>501</v>
+      </c>
+      <c r="S9" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+        <v>498</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18481,69 +18433,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -18552,139 +18504,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="38" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>525</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="37" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="39" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="40" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="541">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1777,6 +1777,12 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
   </si>
 </sst>
 </file>
@@ -2236,56 +2242,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17912,22 +17918,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18002,21 +18008,28 @@
       <c r="D2" s="23" t="s">
         <v>465</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>466</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>467</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>468</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>469</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>470</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -18040,28 +18053,35 @@
       <c r="D3" s="22" t="s">
         <v>465</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>466</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>473</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>468</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>469</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>470</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18102,7 +18122,7 @@
         <v>482</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>484</v>
@@ -18113,13 +18133,14 @@
       <c r="O4" s="12" t="s">
         <v>470</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="S4" s="33" t="n">
+      <c r="S4" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18170,13 +18191,14 @@
       <c r="O5" s="12" t="s">
         <v>470</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="S5" s="33" t="n">
+      <c r="S5" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18212,6 +18234,7 @@
       <c r="J6" s="9" t="s">
         <v>481</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>492</v>
       </c>
@@ -18224,13 +18247,14 @@
       <c r="O6" s="12" t="s">
         <v>470</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="S6" s="33" t="n">
+      <c r="S6" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18266,6 +18290,8 @@
       <c r="J7" s="9" t="s">
         <v>481</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="12" t="s">
         <v>484</v>
       </c>
@@ -18275,13 +18301,14 @@
       <c r="O7" s="12" t="s">
         <v>470</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="S7" s="33" t="n">
+      <c r="S7" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18321,15 +18348,19 @@
         <v>499</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>500</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="S8" s="33" t="n">
+      <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18368,18 +18399,30 @@
       <c r="K9" s="35" t="s">
         <v>499</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="S9" s="33" t="n">
+      <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="34" t="s">
         <v>505</v>
       </c>
@@ -18389,6 +18432,15 @@
       <c r="J10" s="31" t="s">
         <v>498</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18433,9 +18485,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="541">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="541">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="541">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="541">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="552">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1813,6 +1813,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
   </si>
 </sst>
 </file>
@@ -2266,62 +2269,62 @@
   </sheetPr>
   <dimension ref="A1:AMJ198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A195" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F197" activeCellId="0" sqref="F197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ192" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO197" activeCellId="0" sqref="AO197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18116,7 +18119,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>452</v>
       </c>
@@ -18366,22 +18369,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18456,21 +18459,28 @@
       <c r="D2" s="23" t="s">
         <v>477</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>478</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>479</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>480</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>481</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>482</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -18494,28 +18504,35 @@
       <c r="D3" s="22" t="s">
         <v>477</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>478</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>485</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>480</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>481</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>482</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18556,7 +18573,7 @@
         <v>494</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>496</v>
@@ -18567,13 +18584,14 @@
       <c r="O4" s="12" t="s">
         <v>482</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="S4" s="33" t="n">
+      <c r="S4" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18624,13 +18642,14 @@
       <c r="O5" s="12" t="s">
         <v>482</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="S5" s="33" t="n">
+      <c r="S5" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18666,6 +18685,7 @@
       <c r="J6" s="9" t="s">
         <v>493</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>504</v>
       </c>
@@ -18678,13 +18698,14 @@
       <c r="O6" s="12" t="s">
         <v>482</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="S6" s="33" t="n">
+      <c r="S6" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18720,6 +18741,8 @@
       <c r="J7" s="9" t="s">
         <v>493</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="12" t="s">
         <v>496</v>
       </c>
@@ -18729,13 +18752,14 @@
       <c r="O7" s="12" t="s">
         <v>482</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="S7" s="33" t="n">
+      <c r="S7" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18777,13 +18801,17 @@
       <c r="L8" s="11" t="s">
         <v>512</v>
       </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="S8" s="33" t="n">
+      <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18822,18 +18850,30 @@
       <c r="K9" s="35" t="s">
         <v>511</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="S9" s="33" t="n">
+      <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="34" t="s">
         <v>517</v>
       </c>
@@ -18843,6 +18883,15 @@
       <c r="J10" s="31" t="s">
         <v>510</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18887,9 +18936,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="553">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1510,6 +1510,36 @@
   </si>
   <si>
     <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-21-24-02-2022.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
     <r>
@@ -1532,33 +1562,6 @@
       </rPr>
       <t xml:space="preserve">.apk</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
   </si>
   <si>
     <t xml:space="preserve">IOS_001</t>
@@ -2269,7 +2272,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ192" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ183" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AO197" activeCellId="0" sqref="AO197"/>
     </sheetView>
   </sheetViews>
@@ -18359,12 +18362,12 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18538,7 +18541,7 @@
       </c>
       <c r="U3" s="29"/>
     </row>
-    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>486</v>
       </c>
@@ -18573,7 +18576,7 @@
         <v>494</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>496</v>
@@ -18596,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>499</v>
       </c>
@@ -18654,7 +18657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>503</v>
       </c>
@@ -18744,7 +18747,7 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" s="12" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>481</v>
@@ -18766,7 +18769,7 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>42</v>
@@ -18775,7 +18778,7 @@
         <v>487</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>489</v>
@@ -18787,19 +18790,19 @@
         <v>478</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -18809,7 +18812,7 @@
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18818,7 +18821,7 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>42</v>
@@ -18827,7 +18830,7 @@
         <v>487</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>489</v>
@@ -18839,16 +18842,16 @@
         <v>478</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -18859,7 +18862,7 @@
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18875,13 +18878,13 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="34" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -18943,7 +18946,7 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18953,7 +18956,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18963,12 +18966,12 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18978,27 +18981,27 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19007,139 +19010,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="38" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>541</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="39" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="40" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="557">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1828,6 +1828,9 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
   </si>
 </sst>
 </file>
@@ -2292,61 +2295,61 @@
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A196" activeCellId="0" sqref="A196"/>
+      <selection pane="topLeft" activeCell="E196" activeCellId="0" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18548,22 +18551,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18638,21 +18641,28 @@
       <c r="D2" s="23" t="s">
         <v>481</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>482</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>483</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>484</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>485</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>486</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -18676,28 +18686,35 @@
       <c r="D3" s="22" t="s">
         <v>481</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>482</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>489</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>484</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>485</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>486</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18738,7 +18755,7 @@
         <v>498</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>500</v>
@@ -18749,13 +18766,14 @@
       <c r="O4" s="12" t="s">
         <v>486</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="S4" s="33" t="n">
+      <c r="S4" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18806,13 +18824,14 @@
       <c r="O5" s="12" t="s">
         <v>486</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="S5" s="33" t="n">
+      <c r="S5" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18848,6 +18867,7 @@
       <c r="J6" s="9" t="s">
         <v>497</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>509</v>
       </c>
@@ -18860,13 +18880,14 @@
       <c r="O6" s="12" t="s">
         <v>486</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="S6" s="33" t="n">
+      <c r="S6" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18902,6 +18923,8 @@
       <c r="J7" s="9" t="s">
         <v>497</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="12" t="s">
         <v>511</v>
       </c>
@@ -18911,13 +18934,14 @@
       <c r="O7" s="12" t="s">
         <v>486</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="S7" s="33" t="n">
+      <c r="S7" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18959,13 +18983,17 @@
       <c r="L8" s="11" t="s">
         <v>518</v>
       </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="S8" s="33" t="n">
+      <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19004,18 +19032,30 @@
       <c r="K9" s="36" t="s">
         <v>517</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="S9" s="33" t="n">
+      <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="35" t="s">
         <v>523</v>
       </c>
@@ -19025,6 +19065,15 @@
       <c r="J10" s="34" t="s">
         <v>516</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19069,9 +19118,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="557">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="557">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -2294,8 +2294,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E196" activeCellId="0" sqref="E196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM197" activeCellId="0" sqref="AM197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="557">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="559">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1401,6 +1401,9 @@
     <t xml:space="preserve">TestCase_193</t>
   </si>
   <si>
+    <t xml:space="preserve">Account management Elabration reason</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestCase_194</t>
   </si>
   <si>
@@ -1521,7 +1524,7 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk</t>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
   </si>
   <si>
     <t xml:space="preserve">Automation-1-0-21-24-02-2022.apk</t>
@@ -1832,6 +1835,9 @@
   <si>
     <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
   </si>
+  <si>
+    <t>null</t>
+  </si>
 </sst>
 </file>
 
@@ -1846,7 +1852,7 @@
     <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1928,12 +1934,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2046,7 +2046,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2171,19 +2171,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2207,11 +2203,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -18224,7 +18220,7 @@
         <v>451</v>
       </c>
       <c r="AN197" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AO197" s="3" t="s">
         <v>452</v>
@@ -18235,7 +18231,7 @@
         <v>454</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>43</v>
@@ -18307,7 +18303,7 @@
         <v>454</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>43</v>
@@ -18376,7 +18372,7 @@
         <v>454</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>43</v>
@@ -18577,97 +18573,97 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="23" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="23" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S2" s="24" t="n">
         <v>0</v>
@@ -18675,44 +18671,44 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="27" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -18722,56 +18718,56 @@
     </row>
     <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S4" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18780,56 +18776,56 @@
     </row>
     <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S5" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18838,54 +18834,54 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>508</v>
+        <v>496</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>509</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S6" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18894,52 +18890,52 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>508</v>
+        <v>496</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>509</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" s="12" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S7" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18948,40 +18944,40 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>514</v>
+        <v>483</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>515</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="J8" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="J8" s="31" t="s">
         <v>517</v>
       </c>
+      <c r="K8" s="31" t="s">
+        <v>518</v>
+      </c>
       <c r="L8" s="11" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -18991,7 +18987,7 @@
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -19000,37 +18996,37 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>521</v>
+        <v>483</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>522</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="K9" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>517</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>518</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -19041,7 +19037,7 @@
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -19056,14 +19052,14 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="35" t="s">
-        <v>523</v>
+      <c r="H10" s="34" t="s">
+        <v>524</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>516</v>
+        <v>525</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>517</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -19080,7 +19076,7 @@
     <hyperlink ref="R2" r:id="rId1" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="R3" r:id="rId2" display="http://127.0.0.1:4723/wd/hub"/>
     <hyperlink ref="E4" r:id="rId3" display="sriganesh.d@i-exceed.com"/>
-    <hyperlink ref="L4" r:id="rId4" display="https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.20-09-02-2022-19:04.apk"/>
+    <hyperlink ref="L4" r:id="rId4" display="https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk"/>
     <hyperlink ref="R4" r:id="rId5" display="https://device.pcloudy.com/appiumcloud/wd/hub"/>
     <hyperlink ref="E5" r:id="rId6" display="sriganesh.d@i-exceed.com"/>
     <hyperlink ref="L5" r:id="rId7" display="https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk"/>
@@ -19125,62 +19121,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="s">
-        <v>508</v>
+      <c r="B5" s="36" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
-        <v>526</v>
+      <c r="B6" s="36" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37" t="s">
-        <v>508</v>
+      <c r="B7" s="36" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="s">
-        <v>527</v>
+      <c r="B8" s="36" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="s">
-        <v>528</v>
+      <c r="B9" s="36" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="s">
-        <v>527</v>
+      <c r="B11" s="36" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="s">
-        <v>496</v>
+      <c r="B13" s="36" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19189,139 +19185,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="F25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>536</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="39" t="s">
-        <v>541</v>
+      <c r="B31" s="38" t="s">
+        <v>542</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="38" t="s">
-        <v>543</v>
+      <c r="B32" s="37" t="s">
+        <v>544</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="38" t="s">
-        <v>551</v>
+      <c r="B44" s="37" t="s">
+        <v>552</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="40" t="s">
-        <v>553</v>
+      <c r="B45" s="39" t="s">
+        <v>554</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="41" t="s">
-        <v>555</v>
+      <c r="B46" s="40" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="559">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="564">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1411,6 +1411,24 @@
   </si>
   <si>
     <t xml:space="preserve">TestCase_196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golden street unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pink street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koduvally city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kozhikodu post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_198</t>
   </si>
   <si>
     <t xml:space="preserve">mode</t>
@@ -1831,9 +1849,6 @@
       </rPr>
       <t xml:space="preserve">);</t>
     </r>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
   </si>
   <si>
     <t>null</t>
@@ -2288,10 +2303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ200"/>
+  <dimension ref="A1:AMJ202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM197" activeCellId="0" sqref="AM197"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E199" activeCellId="0" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18432,6 +18447,235 @@
       <c r="AM200" s="1" t="s">
         <v>451</v>
       </c>
+    </row>
+    <row r="201" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G201" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K201" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M201" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N201" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q201" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="R201" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T201" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="U201" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="W201" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="X201" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y201" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z201" s="9" t="n">
+        <v>1234</v>
+      </c>
+      <c r="AA201" s="9"/>
+      <c r="AB201" s="9"/>
+      <c r="AC201" s="9"/>
+      <c r="AD201" s="9"/>
+      <c r="AE201" s="9"/>
+      <c r="AF201" s="9"/>
+      <c r="AG201" s="9"/>
+      <c r="AH201" s="9"/>
+      <c r="AI201" s="9"/>
+      <c r="AJ201" s="9"/>
+      <c r="AK201" s="9"/>
+      <c r="AL201" s="9"/>
+      <c r="AM201" s="9"/>
+      <c r="AN201" s="15"/>
+      <c r="AO201" s="16"/>
+      <c r="AP201" s="9"/>
+      <c r="AQ201" s="9"/>
+      <c r="AR201" s="9"/>
+      <c r="AS201" s="9"/>
+      <c r="AT201" s="9"/>
+      <c r="AU201" s="9"/>
+      <c r="AV201" s="16"/>
+      <c r="AW201" s="16"/>
+      <c r="AX201" s="9"/>
+      <c r="AY201" s="9"/>
+      <c r="AZ201" s="9"/>
+      <c r="BA201" s="9"/>
+      <c r="BB201" s="15"/>
+      <c r="BC201" s="9"/>
+      <c r="BD201" s="9"/>
+      <c r="BE201" s="9"/>
+      <c r="BF201" s="9"/>
+      <c r="BG201" s="9"/>
+      <c r="BH201" s="9"/>
+      <c r="BI201" s="9"/>
+      <c r="BJ201" s="9"/>
+      <c r="BK201" s="9"/>
+      <c r="BL201" s="9"/>
+      <c r="BM201" s="9"/>
+      <c r="BN201" s="9"/>
+      <c r="BO201" s="9"/>
+      <c r="BP201" s="9"/>
+      <c r="BQ201" s="9"/>
+      <c r="BR201" s="9"/>
+      <c r="BS201" s="9"/>
+      <c r="BT201" s="9"/>
+      <c r="BU201" s="9"/>
+      <c r="BV201" s="9"/>
+      <c r="BW201" s="9"/>
+      <c r="BX201" s="9"/>
+      <c r="BY201" s="9"/>
+    </row>
+    <row r="202" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G202" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I202" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M202" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N202" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q202" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="R202" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T202" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="U202" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="W202" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="X202" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y202" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z202" s="9" t="n">
+        <v>1234</v>
+      </c>
+      <c r="AA202" s="9"/>
+      <c r="AB202" s="9"/>
+      <c r="AC202" s="9"/>
+      <c r="AD202" s="9"/>
+      <c r="AE202" s="9"/>
+      <c r="AF202" s="9"/>
+      <c r="AG202" s="9"/>
+      <c r="AH202" s="9"/>
+      <c r="AI202" s="9"/>
+      <c r="AJ202" s="9"/>
+      <c r="AK202" s="9"/>
+      <c r="AL202" s="9"/>
+      <c r="AM202" s="9"/>
+      <c r="AN202" s="15"/>
+      <c r="AO202" s="16"/>
+      <c r="AP202" s="9"/>
+      <c r="AQ202" s="9"/>
+      <c r="AR202" s="9"/>
+      <c r="AS202" s="9"/>
+      <c r="AT202" s="9"/>
+      <c r="AU202" s="9"/>
+      <c r="AV202" s="16"/>
+      <c r="AW202" s="16"/>
+      <c r="AX202" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18519,6 +18763,8 @@
     <hyperlink ref="I198" r:id="rId82" display="parkjimin@gmail.com"/>
     <hyperlink ref="I199" r:id="rId83" display="parkjimin@gmail.com"/>
     <hyperlink ref="I200" r:id="rId84" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I201" r:id="rId85" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I202" r:id="rId86" display="parkjimin@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -18573,97 +18819,97 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2" s="23" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="23" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" s="25" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="S2" s="24" t="n">
         <v>0</v>
@@ -18671,44 +18917,44 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" s="22" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H3"/>
       <c r="I3" s="27" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" s="25" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
@@ -18718,56 +18964,56 @@
     </row>
     <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>493</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>497</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>487</v>
       </c>
       <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="S4" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18776,56 +19022,56 @@
     </row>
     <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>493</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>487</v>
       </c>
       <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="S5" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18834,54 +19080,54 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="12" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="S6" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18890,52 +19136,52 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" s="12" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="S7" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18944,40 +19190,40 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -18987,7 +19233,7 @@
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -18996,37 +19242,37 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="I9" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>517</v>
-      </c>
       <c r="K9" s="35" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -19037,7 +19283,7 @@
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
@@ -19053,13 +19299,13 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="34" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K10"/>
       <c r="L10"/>
@@ -19121,62 +19367,62 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="36" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="36" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="36" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="36" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="36" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="36" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="36" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19185,139 +19431,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="37" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="38" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="37" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="37" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="39" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="40" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="564">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1851,7 +1851,7 @@
     </r>
   </si>
   <si>
-    <t>null</t>
+    <t xml:space="preserve">e2e testdata</t>
   </si>
 </sst>
 </file>
@@ -2305,62 +2305,62 @@
   </sheetPr>
   <dimension ref="A1:AMJ202"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E199" activeCellId="0" sqref="E199"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E202" activeCellId="0" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18448,7 +18448,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="s">
         <v>252</v>
       </c>
@@ -18524,22 +18524,46 @@
       <c r="Z201" s="9" t="n">
         <v>1234</v>
       </c>
-      <c r="AA201" s="9"/>
-      <c r="AB201" s="9"/>
-      <c r="AC201" s="9"/>
-      <c r="AD201" s="9"/>
-      <c r="AE201" s="9"/>
-      <c r="AF201" s="9"/>
-      <c r="AG201" s="9"/>
-      <c r="AH201" s="9"/>
-      <c r="AI201" s="9"/>
-      <c r="AJ201" s="9"/>
-      <c r="AK201" s="9"/>
+      <c r="AA201" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB201" s="17" t="n">
+        <v>190</v>
+      </c>
+      <c r="AC201" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD201" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE201" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF201" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG201" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH201" s="17" t="n">
+        <v>12345</v>
+      </c>
+      <c r="AI201" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="AJ201" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="AL201" s="9"/>
-      <c r="AM201" s="9"/>
-      <c r="AN201" s="15"/>
-      <c r="AO201" s="16"/>
-      <c r="AP201" s="9"/>
+      <c r="AM201" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN201" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO201" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="AQ201" s="9"/>
       <c r="AR201" s="9"/>
       <c r="AS201" s="9"/>
@@ -18576,7 +18600,7 @@
       <c r="BX201" s="9"/>
       <c r="BY201" s="9"/>
     </row>
-    <row r="202" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
         <v>252</v>
       </c>
@@ -18652,22 +18676,46 @@
       <c r="Z202" s="9" t="n">
         <v>1234</v>
       </c>
-      <c r="AA202" s="9"/>
-      <c r="AB202" s="9"/>
-      <c r="AC202" s="9"/>
-      <c r="AD202" s="9"/>
-      <c r="AE202" s="9"/>
-      <c r="AF202" s="9"/>
-      <c r="AG202" s="9"/>
-      <c r="AH202" s="9"/>
-      <c r="AI202" s="9"/>
-      <c r="AJ202" s="9"/>
-      <c r="AK202" s="9"/>
+      <c r="AA202" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB202" s="17" t="n">
+        <v>191</v>
+      </c>
+      <c r="AC202" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD202" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE202" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AF202" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG202" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH202" s="17" t="n">
+        <v>12345</v>
+      </c>
+      <c r="AI202" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="AJ202" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="AL202" s="9"/>
-      <c r="AM202" s="9"/>
-      <c r="AN202" s="15"/>
-      <c r="AO202" s="16"/>
-      <c r="AP202" s="9"/>
+      <c r="AM202" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AN202" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO202" s="3" t="s">
+        <v>452</v>
+      </c>
       <c r="AQ202" s="9"/>
       <c r="AR202" s="9"/>
       <c r="AS202" s="9"/>
@@ -18788,27 +18836,27 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="1" sqref="E202 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18883,28 +18931,21 @@
       <c r="D2" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>490</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>492</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -18928,35 +18969,28 @@
       <c r="D3" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>496</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>492</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="S3" s="28" t="b">
+      <c r="S3" s="28" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19008,14 +19042,13 @@
       <c r="O4" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S4" s="33" t="b">
+      <c r="S4" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19066,14 +19099,13 @@
       <c r="O5" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S5" s="33" t="b">
+      <c r="S5" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19109,7 +19141,6 @@
       <c r="J6" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>516</v>
       </c>
@@ -19122,14 +19153,13 @@
       <c r="O6" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S6" s="33" t="b">
+      <c r="S6" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19165,8 +19195,6 @@
       <c r="J7" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
       <c r="M7" s="12" t="s">
         <v>518</v>
       </c>
@@ -19176,14 +19204,13 @@
       <c r="O7" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S7" s="33" t="b">
+      <c r="S7" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19223,19 +19250,15 @@
         <v>524</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+        <v>525</v>
+      </c>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="S8" s="33" t="b">
+      <c r="S8" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19274,30 +19297,18 @@
       <c r="K9" s="35" t="s">
         <v>524</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="S9" s="33" t="b">
+      <c r="S9" s="33" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="34" t="s">
         <v>530</v>
       </c>
@@ -19307,15 +19318,6 @@
       <c r="J10" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19352,17 +19354,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:G46"/>
+  <dimension ref="A4:G50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="1" sqref="E202 A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19564,6 +19566,14 @@
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="40" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>197198</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="565">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1852,6 +1852,9 @@
   </si>
   <si>
     <t xml:space="preserve">e2e testdata</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -2311,56 +2314,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18841,22 +18844,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18931,21 +18934,28 @@
       <c r="D2" s="23" t="s">
         <v>488</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>489</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>490</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>491</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>492</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>493</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -18969,28 +18979,35 @@
       <c r="D3" s="22" t="s">
         <v>488</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>489</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>496</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>491</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>492</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>493</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19042,13 +19059,14 @@
       <c r="O4" s="12" t="s">
         <v>493</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S4" s="33" t="n">
+      <c r="S4" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19099,13 +19117,14 @@
       <c r="O5" s="12" t="s">
         <v>493</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S5" s="33" t="n">
+      <c r="S5" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19141,6 +19160,7 @@
       <c r="J6" s="9" t="s">
         <v>504</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>516</v>
       </c>
@@ -19153,13 +19173,14 @@
       <c r="O6" s="12" t="s">
         <v>493</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S6" s="33" t="n">
+      <c r="S6" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19195,6 +19216,8 @@
       <c r="J7" s="9" t="s">
         <v>504</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="12" t="s">
         <v>518</v>
       </c>
@@ -19204,13 +19227,14 @@
       <c r="O7" s="12" t="s">
         <v>493</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="S7" s="33" t="n">
+      <c r="S7" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19250,15 +19274,19 @@
         <v>524</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>525</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="S8" s="33" t="n">
+      <c r="S8" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19297,18 +19325,30 @@
       <c r="K9" s="35" t="s">
         <v>524</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="S9" s="33" t="n">
+      <c r="S9" s="33" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="34" t="s">
         <v>530</v>
       </c>
@@ -19318,6 +19358,15 @@
       <c r="J10" s="31" t="s">
         <v>523</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19362,9 +19411,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="565">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="593">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="593">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1629,7 +1629,7 @@
     <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-22-3-3-2022.apk</t>
+    <t xml:space="preserve">Automation-1-0-22-8-3-2022.apk</t>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1668,97 +1668,100 @@
     <t xml:space="preserve">ios</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6.0</t>
+    <t xml:space="preserve">15.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPadPro3rdGen_iOS_15.3.0_b7060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad_iOS_13.7.0_c08f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad8thGen_iOS_14.4.2_d5dd0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad9.7_iOS_15.1.0_9bc4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad7_iOS_14.0.1_7de05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPadPro3_iOS_14.7.1_c7375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad_iOS_13.7.0_c08f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad8thGen_iOS_14.4.2_d5dd0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneX_iOS_13.3.1_90703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneX_iOS_14.0.0_1b718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPhoneXS_iOS_14.1.0_21d51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad9.7_iOS_15.1.0_9bc4e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">india</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad7_iOS_14.0.1_7de05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us</t>
   </si>
   <si>
     <t xml:space="preserve">add</t>
@@ -1916,10 +1919,7 @@
     <t xml:space="preserve">e2e testdata</t>
   </si>
   <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-03-03-2022-18:41.apk</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-08-03-2022-16:32.apk</t>
   </si>
 </sst>
 </file>
@@ -2374,10 +2374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ212"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AQ202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AX203" activeCellId="0" sqref="AX203:AX204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10895,18 +10895,44 @@
       <c r="AMI84" s="4"/>
       <c r="AMJ84" s="4"/>
     </row>
-    <row r="85" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="1"/>
+    <row r="85" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E85" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="K85" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="M85" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
       <c r="S85" s="1"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
@@ -10950,12 +10976,12 @@
       <c r="AMI85" s="4"/>
       <c r="AMJ85" s="4"/>
     </row>
-    <row r="86" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>269</v>
+    <row r="86" s="9" customFormat="true" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>52</v>
@@ -10967,13 +10993,13 @@
         <v>62</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -11031,12 +11057,12 @@
       <c r="AMI86" s="4"/>
       <c r="AMJ86" s="4"/>
     </row>
-    <row r="87" s="9" customFormat="true" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>52</v>
@@ -11054,7 +11080,7 @@
         <v>100</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -11114,10 +11140,10 @@
     </row>
     <row r="88" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>52</v>
@@ -11134,12 +11160,8 @@
       <c r="G88" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="K88" s="2"/>
       <c r="L88" s="1"/>
       <c r="M88" s="10" t="s">
         <v>56</v>
@@ -11194,18 +11216,16 @@
       <c r="AMJ88" s="4"/>
     </row>
     <row r="89" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
-        <v>275</v>
+      <c r="A89" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="9" t="s">
         <v>62</v>
       </c>
@@ -11215,7 +11235,9 @@
       <c r="G89" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H89" s="1"/>
+      <c r="I89" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="K89" s="2"/>
       <c r="L89" s="1"/>
       <c r="M89" s="10" t="s">
@@ -11226,7 +11248,6 @@
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
       <c r="S89" s="1"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
@@ -11270,12 +11291,12 @@
       <c r="AMI89" s="4"/>
       <c r="AMJ89" s="4"/>
     </row>
-    <row r="90" s="9" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>277</v>
+    <row r="90" s="9" customFormat="true" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>279</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>52</v>
@@ -11290,8 +11311,9 @@
       <c r="G90" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I90" s="9" t="s">
-        <v>78</v>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="1"/>
@@ -11346,17 +11368,16 @@
       <c r="AMI90" s="4"/>
       <c r="AMJ90" s="4"/>
     </row>
-    <row r="91" s="9" customFormat="true" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="1"/>
       <c r="E91" s="9" t="s">
         <v>62</v>
       </c>
@@ -11366,69 +11387,67 @@
       <c r="G91" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="1"/>
+      <c r="I91" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J91" s="9"/>
       <c r="M91" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N91" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="9"/>
+      <c r="AH91" s="9"/>
+      <c r="AI91" s="9"/>
+      <c r="AJ91" s="9"/>
+      <c r="AK91" s="9"/>
+      <c r="AL91" s="9"/>
+      <c r="AM91" s="9"/>
       <c r="AN91" s="15"/>
       <c r="AO91" s="16"/>
+      <c r="AP91" s="9"/>
+      <c r="AQ91" s="9"/>
+      <c r="AR91" s="9"/>
+      <c r="AS91" s="9"/>
+      <c r="AT91" s="9"/>
+      <c r="AU91" s="9"/>
       <c r="AV91" s="16"/>
       <c r="AW91" s="16"/>
+      <c r="AX91" s="9"/>
+      <c r="AY91" s="9"/>
+      <c r="AZ91" s="9"/>
+      <c r="BA91" s="9"/>
       <c r="BB91" s="15"/>
-      <c r="ALC91" s="4"/>
-      <c r="ALD91" s="4"/>
-      <c r="ALE91" s="4"/>
-      <c r="ALF91" s="4"/>
-      <c r="ALG91" s="4"/>
-      <c r="ALH91" s="4"/>
-      <c r="ALI91" s="4"/>
-      <c r="ALJ91" s="4"/>
-      <c r="ALK91" s="4"/>
-      <c r="ALL91" s="4"/>
-      <c r="ALM91" s="4"/>
-      <c r="ALN91" s="4"/>
-      <c r="ALO91" s="4"/>
-      <c r="ALP91" s="4"/>
-      <c r="ALQ91" s="4"/>
-      <c r="ALR91" s="4"/>
-      <c r="ALS91" s="4"/>
-      <c r="ALT91" s="4"/>
-      <c r="ALU91" s="4"/>
-      <c r="ALV91" s="4"/>
-      <c r="ALW91" s="4"/>
-      <c r="ALX91" s="4"/>
-      <c r="ALY91" s="4"/>
-      <c r="ALZ91" s="4"/>
-      <c r="AMA91" s="4"/>
-      <c r="AMB91" s="4"/>
-      <c r="AMC91" s="4"/>
-      <c r="AMD91" s="4"/>
-      <c r="AME91" s="4"/>
-      <c r="AMF91" s="4"/>
-      <c r="AMG91" s="4"/>
-      <c r="AMH91" s="4"/>
-      <c r="AMI91" s="4"/>
-      <c r="AMJ91" s="4"/>
+      <c r="BC91" s="9"/>
+      <c r="BD91" s="9"/>
+      <c r="BE91" s="9"/>
+      <c r="BF91" s="9"/>
+      <c r="BG91" s="9"/>
+      <c r="BH91" s="9"/>
+      <c r="BI91" s="9"/>
+      <c r="BJ91" s="9"/>
+      <c r="BK91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>52</v>
@@ -11442,9 +11461,7 @@
       <c r="G92" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="M92" s="10" t="s">
         <v>56</v>
@@ -11499,10 +11516,10 @@
     </row>
     <row r="93" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>52</v>
@@ -11516,7 +11533,9 @@
       <c r="G93" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I93" s="9"/>
+      <c r="I93" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="J93" s="9"/>
       <c r="M93" s="10" t="s">
         <v>56</v>
@@ -11569,12 +11588,12 @@
       <c r="BJ93" s="9"/>
       <c r="BK93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>52</v>
@@ -11588,17 +11607,24 @@
       <c r="G94" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J94" s="9"/>
+      <c r="H94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="M94" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N94" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
       <c r="T94" s="9"/>
       <c r="W94" s="9"/>
@@ -11643,12 +11669,12 @@
       <c r="BJ94" s="9"/>
       <c r="BK94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>52</v>
@@ -11660,7 +11686,7 @@
         <v>55</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>289</v>
@@ -11668,11 +11694,11 @@
       <c r="I95" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J95" s="9" t="s">
-        <v>94</v>
+      <c r="J95" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M95" s="10" t="s">
         <v>56</v>
@@ -11725,11 +11751,11 @@
       <c r="BK95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
-        <v>290</v>
+      <c r="A96" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>52</v>
@@ -11741,7 +11767,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>289</v>
@@ -11753,7 +11779,7 @@
         <v>98</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M96" s="10" t="s">
         <v>56</v>
@@ -11768,13 +11794,13 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
-      <c r="AB96" s="9"/>
+      <c r="AB96" s="17"/>
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
       <c r="AE96" s="9"/>
       <c r="AF96" s="9"/>
       <c r="AG96" s="9"/>
-      <c r="AH96" s="9"/>
+      <c r="AH96" s="17"/>
       <c r="AI96" s="9"/>
       <c r="AJ96" s="9"/>
       <c r="AK96" s="9"/>
@@ -11806,11 +11832,11 @@
       <c r="BK96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>292</v>
+      <c r="A97" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>52</v>
@@ -11834,7 +11860,7 @@
         <v>98</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M97" s="10" t="s">
         <v>56</v>
@@ -11886,12 +11912,12 @@
       <c r="BJ97" s="9"/>
       <c r="BK97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>52</v>
@@ -11914,8 +11940,8 @@
       <c r="J98" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K98" s="13" t="s">
-        <v>105</v>
+      <c r="K98" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="M98" s="10" t="s">
         <v>56</v>
@@ -11967,12 +11993,12 @@
       <c r="BJ98" s="9"/>
       <c r="BK98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>52</v>
@@ -11987,16 +12013,13 @@
         <v>100</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="I99" s="9" t="s">
         <v>93</v>
       </c>
       <c r="J99" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="M99" s="10" t="s">
         <v>56</v>
@@ -12050,10 +12073,10 @@
     </row>
     <row r="100" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>52</v>
@@ -12065,23 +12088,26 @@
         <v>55</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I100" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="I100" s="9"/>
       <c r="J100" s="14" t="s">
         <v>98</v>
       </c>
+      <c r="L100" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="M100" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N100" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
       <c r="T100" s="9"/>
       <c r="W100" s="9"/>
@@ -12128,10 +12154,10 @@
     </row>
     <row r="101" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>52</v>
@@ -12143,7 +12169,7 @@
         <v>55</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>116</v>
@@ -12153,7 +12179,7 @@
         <v>98</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M101" s="10" t="s">
         <v>56</v>
@@ -12209,10 +12235,10 @@
     </row>
     <row r="102" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>52</v>
@@ -12224,7 +12250,7 @@
         <v>55</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>116</v>
@@ -12242,7 +12268,6 @@
       <c r="N102" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P102" s="9"/>
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
       <c r="T102" s="9"/>
@@ -12290,10 +12315,10 @@
     </row>
     <row r="103" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>52</v>
@@ -12308,14 +12333,19 @@
         <v>100</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I103" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="J103" s="14" t="s">
         <v>98</v>
       </c>
+      <c r="K103" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="L103" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>56</v>
@@ -12323,7 +12353,6 @@
       <c r="N103" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
       <c r="T103" s="9"/>
       <c r="W103" s="9"/>
@@ -12369,14 +12398,17 @@
       <c r="BK103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
-        <v>119</v>
+      <c r="A104" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>52</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>62</v>
@@ -12385,7 +12417,7 @@
         <v>55</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>121</v>
@@ -12397,10 +12429,7 @@
         <v>98</v>
       </c>
       <c r="K104" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>113</v>
+        <v>305</v>
       </c>
       <c r="M104" s="10" t="s">
         <v>56</v>
@@ -12408,6 +12437,7 @@
       <c r="N104" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
       <c r="T104" s="9"/>
       <c r="W104" s="9"/>
@@ -12457,7 +12487,7 @@
         <v>60</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>52</v>
@@ -12477,21 +12507,15 @@
       <c r="H105" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I105" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J105" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K105" s="13" t="s">
-        <v>305</v>
-      </c>
+      <c r="J105" s="14"/>
+      <c r="K105" s="1"/>
       <c r="M105" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N105" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
       <c r="T105" s="9"/>
@@ -12538,11 +12562,11 @@
       <c r="BK105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>60</v>
+      <c r="A106" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>52</v>
@@ -12557,22 +12581,29 @@
         <v>55</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="1"/>
+      <c r="I106" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="M106" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N106" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="9"/>
       <c r="T106" s="9"/>
       <c r="W106" s="9"/>
       <c r="X106" s="9"/>
@@ -12618,10 +12649,10 @@
     </row>
     <row r="107" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>52</v>
@@ -12636,22 +12667,19 @@
         <v>55</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J107" s="14" t="s">
         <v>98</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>113</v>
+        <v>310</v>
       </c>
       <c r="M107" s="10" t="s">
         <v>56</v>
@@ -12659,6 +12687,8 @@
       <c r="N107" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
       <c r="T107" s="9"/>
       <c r="W107" s="9"/>
       <c r="X107" s="9"/>
@@ -12703,11 +12733,11 @@
       <c r="BK107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
-        <v>119</v>
+      <c r="A108" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>52</v>
@@ -12719,32 +12749,22 @@
         <v>62</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J108" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K108" s="13" t="s">
-        <v>310</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H108" s="4"/>
+      <c r="K108" s="1"/>
       <c r="M108" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N108" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="9"/>
-      <c r="T108" s="9"/>
+      <c r="O108" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="W108" s="9"/>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
@@ -12789,10 +12809,10 @@
     </row>
     <row r="109" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>52</v>
@@ -12807,18 +12827,14 @@
         <v>66</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H109" s="4"/>
       <c r="K109" s="1"/>
-      <c r="M109" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N109" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
       <c r="O109" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="W109" s="9"/>
       <c r="X109" s="9"/>
@@ -12864,10 +12880,10 @@
     </row>
     <row r="110" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>52</v>
@@ -12882,14 +12898,14 @@
         <v>66</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H110" s="4"/>
       <c r="K110" s="1"/>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="W110" s="9"/>
       <c r="X110" s="9"/>
@@ -12933,12 +12949,12 @@
       <c r="BJ110" s="9"/>
       <c r="BK110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>315</v>
+    <row r="111" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>317</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>52</v>
@@ -12950,17 +12966,21 @@
         <v>62</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H111" s="4"/>
       <c r="K111" s="1"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10"/>
+      <c r="M111" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N111" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O111" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W111" s="9"/>
       <c r="X111" s="9"/>
@@ -13004,12 +13024,12 @@
       <c r="BJ111" s="9"/>
       <c r="BK111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="123" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>52</v>
@@ -13035,7 +13055,7 @@
         <v>57</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="W112" s="9"/>
       <c r="X112" s="9"/>
@@ -13081,10 +13101,10 @@
     </row>
     <row r="113" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>52</v>
@@ -13102,15 +13122,13 @@
         <v>100</v>
       </c>
       <c r="H113" s="4"/>
-      <c r="K113" s="1"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
       <c r="M113" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N113" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="W113" s="9"/>
       <c r="X113" s="9"/>
@@ -13154,12 +13172,12 @@
       <c r="BJ113" s="9"/>
       <c r="BK113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>321</v>
+    <row r="114" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>52</v>
@@ -13171,20 +13189,29 @@
         <v>62</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H114" s="4"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="K114" s="1"/>
       <c r="M114" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="O114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T114" s="9"/>
       <c r="W114" s="9"/>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
@@ -13232,7 +13259,7 @@
         <v>323</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>52</v>
@@ -13247,25 +13274,22 @@
         <v>66</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H115" s="4"/>
       <c r="K115" s="1"/>
-      <c r="M115" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N115" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
       <c r="O115" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="R115" s="9"/>
       <c r="T115" s="9"/>
       <c r="W115" s="9"/>
       <c r="X115" s="9"/>
@@ -13281,40 +13305,13 @@
       <c r="AH115" s="17"/>
       <c r="AI115" s="9"/>
       <c r="AJ115" s="9"/>
-      <c r="AK115" s="9"/>
-      <c r="AL115" s="9"/>
-      <c r="AM115" s="9"/>
-      <c r="AN115" s="15"/>
-      <c r="AO115" s="16"/>
-      <c r="AP115" s="9"/>
-      <c r="AQ115" s="9"/>
-      <c r="AR115" s="9"/>
-      <c r="AS115" s="9"/>
-      <c r="AT115" s="9"/>
-      <c r="AU115" s="9"/>
-      <c r="AV115" s="16"/>
-      <c r="AW115" s="16"/>
-      <c r="AX115" s="9"/>
-      <c r="AY115" s="9"/>
-      <c r="AZ115" s="9"/>
-      <c r="BA115" s="9"/>
-      <c r="BB115" s="15"/>
-      <c r="BC115" s="9"/>
-      <c r="BD115" s="9"/>
-      <c r="BE115" s="9"/>
-      <c r="BF115" s="9"/>
-      <c r="BG115" s="9"/>
-      <c r="BH115" s="9"/>
-      <c r="BI115" s="9"/>
-      <c r="BJ115" s="9"/>
-      <c r="BK115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>52</v>
@@ -13329,20 +13326,20 @@
         <v>66</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H116" s="4"/>
       <c r="K116" s="1"/>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R116" s="9"/>
       <c r="T116" s="9"/>
@@ -13361,12 +13358,12 @@
       <c r="AI116" s="9"/>
       <c r="AJ116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>326</v>
+    <row r="117" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>52</v>
@@ -13378,23 +13375,27 @@
         <v>62</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H117" s="4"/>
       <c r="K117" s="1"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
+      <c r="M117" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N117" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O117" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R117" s="9"/>
       <c r="T117" s="9"/>
@@ -13413,12 +13414,12 @@
       <c r="AI117" s="9"/>
       <c r="AJ117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>52</v>
@@ -13444,13 +13445,13 @@
         <v>57</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="R118" s="9"/>
       <c r="T118" s="9"/>
@@ -13471,10 +13472,10 @@
     </row>
     <row r="119" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>52</v>
@@ -13492,21 +13493,13 @@
         <v>100</v>
       </c>
       <c r="H119" s="4"/>
-      <c r="K119" s="1"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
       <c r="M119" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N119" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="R119" s="9"/>
       <c r="T119" s="9"/>
@@ -13526,11 +13519,11 @@
       <c r="AJ119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>332</v>
+      <c r="A120" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>52</v>
@@ -13542,19 +13535,27 @@
         <v>62</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H120" s="4"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
+      <c r="K120" s="1"/>
       <c r="M120" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N120" s="10" t="s">
         <v>57</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="R120" s="9"/>
       <c r="T120" s="9"/>
@@ -13578,7 +13579,7 @@
         <v>334</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>52</v>
@@ -13593,24 +13594,20 @@
         <v>66</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H121" s="4"/>
       <c r="K121" s="1"/>
-      <c r="M121" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N121" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
       <c r="O121" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R121" s="9"/>
       <c r="T121" s="9"/>
@@ -13631,10 +13628,10 @@
     </row>
     <row r="122" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>52</v>
@@ -13649,20 +13646,20 @@
         <v>66</v>
       </c>
       <c r="G122" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H122" s="4"/>
       <c r="K122" s="1"/>
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R122" s="9"/>
       <c r="T122" s="9"/>
@@ -13681,12 +13678,12 @@
       <c r="AI122" s="9"/>
       <c r="AJ122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>337</v>
+    <row r="123" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>52</v>
@@ -13705,16 +13702,20 @@
       </c>
       <c r="H123" s="4"/>
       <c r="K123" s="1"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
+      <c r="M123" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N123" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O123" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R123" s="9"/>
       <c r="T123" s="9"/>
@@ -13733,12 +13734,12 @@
       <c r="AI123" s="9"/>
       <c r="AJ123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>52</v>
@@ -13750,7 +13751,7 @@
         <v>62</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>100</v>
@@ -13764,13 +13765,13 @@
         <v>57</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="R124" s="9"/>
       <c r="T124" s="9"/>
@@ -13791,10 +13792,10 @@
     </row>
     <row r="125" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>52</v>
@@ -13812,21 +13813,13 @@
         <v>100</v>
       </c>
       <c r="H125" s="4"/>
-      <c r="K125" s="1"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
       <c r="M125" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N125" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="R125" s="9"/>
       <c r="T125" s="9"/>
@@ -13847,10 +13840,10 @@
     </row>
     <row r="126" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>52</v>
@@ -13865,18 +13858,23 @@
         <v>55</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H126" s="4"/>
+        <v>101</v>
+      </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
-      <c r="M126" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N126" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="R126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P126" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q126" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R126" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="T126" s="9"/>
       <c r="W126" s="9"/>
       <c r="X126" s="9"/>
@@ -13894,11 +13892,11 @@
       <c r="AJ126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="s">
-        <v>345</v>
+      <c r="A127" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>52</v>
@@ -13910,27 +13908,34 @@
         <v>62</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G127" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="N127" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="H127" s="4"/>
+      <c r="K127" s="1"/>
+      <c r="M127" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N127" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O127" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P127" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q127" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="R127" s="9" t="s">
-        <v>172</v>
+        <v>133</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R127" s="9"/>
+      <c r="S127" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="T127" s="9"/>
+      <c r="U127" s="15"/>
       <c r="W127" s="9"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="9"/>
@@ -13951,7 +13956,7 @@
         <v>347</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>52</v>
@@ -13966,28 +13971,24 @@
         <v>66</v>
       </c>
       <c r="G128" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H128" s="4"/>
       <c r="K128" s="1"/>
-      <c r="M128" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N128" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
       <c r="O128" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R128" s="9"/>
       <c r="S128" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T128" s="9"/>
       <c r="U128" s="15"/>
@@ -14008,10 +14009,10 @@
     </row>
     <row r="129" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>52</v>
@@ -14026,24 +14027,24 @@
         <v>66</v>
       </c>
       <c r="G129" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H129" s="4"/>
       <c r="K129" s="1"/>
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
       <c r="O129" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R129" s="9"/>
       <c r="S129" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T129" s="9"/>
       <c r="U129" s="15"/>
@@ -14062,12 +14063,12 @@
       <c r="AI129" s="9"/>
       <c r="AJ129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C130" s="9" t="s">
         <v>52</v>
@@ -14086,23 +14087,30 @@
       </c>
       <c r="H130" s="4"/>
       <c r="K130" s="1"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
+      <c r="M130" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N130" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O130" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R130" s="9"/>
       <c r="S130" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T130" s="9"/>
+        <v>175</v>
+      </c>
+      <c r="T130" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="U130" s="15"/>
+      <c r="V130" s="15"/>
       <c r="W130" s="9"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="9"/>
@@ -14120,10 +14128,10 @@
     </row>
     <row r="131" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C131" s="9" t="s">
         <v>52</v>
@@ -14138,31 +14146,27 @@
         <v>66</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H131" s="4"/>
       <c r="K131" s="1"/>
-      <c r="M131" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N131" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
       <c r="O131" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R131" s="9"/>
       <c r="S131" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T131" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U131" s="15"/>
       <c r="V131" s="15"/>
@@ -14183,10 +14187,10 @@
     </row>
     <row r="132" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>52</v>
@@ -14201,27 +14205,27 @@
         <v>66</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H132" s="4"/>
       <c r="K132" s="1"/>
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R132" s="9"/>
       <c r="S132" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T132" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U132" s="15"/>
       <c r="V132" s="15"/>
@@ -14240,12 +14244,12 @@
       <c r="AI132" s="9"/>
       <c r="AJ132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>52</v>
@@ -14257,30 +14261,34 @@
         <v>62</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H133" s="4"/>
       <c r="K133" s="1"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
+      <c r="M133" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N133" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O133" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R133" s="9"/>
       <c r="S133" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="T133" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U133" s="15"/>
       <c r="V133" s="15"/>
@@ -14299,12 +14307,12 @@
       <c r="AI133" s="9"/>
       <c r="AJ133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>52</v>
@@ -14330,20 +14338,20 @@
         <v>57</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="R134" s="9"/>
       <c r="S134" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="T134" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U134" s="15"/>
       <c r="V134" s="15"/>
@@ -14360,14 +14368,32 @@
       <c r="AG134" s="9"/>
       <c r="AH134" s="17"/>
       <c r="AI134" s="9"/>
-      <c r="AJ134" s="9"/>
+      <c r="AJ134" s="4"/>
+      <c r="AK134" s="4"/>
+      <c r="AL134" s="4"/>
+      <c r="AM134" s="4"/>
+      <c r="AN134" s="4"/>
+      <c r="AO134" s="11"/>
+      <c r="AP134" s="4"/>
+      <c r="AQ134" s="4"/>
+      <c r="AR134" s="4"/>
+      <c r="AS134" s="4"/>
+      <c r="AT134" s="4"/>
+      <c r="AU134" s="4"/>
+      <c r="AV134" s="4"/>
+      <c r="AW134" s="4"/>
+      <c r="AX134" s="4"/>
+      <c r="AY134" s="4"/>
+      <c r="AZ134" s="4"/>
+      <c r="BA134" s="4"/>
+      <c r="BB134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>52</v>
@@ -14385,29 +14411,16 @@
         <v>100</v>
       </c>
       <c r="H135" s="4"/>
-      <c r="K135" s="1"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
       <c r="M135" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N135" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O135" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="R135" s="9"/>
-      <c r="S135" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T135" s="9" t="s">
-        <v>203</v>
-      </c>
+      <c r="T135" s="9"/>
       <c r="U135" s="15"/>
       <c r="V135" s="15"/>
       <c r="W135" s="9"/>
@@ -14445,10 +14458,10 @@
     </row>
     <row r="136" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>52</v>
@@ -14460,23 +14473,38 @@
         <v>62</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H136" s="4"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
+      <c r="K136" s="1"/>
       <c r="M136" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N136" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="O136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="R136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="15"/>
+      <c r="S136" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T136" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="U136" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="V136" s="15"/>
       <c r="W136" s="9"/>
       <c r="X136" s="9"/>
@@ -14513,10 +14541,10 @@
     </row>
     <row r="137" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>52</v>
@@ -14531,34 +14559,30 @@
         <v>66</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H137" s="4"/>
       <c r="K137" s="1"/>
-      <c r="M137" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N137" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
       <c r="O137" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R137" s="9"/>
       <c r="S137" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T137" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U137" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V137" s="15"/>
       <c r="W137" s="9"/>
@@ -14574,32 +14598,14 @@
       <c r="AG137" s="9"/>
       <c r="AH137" s="17"/>
       <c r="AI137" s="9"/>
-      <c r="AJ137" s="4"/>
-      <c r="AK137" s="4"/>
-      <c r="AL137" s="4"/>
-      <c r="AM137" s="4"/>
-      <c r="AN137" s="4"/>
-      <c r="AO137" s="11"/>
-      <c r="AP137" s="4"/>
-      <c r="AQ137" s="4"/>
-      <c r="AR137" s="4"/>
-      <c r="AS137" s="4"/>
-      <c r="AT137" s="4"/>
-      <c r="AU137" s="4"/>
-      <c r="AV137" s="4"/>
-      <c r="AW137" s="4"/>
-      <c r="AX137" s="4"/>
-      <c r="AY137" s="4"/>
-      <c r="AZ137" s="4"/>
-      <c r="BA137" s="4"/>
-      <c r="BB137" s="4"/>
+      <c r="AJ137" s="9"/>
     </row>
     <row r="138" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>52</v>
@@ -14614,30 +14620,30 @@
         <v>66</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H138" s="4"/>
       <c r="K138" s="1"/>
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R138" s="9"/>
       <c r="S138" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T138" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U138" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V138" s="15"/>
       <c r="W138" s="9"/>
@@ -14655,12 +14661,12 @@
       <c r="AI138" s="9"/>
       <c r="AJ138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C139" s="9" t="s">
         <v>52</v>
@@ -14672,33 +14678,37 @@
         <v>62</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H139" s="4"/>
       <c r="K139" s="1"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
+      <c r="M139" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N139" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O139" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R139" s="9"/>
       <c r="S139" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="T139" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U139" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="V139" s="15"/>
       <c r="W139" s="9"/>
@@ -14716,12 +14726,12 @@
       <c r="AI139" s="9"/>
       <c r="AJ139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>52</v>
@@ -14747,23 +14757,23 @@
         <v>57</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="R140" s="9"/>
       <c r="S140" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="T140" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U140" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V140" s="15"/>
       <c r="W140" s="9"/>
@@ -14786,7 +14796,7 @@
         <v>365</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>52</v>
@@ -14804,32 +14814,17 @@
         <v>100</v>
       </c>
       <c r="H141" s="4"/>
-      <c r="K141" s="1"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
       <c r="M141" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N141" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O141" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q141" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="R141" s="9"/>
-      <c r="S141" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T141" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="U141" s="15" t="s">
-        <v>217</v>
-      </c>
+      <c r="T141" s="9"/>
+      <c r="U141" s="15"/>
       <c r="V141" s="15"/>
       <c r="W141" s="9"/>
       <c r="X141" s="9"/>
@@ -14848,10 +14843,10 @@
     </row>
     <row r="142" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C142" s="9" t="s">
         <v>52</v>
@@ -14863,24 +14858,41 @@
         <v>62</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G142" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H142" s="4"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
+      <c r="K142" s="1"/>
       <c r="M142" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N142" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="O142" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="R142" s="9"/>
-      <c r="T142" s="9"/>
-      <c r="U142" s="15"/>
-      <c r="V142" s="15"/>
+      <c r="S142" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T142" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="U142" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="V142" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
@@ -14898,10 +14910,10 @@
     </row>
     <row r="143" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>52</v>
@@ -14916,37 +14928,33 @@
         <v>66</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H143" s="4"/>
       <c r="K143" s="1"/>
-      <c r="M143" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N143" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
       <c r="O143" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R143" s="9"/>
       <c r="S143" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T143" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U143" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V143" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="W143" s="9"/>
       <c r="X143" s="9"/>
@@ -14968,7 +14976,7 @@
         <v>373</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>52</v>
@@ -14983,33 +14991,33 @@
         <v>66</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H144" s="4"/>
       <c r="K144" s="1"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R144" s="9"/>
       <c r="S144" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T144" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U144" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V144" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="W144" s="9"/>
       <c r="X144" s="9"/>
@@ -15026,12 +15034,12 @@
       <c r="AI144" s="9"/>
       <c r="AJ144" s="9"/>
     </row>
-    <row r="145" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C145" s="9" t="s">
         <v>52</v>
@@ -15043,36 +15051,40 @@
         <v>62</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G145" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H145" s="4"/>
       <c r="K145" s="1"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
+      <c r="M145" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N145" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O145" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R145" s="9"/>
       <c r="S145" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="T145" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U145" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="V145" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="W145" s="9"/>
       <c r="X145" s="9"/>
@@ -15089,12 +15101,12 @@
       <c r="AI145" s="9"/>
       <c r="AJ145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>52</v>
@@ -15106,7 +15118,7 @@
         <v>62</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>100</v>
@@ -15120,33 +15132,39 @@
         <v>57</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="R146" s="9"/>
       <c r="S146" s="1" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="T146" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="U146" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="V146" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="W146" s="9"/>
-      <c r="X146" s="9"/>
-      <c r="Y146" s="9"/>
+        <v>221</v>
+      </c>
+      <c r="W146" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="X146" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y146" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
-      <c r="AB146" s="17"/>
+      <c r="AB146" s="9"/>
       <c r="AC146" s="9"/>
       <c r="AD146" s="9"/>
       <c r="AE146" s="9"/>
@@ -15158,10 +15176,10 @@
     </row>
     <row r="147" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C147" s="9" t="s">
         <v>52</v>
@@ -15176,46 +15194,42 @@
         <v>66</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H147" s="4"/>
       <c r="K147" s="1"/>
-      <c r="M147" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N147" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
       <c r="O147" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R147" s="9"/>
       <c r="S147" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T147" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U147" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V147" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="W147" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="X147" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Y147" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
@@ -15234,7 +15248,7 @@
         <v>379</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C148" s="9" t="s">
         <v>52</v>
@@ -15249,42 +15263,42 @@
         <v>66</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H148" s="4"/>
       <c r="K148" s="1"/>
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R148" s="9"/>
       <c r="S148" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T148" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U148" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V148" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="W148" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X148" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y148" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
@@ -15298,12 +15312,12 @@
       <c r="AI148" s="9"/>
       <c r="AJ148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>379</v>
+        <v>236</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>52</v>
@@ -15315,45 +15329,49 @@
         <v>62</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H149" s="4"/>
       <c r="K149" s="1"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
+      <c r="M149" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N149" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="O149" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R149" s="9"/>
       <c r="S149" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="T149" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="U149" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="V149" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="W149" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="X149" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Y149" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
@@ -15367,12 +15385,12 @@
       <c r="AI149" s="9"/>
       <c r="AJ149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C150" s="9" t="s">
         <v>52</v>
@@ -15398,35 +15416,35 @@
         <v>57</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="R150" s="9"/>
       <c r="S150" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="T150" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U150" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="V150" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="W150" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="X150" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y150" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
@@ -15440,12 +15458,12 @@
       <c r="AI150" s="9"/>
       <c r="AJ150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>52</v>
@@ -15463,44 +15481,21 @@
         <v>100</v>
       </c>
       <c r="H151" s="4"/>
-      <c r="K151" s="1"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
       <c r="M151" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N151" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O151" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q151" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="R151" s="9"/>
-      <c r="S151" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T151" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="U151" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="V151" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="W151" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="X151" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y151" s="9" t="s">
-        <v>248</v>
-      </c>
+      <c r="T151" s="9"/>
+      <c r="U151" s="15"/>
+      <c r="V151" s="15"/>
+      <c r="W151" s="9"/>
+      <c r="X151" s="9"/>
+      <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
@@ -15513,12 +15508,12 @@
       <c r="AI151" s="9"/>
       <c r="AJ151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>52</v>
@@ -15530,28 +15525,53 @@
         <v>62</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G152" s="1" t="n">
         <v>100</v>
       </c>
       <c r="H152" s="4"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
+      <c r="K152" s="1"/>
       <c r="M152" s="10" t="s">
         <v>56</v>
       </c>
       <c r="N152" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="O152" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="R152" s="9"/>
-      <c r="T152" s="9"/>
-      <c r="U152" s="15"/>
-      <c r="V152" s="15"/>
-      <c r="W152" s="9"/>
-      <c r="X152" s="9"/>
-      <c r="Y152" s="9"/>
-      <c r="Z152" s="9"/>
+      <c r="S152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T152" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="U152" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="V152" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="W152" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="X152" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y152" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z152" s="13" t="n">
+        <v>124465767887989</v>
+      </c>
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
       <c r="AC152" s="9"/>
@@ -15565,10 +15585,10 @@
     </row>
     <row r="153" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C153" s="9" t="s">
         <v>52</v>
@@ -15583,49 +15603,45 @@
         <v>66</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H153" s="4"/>
       <c r="K153" s="1"/>
-      <c r="M153" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N153" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
       <c r="O153" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q153" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R153" s="9"/>
       <c r="S153" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="T153" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="U153" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V153" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="W153" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="X153" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Y153" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z153" s="13" t="n">
-        <v>124465767887989</v>
+        <v>239</v>
+      </c>
+      <c r="Z153" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
@@ -15637,13 +15653,14 @@
       <c r="AH153" s="17"/>
       <c r="AI153" s="9"/>
       <c r="AJ153" s="9"/>
+      <c r="AP153" s="9"/>
     </row>
     <row r="154" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>52</v>
@@ -15658,45 +15675,45 @@
         <v>66</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H154" s="4"/>
       <c r="K154" s="1"/>
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q154" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R154" s="9"/>
       <c r="S154" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="T154" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U154" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V154" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="W154" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="X154" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Y154" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Z154" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
@@ -15708,70 +15725,51 @@
       <c r="AH154" s="17"/>
       <c r="AI154" s="9"/>
       <c r="AJ154" s="9"/>
-      <c r="AP154" s="9"/>
-    </row>
-    <row r="155" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>252</v>
+    </row>
+    <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="H155" s="4"/>
-      <c r="K155" s="1"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P155" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q155" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R155" s="9"/>
-      <c r="S155" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T155" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="U155" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="V155" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="W155" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="X155" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y155" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z155" s="9" t="s">
-        <v>256</v>
-      </c>
+      <c r="H155" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M155" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N155" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T155" s="9"/>
+      <c r="W155" s="9"/>
+      <c r="X155" s="9"/>
+      <c r="Y155" s="9"/>
+      <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
-      <c r="AB155" s="9"/>
+      <c r="AB155" s="17"/>
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
       <c r="AE155" s="9"/>
@@ -15781,12 +15779,12 @@
       <c r="AI155" s="9"/>
       <c r="AJ155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>52</v>
@@ -15798,7 +15796,7 @@
         <v>55</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>116</v>
@@ -15806,11 +15804,11 @@
       <c r="I156" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J156" s="9" t="s">
-        <v>94</v>
+      <c r="J156" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K156" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M156" s="10" t="s">
         <v>56</v>
@@ -15836,13 +15834,16 @@
     </row>
     <row r="157" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>52</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>62</v>
@@ -15854,7 +15855,7 @@
         <v>101</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>93</v>
@@ -15871,55 +15872,102 @@
       <c r="N157" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T157" s="9"/>
-      <c r="W157" s="9"/>
-      <c r="X157" s="9"/>
-      <c r="Y157" s="9"/>
-      <c r="Z157" s="9"/>
+      <c r="O157" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q157" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="R157" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T157" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U157" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V157" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="W157" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="X157" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y157" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z157" s="9" t="n">
+        <v>1234</v>
+      </c>
       <c r="AA157" s="9"/>
-      <c r="AB157" s="17"/>
+      <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
       <c r="AD157" s="9"/>
       <c r="AE157" s="9"/>
       <c r="AF157" s="9"/>
       <c r="AG157" s="9"/>
-      <c r="AH157" s="17"/>
+      <c r="AH157" s="9"/>
       <c r="AI157" s="9"/>
       <c r="AJ157" s="9"/>
+      <c r="AK157" s="9"/>
+      <c r="AL157" s="9"/>
+      <c r="AM157" s="9"/>
+      <c r="AN157" s="15"/>
+      <c r="AO157" s="16"/>
+      <c r="AP157" s="9"/>
+      <c r="AQ157" s="9"/>
+      <c r="AR157" s="9"/>
+      <c r="AS157" s="9"/>
+      <c r="AT157" s="9"/>
+      <c r="AU157" s="9"/>
+      <c r="AV157" s="16"/>
+      <c r="AW157" s="16"/>
+      <c r="AX157" s="9"/>
+      <c r="AY157" s="9"/>
+      <c r="AZ157" s="9"/>
+      <c r="BA157" s="9"/>
+      <c r="BB157" s="15"/>
+      <c r="BC157" s="9"/>
     </row>
     <row r="158" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>261</v>
+        <v>391</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C158" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E158" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G158" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="I158" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J158" s="14" t="s">
-        <v>98</v>
+      <c r="J158" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K158" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M158" s="10" t="s">
         <v>56</v>
@@ -15927,78 +15975,31 @@
       <c r="N158" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O158" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P158" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q158" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="R158" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S158" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="T158" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="U158" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="V158" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="W158" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="X158" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y158" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z158" s="9" t="n">
-        <v>1234</v>
-      </c>
-      <c r="AA158" s="9"/>
-      <c r="AB158" s="9"/>
+      <c r="W158" s="9"/>
+      <c r="X158" s="9"/>
+      <c r="Y158" s="9"/>
+      <c r="Z158" s="9"/>
+      <c r="AA158" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB158" s="17" t="n">
+        <v>12</v>
+      </c>
       <c r="AC158" s="9"/>
       <c r="AD158" s="9"/>
       <c r="AE158" s="9"/>
       <c r="AF158" s="9"/>
       <c r="AG158" s="9"/>
-      <c r="AH158" s="9"/>
+      <c r="AH158" s="17"/>
       <c r="AI158" s="9"/>
       <c r="AJ158" s="9"/>
-      <c r="AK158" s="9"/>
-      <c r="AL158" s="9"/>
-      <c r="AM158" s="9"/>
-      <c r="AN158" s="15"/>
-      <c r="AO158" s="16"/>
-      <c r="AP158" s="9"/>
-      <c r="AQ158" s="9"/>
-      <c r="AR158" s="9"/>
-      <c r="AS158" s="9"/>
-      <c r="AT158" s="9"/>
-      <c r="AU158" s="9"/>
-      <c r="AV158" s="16"/>
-      <c r="AW158" s="16"/>
-      <c r="AX158" s="9"/>
-      <c r="AY158" s="9"/>
-      <c r="AZ158" s="9"/>
-      <c r="BA158" s="9"/>
-      <c r="BB158" s="15"/>
-      <c r="BC158" s="9"/>
     </row>
     <row r="159" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>52</v>
@@ -16010,7 +16011,7 @@
         <v>55</v>
       </c>
       <c r="G159" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>116</v>
@@ -16018,11 +16019,11 @@
       <c r="I159" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J159" s="9" t="s">
-        <v>94</v>
+      <c r="J159" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K159" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M159" s="10" t="s">
         <v>56</v>
@@ -16051,22 +16052,22 @@
     </row>
     <row r="160" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C160" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>116</v>
@@ -16074,11 +16075,11 @@
       <c r="I160" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J160" s="14" t="s">
-        <v>98</v>
+      <c r="J160" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K160" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M160" s="10" t="s">
         <v>56</v>
@@ -16086,6 +16087,8 @@
       <c r="N160" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="R160" s="9"/>
+      <c r="T160" s="9"/>
       <c r="W160" s="9"/>
       <c r="X160" s="9"/>
       <c r="Y160" s="9"/>
@@ -16094,7 +16097,7 @@
         <v>393</v>
       </c>
       <c r="AB160" s="17" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AC160" s="9"/>
       <c r="AD160" s="9"/>
@@ -16107,10 +16110,10 @@
     </row>
     <row r="161" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>52</v>
@@ -16122,7 +16125,7 @@
         <v>55</v>
       </c>
       <c r="G161" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>116</v>
@@ -16130,11 +16133,11 @@
       <c r="I161" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J161" s="9" t="s">
-        <v>94</v>
+      <c r="J161" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K161" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M161" s="10" t="s">
         <v>56</v>
@@ -16152,7 +16155,7 @@
         <v>393</v>
       </c>
       <c r="AB161" s="17" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -16163,70 +16166,35 @@
       <c r="AI161" s="9"/>
       <c r="AJ161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
-        <v>398</v>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G162" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I162" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J162" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K162" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M162" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N162" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="R162" s="9"/>
-      <c r="T162" s="9"/>
-      <c r="W162" s="9"/>
-      <c r="X162" s="9"/>
-      <c r="Y162" s="9"/>
-      <c r="Z162" s="9"/>
-      <c r="AA162" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB162" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC162" s="9"/>
-      <c r="AD162" s="9"/>
-      <c r="AE162" s="9"/>
-      <c r="AF162" s="9"/>
-      <c r="AG162" s="9"/>
-      <c r="AH162" s="17"/>
-      <c r="AI162" s="9"/>
-      <c r="AJ162" s="9"/>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="163" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>52</v>
@@ -16238,41 +16206,41 @@
         <v>55</v>
       </c>
       <c r="G163" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G164" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>52</v>
@@ -16284,33 +16252,81 @@
         <v>55</v>
       </c>
       <c r="G165" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G166" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>404</v>
+        <v>104</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="I166" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K166" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M166" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N166" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R166" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T166" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U166" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V166" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z166" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA166" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB166" s="17" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16318,13 +16334,13 @@
         <v>407</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
@@ -16386,22 +16402,22 @@
     </row>
     <row r="168" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G168" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H168" s="9" t="s">
         <v>409</v>
@@ -16457,16 +16473,16 @@
     </row>
     <row r="169" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>55</v>
@@ -16526,36 +16542,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>413</v>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G170" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>409</v>
+        <v>100</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I170" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J170" s="14" t="s">
-        <v>98</v>
+      <c r="J170" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K170" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M170" s="10" t="s">
         <v>56</v>
@@ -16563,52 +16579,23 @@
       <c r="N170" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O170" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P170" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q170" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="R170" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S170" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="T170" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="U170" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="V170" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z170" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA170" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB170" s="17" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="AN170" s="1"/>
+      <c r="AO170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>55</v>
@@ -16634,41 +16621,39 @@
       <c r="N171" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="AN171" s="1"/>
-      <c r="AO171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9" t="s">
-        <v>287</v>
+      <c r="R171" s="9"/>
+      <c r="T171" s="9"/>
+    </row>
+    <row r="172" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G172" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="I172" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J172" s="9" t="s">
-        <v>94</v>
+      <c r="J172" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K172" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M172" s="10" t="s">
         <v>56</v>
@@ -16676,21 +16661,67 @@
       <c r="N172" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R172" s="9"/>
-      <c r="T172" s="9"/>
-    </row>
-    <row r="173" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="O172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R172" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T172" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U172" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V172" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z172" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA172" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB172" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD172" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE172" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF172" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG172" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>55</v>
@@ -16753,30 +16784,30 @@
         <v>419</v>
       </c>
       <c r="AD173" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AE173" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AF173" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AG173" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>55</v>
@@ -16851,18 +16882,18 @@
         <v>428</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>55</v>
@@ -16937,36 +16968,36 @@
         <v>428</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>417</v>
+    <row r="176" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G176" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="H176" s="9" t="s">
-        <v>409</v>
+        <v>100</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I176" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J176" s="14" t="s">
-        <v>98</v>
+      <c r="J176" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K176" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M176" s="10" t="s">
         <v>56</v>
@@ -16974,61 +17005,31 @@
       <c r="N176" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O176" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P176" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q176" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="R176" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S176" s="1" t="s">
+      <c r="W176" s="9"/>
+      <c r="X176" s="9"/>
+      <c r="Y176" s="9"/>
+      <c r="Z176" s="9"/>
+      <c r="AA176" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB176" s="17" t="n">
         <v>189</v>
       </c>
-      <c r="T176" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="U176" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="V176" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z176" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA176" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB176" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC176" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE176" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF176" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG176" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC176" s="9"/>
+      <c r="AD176" s="9"/>
+      <c r="AE176" s="9"/>
+      <c r="AF176" s="9"/>
+      <c r="AG176" s="9"/>
+      <c r="AH176" s="17"/>
+      <c r="AI176" s="9"/>
+      <c r="AJ176" s="9"/>
+    </row>
+    <row r="177" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>52</v>
@@ -17040,7 +17041,7 @@
         <v>55</v>
       </c>
       <c r="G177" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>116</v>
@@ -17048,11 +17049,11 @@
       <c r="I177" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J177" s="9" t="s">
-        <v>94</v>
+      <c r="J177" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K177" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M177" s="10" t="s">
         <v>56</v>
@@ -17065,10 +17066,10 @@
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="AB177" s="17" t="n">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="AC177" s="9"/>
       <c r="AD177" s="9"/>
@@ -17079,12 +17080,12 @@
       <c r="AI177" s="9"/>
       <c r="AJ177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
         <v>433</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>52</v>
@@ -17120,11 +17121,9 @@
       <c r="X178" s="9"/>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
-      <c r="AA178" s="9" t="s">
-        <v>404</v>
-      </c>
+      <c r="AA178" s="9"/>
       <c r="AB178" s="17" t="n">
-        <v>129</v>
+        <v>900</v>
       </c>
       <c r="AC178" s="9"/>
       <c r="AD178" s="9"/>
@@ -17135,24 +17134,24 @@
       <c r="AI178" s="9"/>
       <c r="AJ178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G179" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>116</v>
@@ -17160,11 +17159,11 @@
       <c r="I179" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J179" s="14" t="s">
-        <v>98</v>
+      <c r="J179" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K179" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M179" s="10" t="s">
         <v>56</v>
@@ -17172,13 +17171,17 @@
       <c r="N179" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="R179" s="9"/>
+      <c r="T179" s="9"/>
       <c r="W179" s="9"/>
       <c r="X179" s="9"/>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
-      <c r="AA179" s="9"/>
+      <c r="AA179" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="AB179" s="17" t="n">
-        <v>900</v>
+        <v>555</v>
       </c>
       <c r="AC179" s="9"/>
       <c r="AD179" s="9"/>
@@ -17189,12 +17192,12 @@
       <c r="AI179" s="9"/>
       <c r="AJ179" s="9"/>
     </row>
-    <row r="180" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>52</v>
@@ -17206,7 +17209,7 @@
         <v>55</v>
       </c>
       <c r="G180" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>116</v>
@@ -17214,11 +17217,11 @@
       <c r="I180" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J180" s="9" t="s">
-        <v>94</v>
+      <c r="J180" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K180" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M180" s="10" t="s">
         <v>56</v>
@@ -17233,10 +17236,10 @@
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="AB180" s="17" t="n">
-        <v>555</v>
+        <v>345</v>
       </c>
       <c r="AC180" s="9"/>
       <c r="AD180" s="9"/>
@@ -17247,12 +17250,12 @@
       <c r="AI180" s="9"/>
       <c r="AJ180" s="9"/>
     </row>
-    <row r="181" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
         <v>398</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>52</v>
@@ -17290,11 +17293,9 @@
       <c r="X181" s="9"/>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
-      <c r="AA181" s="9" t="s">
-        <v>404</v>
-      </c>
+      <c r="AA181" s="9"/>
       <c r="AB181" s="17" t="n">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AC181" s="9"/>
       <c r="AD181" s="9"/>
@@ -17305,24 +17306,24 @@
       <c r="AI181" s="9"/>
       <c r="AJ181" s="9"/>
     </row>
-    <row r="182" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9" t="s">
-        <v>398</v>
+    <row r="182" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G182" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>116</v>
@@ -17330,11 +17331,11 @@
       <c r="I182" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J182" s="14" t="s">
-        <v>98</v>
+      <c r="J182" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K182" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M182" s="10" t="s">
         <v>56</v>
@@ -17342,15 +17343,15 @@
       <c r="N182" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R182" s="9"/>
-      <c r="T182" s="9"/>
       <c r="W182" s="9"/>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
-      <c r="AA182" s="9"/>
+      <c r="AA182" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="AB182" s="17" t="n">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="AC182" s="9"/>
       <c r="AD182" s="9"/>
@@ -17360,13 +17361,14 @@
       <c r="AH182" s="17"/>
       <c r="AI182" s="9"/>
       <c r="AJ182" s="9"/>
-    </row>
-    <row r="183" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AK182" s="18"/>
+    </row>
+    <row r="183" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>52</v>
@@ -17378,7 +17380,7 @@
         <v>55</v>
       </c>
       <c r="G183" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>116</v>
@@ -17386,11 +17388,11 @@
       <c r="I183" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J183" s="9" t="s">
-        <v>94</v>
+      <c r="J183" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K183" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M183" s="10" t="s">
         <v>56</v>
@@ -17403,27 +17405,32 @@
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="AB183" s="17" t="n">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="AC183" s="9"/>
       <c r="AD183" s="9"/>
       <c r="AE183" s="9"/>
       <c r="AF183" s="9"/>
       <c r="AG183" s="9"/>
-      <c r="AH183" s="17"/>
-      <c r="AI183" s="9"/>
-      <c r="AJ183" s="9"/>
-      <c r="AK183" s="18"/>
-    </row>
-    <row r="184" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH183" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI183" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ183" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>52</v>
@@ -17459,11 +17466,9 @@
       <c r="X184" s="9"/>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
-      <c r="AA184" s="9" t="s">
-        <v>404</v>
-      </c>
+      <c r="AA184" s="9"/>
       <c r="AB184" s="17" t="n">
-        <v>129</v>
+        <v>900</v>
       </c>
       <c r="AC184" s="9"/>
       <c r="AD184" s="9"/>
@@ -17471,21 +17476,21 @@
       <c r="AF184" s="9"/>
       <c r="AG184" s="9"/>
       <c r="AH184" s="17" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="AI184" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ184" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+      <c r="AJ184" s="17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>52</v>
@@ -17521,43 +17526,45 @@
       <c r="X185" s="9"/>
       <c r="Y185" s="9"/>
       <c r="Z185" s="9"/>
-      <c r="AA185" s="9"/>
+      <c r="AA185" s="9" t="s">
+        <v>393</v>
+      </c>
       <c r="AB185" s="17" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="AC185" s="9"/>
       <c r="AD185" s="9"/>
       <c r="AE185" s="9"/>
       <c r="AF185" s="9"/>
       <c r="AG185" s="9"/>
-      <c r="AH185" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="AI185" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ185" s="17" t="s">
-        <v>404</v>
+      <c r="AH185" s="17" t="n">
+        <v>12345</v>
+      </c>
+      <c r="AI185" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ185" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G186" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>116</v>
@@ -17565,11 +17572,11 @@
       <c r="I186" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J186" s="14" t="s">
-        <v>98</v>
+      <c r="J186" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K186" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M186" s="10" t="s">
         <v>56</v>
@@ -17577,6 +17584,8 @@
       <c r="N186" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="R186" s="9"/>
+      <c r="T186" s="9"/>
       <c r="W186" s="9"/>
       <c r="X186" s="9"/>
       <c r="Y186" s="9"/>
@@ -17585,29 +17594,23 @@
         <v>393</v>
       </c>
       <c r="AB186" s="17" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AC186" s="9"/>
       <c r="AD186" s="9"/>
       <c r="AE186" s="9"/>
       <c r="AF186" s="9"/>
       <c r="AG186" s="9"/>
-      <c r="AH186" s="17" t="n">
-        <v>12345</v>
-      </c>
-      <c r="AI186" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="AJ186" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH186" s="17"/>
+      <c r="AI186" s="9"/>
+      <c r="AJ186" s="9"/>
+    </row>
+    <row r="187" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>52</v>
@@ -17646,26 +17649,32 @@
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="AB187" s="17" t="n">
-        <v>55</v>
+        <v>555</v>
       </c>
       <c r="AC187" s="9"/>
       <c r="AD187" s="9"/>
       <c r="AE187" s="9"/>
       <c r="AF187" s="9"/>
       <c r="AG187" s="9"/>
-      <c r="AH187" s="17"/>
-      <c r="AI187" s="9"/>
-      <c r="AJ187" s="9"/>
-    </row>
-    <row r="188" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH187" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI187" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="AJ187" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>52</v>
@@ -17677,7 +17686,7 @@
         <v>55</v>
       </c>
       <c r="G188" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>116</v>
@@ -17685,11 +17694,11 @@
       <c r="I188" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J188" s="9" t="s">
-        <v>94</v>
+      <c r="J188" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="K188" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M188" s="10" t="s">
         <v>56</v>
@@ -17704,10 +17713,10 @@
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="AB188" s="17" t="n">
-        <v>555</v>
+        <v>345</v>
       </c>
       <c r="AC188" s="9"/>
       <c r="AD188" s="9"/>
@@ -17715,21 +17724,21 @@
       <c r="AF188" s="9"/>
       <c r="AG188" s="9"/>
       <c r="AH188" s="17" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="AI188" s="17" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="AJ188" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>52</v>
@@ -17767,45 +17776,43 @@
       <c r="X189" s="9"/>
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
-      <c r="AA189" s="9" t="s">
-        <v>404</v>
-      </c>
+      <c r="AA189" s="9"/>
       <c r="AB189" s="17" t="n">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AC189" s="9"/>
       <c r="AD189" s="9"/>
       <c r="AE189" s="9"/>
       <c r="AF189" s="9"/>
       <c r="AG189" s="9"/>
-      <c r="AH189" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="AI189" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ189" s="17" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH189" s="17" t="n">
+        <v>12345</v>
+      </c>
+      <c r="AI189" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="AJ189" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G190" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>116</v>
@@ -17813,11 +17820,11 @@
       <c r="I190" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J190" s="14" t="s">
-        <v>98</v>
+      <c r="J190" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="K190" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M190" s="10" t="s">
         <v>56</v>
@@ -17825,15 +17832,15 @@
       <c r="N190" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R190" s="9"/>
-      <c r="T190" s="9"/>
       <c r="W190" s="9"/>
       <c r="X190" s="9"/>
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
-      <c r="AA190" s="9"/>
+      <c r="AA190" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="AB190" s="17" t="n">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="AC190" s="9"/>
       <c r="AD190" s="9"/>
@@ -17841,27 +17848,28 @@
       <c r="AF190" s="9"/>
       <c r="AG190" s="9"/>
       <c r="AH190" s="17" t="n">
-        <v>12345</v>
+        <v>12346</v>
       </c>
       <c r="AI190" s="19" t="s">
         <v>448</v>
       </c>
       <c r="AJ190" s="9" t="s">
-        <v>449</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="AK190" s="18"/>
     </row>
     <row r="191" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
@@ -17903,7 +17911,7 @@
       <c r="AF191" s="9"/>
       <c r="AG191" s="9"/>
       <c r="AH191" s="17" t="n">
-        <v>12346</v>
+        <v>12347</v>
       </c>
       <c r="AI191" s="19" t="s">
         <v>448</v>
@@ -17915,16 +17923,16 @@
     </row>
     <row r="192" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
@@ -17966,7 +17974,7 @@
       <c r="AF192" s="9"/>
       <c r="AG192" s="9"/>
       <c r="AH192" s="17" t="n">
-        <v>12347</v>
+        <v>12346</v>
       </c>
       <c r="AI192" s="19" t="s">
         <v>448</v>
@@ -17975,19 +17983,25 @@
         <v>456</v>
       </c>
       <c r="AK192" s="18"/>
+      <c r="AM192" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AO192" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
@@ -18029,7 +18043,7 @@
       <c r="AF193" s="9"/>
       <c r="AG193" s="9"/>
       <c r="AH193" s="17" t="n">
-        <v>12346</v>
+        <v>12347</v>
       </c>
       <c r="AI193" s="19" t="s">
         <v>448</v>
@@ -18047,16 +18061,16 @@
     </row>
     <row r="194" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -18110,6 +18124,9 @@
       <c r="AM194" s="1" t="s">
         <v>460</v>
       </c>
+      <c r="AN194" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="AO194" s="3" t="s">
         <v>461</v>
       </c>
@@ -18119,7 +18136,7 @@
         <v>463</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>52</v>
@@ -18191,13 +18208,13 @@
         <v>463</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
@@ -18252,7 +18269,7 @@
         <v>460</v>
       </c>
       <c r="AN196" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AO196" s="3" t="s">
         <v>461</v>
@@ -18263,7 +18280,7 @@
         <v>463</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>52</v>
@@ -18324,7 +18341,7 @@
         <v>460</v>
       </c>
       <c r="AN197" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO197" s="3" t="s">
         <v>461</v>
@@ -18335,7 +18352,7 @@
         <v>463</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>52</v>
@@ -18395,9 +18412,6 @@
       <c r="AM198" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="AN198" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="AO198" s="3" t="s">
         <v>461</v>
       </c>
@@ -18407,13 +18421,13 @@
         <v>463</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
@@ -18467,19 +18481,19 @@
       <c r="AM199" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="AO199" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>463</v>
+    </row>
+    <row r="200" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>52</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>54</v>
@@ -18488,10 +18502,10 @@
         <v>55</v>
       </c>
       <c r="G200" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="I200" s="9" t="s">
         <v>93</v>
@@ -18500,7 +18514,7 @@
         <v>94</v>
       </c>
       <c r="K200" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M200" s="10" t="s">
         <v>56</v>
@@ -18508,41 +18522,129 @@
       <c r="N200" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="W200" s="9"/>
-      <c r="X200" s="9"/>
-      <c r="Y200" s="9"/>
-      <c r="Z200" s="9"/>
+      <c r="O200" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q200" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="R200" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T200" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U200" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="V200" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="W200" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="X200" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y200" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z200" s="9" t="n">
+        <v>1234</v>
+      </c>
       <c r="AA200" s="9" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="AB200" s="17" t="n">
-        <v>189</v>
-      </c>
-      <c r="AC200" s="9"/>
-      <c r="AD200" s="9"/>
-      <c r="AE200" s="9"/>
-      <c r="AF200" s="9"/>
-      <c r="AG200" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="AC200" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD200" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE200" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF200" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG200" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="AH200" s="17" t="n">
-        <v>12347</v>
+        <v>12345</v>
       </c>
       <c r="AI200" s="19" t="s">
         <v>448</v>
       </c>
       <c r="AJ200" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="AK200" s="18"/>
+        <v>449</v>
+      </c>
+      <c r="AL200" s="9"/>
       <c r="AM200" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="201" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN200" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AO200" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP200" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AQ200" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AR200" s="9"/>
+      <c r="AS200" s="9"/>
+      <c r="AT200" s="9"/>
+      <c r="AU200" s="9"/>
+      <c r="AV200" s="16"/>
+      <c r="AW200" s="16"/>
+      <c r="AX200" s="9"/>
+      <c r="AY200" s="9"/>
+      <c r="AZ200" s="9"/>
+      <c r="BA200" s="9"/>
+      <c r="BB200" s="15"/>
+      <c r="BC200" s="9"/>
+      <c r="BD200" s="9"/>
+      <c r="BE200" s="9"/>
+      <c r="BF200" s="9"/>
+      <c r="BG200" s="9"/>
+      <c r="BH200" s="9"/>
+      <c r="BI200" s="9"/>
+      <c r="BJ200" s="9"/>
+      <c r="BK200" s="9"/>
+      <c r="BL200" s="9"/>
+      <c r="BM200" s="9"/>
+      <c r="BN200" s="9"/>
+      <c r="BO200" s="9"/>
+      <c r="BP200" s="9"/>
+      <c r="BQ200" s="9"/>
+      <c r="BR200" s="9"/>
+      <c r="BS200" s="9"/>
+      <c r="BT200" s="9"/>
+      <c r="BU200" s="9"/>
+      <c r="BV200" s="9"/>
+      <c r="BW200" s="9"/>
+      <c r="BX200" s="9"/>
+      <c r="BY200" s="9"/>
+    </row>
+    <row r="201" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="s">
         <v>261</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>52</v>
@@ -18551,7 +18653,7 @@
         <v>53</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
@@ -18617,22 +18719,22 @@
         <v>393</v>
       </c>
       <c r="AB201" s="17" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC201" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD201" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AE201" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AF201" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AG201" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AH201" s="17" t="n">
         <v>12345</v>
@@ -18648,13 +18750,13 @@
         <v>460</v>
       </c>
       <c r="AN201" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO201" s="3" t="s">
         <v>461</v>
       </c>
       <c r="AP201" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AQ201" s="1" t="s">
         <v>478</v>
@@ -18666,40 +18768,13 @@
       <c r="AV201" s="16"/>
       <c r="AW201" s="16"/>
       <c r="AX201" s="9"/>
-      <c r="AY201" s="9"/>
-      <c r="AZ201" s="9"/>
-      <c r="BA201" s="9"/>
-      <c r="BB201" s="15"/>
-      <c r="BC201" s="9"/>
-      <c r="BD201" s="9"/>
-      <c r="BE201" s="9"/>
-      <c r="BF201" s="9"/>
-      <c r="BG201" s="9"/>
-      <c r="BH201" s="9"/>
-      <c r="BI201" s="9"/>
-      <c r="BJ201" s="9"/>
-      <c r="BK201" s="9"/>
-      <c r="BL201" s="9"/>
-      <c r="BM201" s="9"/>
-      <c r="BN201" s="9"/>
-      <c r="BO201" s="9"/>
-      <c r="BP201" s="9"/>
-      <c r="BQ201" s="9"/>
-      <c r="BR201" s="9"/>
-      <c r="BS201" s="9"/>
-      <c r="BT201" s="9"/>
-      <c r="BU201" s="9"/>
-      <c r="BV201" s="9"/>
-      <c r="BW201" s="9"/>
-      <c r="BX201" s="9"/>
-      <c r="BY201" s="9"/>
-    </row>
-    <row r="202" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="202" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
-        <v>261</v>
+        <v>481</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>52</v>
@@ -18708,7 +18783,7 @@
         <v>53</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -18774,22 +18849,22 @@
         <v>393</v>
       </c>
       <c r="AB202" s="17" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC202" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD202" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AE202" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AF202" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AG202" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AH202" s="17" t="n">
         <v>12345</v>
@@ -18805,31 +18880,72 @@
         <v>460</v>
       </c>
       <c r="AN202" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AO202" s="3" t="s">
         <v>461</v>
       </c>
       <c r="AP202" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AQ202" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AR202" s="9"/>
-      <c r="AS202" s="9"/>
-      <c r="AT202" s="9"/>
-      <c r="AU202" s="9"/>
-      <c r="AV202" s="16"/>
-      <c r="AW202" s="16"/>
-      <c r="AX202" s="9"/>
-    </row>
-    <row r="203" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AR202" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS202" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="AT202" s="9" t="n">
+        <v>7898760</v>
+      </c>
+      <c r="AU202" s="9" t="n">
+        <v>23456</v>
+      </c>
+      <c r="AV202" s="16" t="n">
+        <v>67893</v>
+      </c>
+      <c r="AW202" s="16" t="n">
+        <v>89000</v>
+      </c>
+      <c r="AX202" s="9" t="n">
+        <v>99909</v>
+      </c>
+      <c r="AY202" s="9"/>
+      <c r="AZ202" s="9"/>
+      <c r="BA202" s="9"/>
+      <c r="BB202" s="15"/>
+      <c r="BC202" s="9"/>
+      <c r="BD202" s="9"/>
+      <c r="BE202" s="9"/>
+      <c r="BF202" s="9"/>
+      <c r="BG202" s="9"/>
+      <c r="BH202" s="9"/>
+      <c r="BI202" s="9"/>
+      <c r="BJ202" s="9"/>
+      <c r="BK202" s="9"/>
+      <c r="BL202" s="9"/>
+      <c r="BM202" s="9"/>
+      <c r="BN202" s="9"/>
+      <c r="BO202" s="9"/>
+      <c r="BP202" s="9"/>
+      <c r="BQ202" s="9"/>
+      <c r="BR202" s="9"/>
+      <c r="BS202" s="9"/>
+      <c r="BT202" s="9"/>
+      <c r="BU202" s="9"/>
+      <c r="BV202" s="9"/>
+      <c r="BW202" s="9"/>
+      <c r="BX202" s="9"/>
+      <c r="BY202" s="9"/>
+    </row>
+    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>52</v>
@@ -18838,7 +18954,7 @@
         <v>53</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>55</v>
@@ -18904,22 +19020,22 @@
         <v>393</v>
       </c>
       <c r="AB203" s="17" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC203" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD203" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AE203" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AF203" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AH203" s="17" t="n">
         <v>12345</v>
@@ -18935,72 +19051,45 @@
         <v>460</v>
       </c>
       <c r="AN203" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO203" s="3" t="s">
         <v>461</v>
       </c>
       <c r="AP203" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AQ203" s="1" t="s">
         <v>478</v>
       </c>
       <c r="AR203" s="9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AS203" s="9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AT203" s="9" t="n">
-        <v>7898760</v>
+        <v>8976432</v>
       </c>
       <c r="AU203" s="9" t="n">
-        <v>23456</v>
+        <v>23457</v>
       </c>
       <c r="AV203" s="16" t="n">
-        <v>67893</v>
+        <v>67894</v>
       </c>
       <c r="AW203" s="16" t="n">
-        <v>89000</v>
+        <v>89001</v>
       </c>
       <c r="AX203" s="9" t="n">
-        <v>99909</v>
-      </c>
-      <c r="AY203" s="9"/>
-      <c r="AZ203" s="9"/>
-      <c r="BA203" s="9"/>
-      <c r="BB203" s="15"/>
-      <c r="BC203" s="9"/>
-      <c r="BD203" s="9"/>
-      <c r="BE203" s="9"/>
-      <c r="BF203" s="9"/>
-      <c r="BG203" s="9"/>
-      <c r="BH203" s="9"/>
-      <c r="BI203" s="9"/>
-      <c r="BJ203" s="9"/>
-      <c r="BK203" s="9"/>
-      <c r="BL203" s="9"/>
-      <c r="BM203" s="9"/>
-      <c r="BN203" s="9"/>
-      <c r="BO203" s="9"/>
-      <c r="BP203" s="9"/>
-      <c r="BQ203" s="9"/>
-      <c r="BR203" s="9"/>
-      <c r="BS203" s="9"/>
-      <c r="BT203" s="9"/>
-      <c r="BU203" s="9"/>
-      <c r="BV203" s="9"/>
-      <c r="BW203" s="9"/>
-      <c r="BX203" s="9"/>
-      <c r="BY203" s="9"/>
-    </row>
-    <row r="204" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99910</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>52</v>
@@ -19009,7 +19098,7 @@
         <v>53</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>55</v>
@@ -19075,22 +19164,22 @@
         <v>393</v>
       </c>
       <c r="AB204" s="17" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC204" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD204" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AE204" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AF204" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AH204" s="17" t="n">
         <v>12345</v>
@@ -19106,45 +19195,24 @@
         <v>460</v>
       </c>
       <c r="AN204" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AO204" s="3" t="s">
         <v>461</v>
       </c>
       <c r="AP204" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AQ204" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="AR204" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="AS204" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="AT204" s="9" t="n">
-        <v>8976432</v>
-      </c>
-      <c r="AU204" s="9" t="n">
-        <v>23457</v>
-      </c>
-      <c r="AV204" s="16" t="n">
-        <v>67894</v>
-      </c>
-      <c r="AW204" s="16" t="n">
-        <v>89001</v>
-      </c>
-      <c r="AX204" s="9" t="n">
-        <v>99910</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="205" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>52</v>
@@ -19259,15 +19327,15 @@
         <v>477</v>
       </c>
       <c r="AQ205" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>52</v>
@@ -19382,7 +19450,7 @@
         <v>477</v>
       </c>
       <c r="AQ206" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19390,7 +19458,7 @@
         <v>481</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>52</v>
@@ -19504,16 +19572,13 @@
       <c r="AP207" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="AQ207" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="208" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>52</v>
@@ -19522,7 +19587,7 @@
         <v>53</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
@@ -19588,22 +19653,22 @@
         <v>393</v>
       </c>
       <c r="AB208" s="17" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AC208" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD208" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AE208" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AF208" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AH208" s="17" t="n">
         <v>12345</v>
@@ -19619,21 +19684,26 @@
         <v>460</v>
       </c>
       <c r="AN208" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO208" s="3" t="s">
         <v>461</v>
       </c>
       <c r="AP208" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+      <c r="AQ208" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AR208" s="9"/>
+      <c r="AS208" s="9"/>
+    </row>
+    <row r="209" customFormat="false" ht="231" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>52</v>
@@ -19748,17 +19818,17 @@
         <v>480</v>
       </c>
       <c r="AQ209" s="1" t="s">
-        <v>493</v>
+        <v>70</v>
       </c>
       <c r="AR209" s="9"/>
       <c r="AS209" s="9"/>
     </row>
-    <row r="210" customFormat="false" ht="231" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>52</v>
@@ -19873,7 +19943,7 @@
         <v>480</v>
       </c>
       <c r="AQ210" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AR210" s="9"/>
       <c r="AS210" s="9"/>
@@ -19883,7 +19953,7 @@
         <v>481</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>52</v>
@@ -19997,134 +20067,10 @@
       <c r="AP211" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AQ211" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AR211" s="9"/>
       <c r="AS211" s="9"/>
     </row>
-    <row r="212" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G212" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I212" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J212" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K212" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M212" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N212" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O212" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P212" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q212" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="R212" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S212" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="T212" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="U212" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="V212" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="W212" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="X212" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y212" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z212" s="9" t="n">
-        <v>1234</v>
-      </c>
-      <c r="AA212" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB212" s="17" t="n">
-        <v>191</v>
-      </c>
-      <c r="AC212" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE212" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF212" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AG212" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AH212" s="17" t="n">
-        <v>12345</v>
-      </c>
-      <c r="AI212" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="AJ212" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL212" s="9"/>
-      <c r="AM212" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AN212" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AO212" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="AP212" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AR212" s="9"/>
-      <c r="AS212" s="9"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I10" r:id="rId1" display="kimtaehyung@gmail.com"/>
@@ -20148,81 +20094,81 @@
     <hyperlink ref="T78" r:id="rId19" display="www.bts.com"/>
     <hyperlink ref="T79" r:id="rId20" display="WWW.bts.com"/>
     <hyperlink ref="I84" r:id="rId21" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I90" r:id="rId22" display="kimtaehyung@gmail.com"/>
-    <hyperlink ref="I94" r:id="rId23" display="1234567890@gmail.com"/>
-    <hyperlink ref="I95" r:id="rId24" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I96" r:id="rId25" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I97" r:id="rId26" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I98" r:id="rId27" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I99" r:id="rId28" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I100" r:id="rId29" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I104" r:id="rId30" display="taehyung@gmail.com"/>
-    <hyperlink ref="I105" r:id="rId31" display="taehyung@gmail.com"/>
-    <hyperlink ref="I107" r:id="rId32" display="taehyung@gmail.com"/>
-    <hyperlink ref="I108" r:id="rId33" display="kimsokjin@gmail.com"/>
-    <hyperlink ref="T131" r:id="rId34" display="www.bts.com"/>
-    <hyperlink ref="T132" r:id="rId35" display="WWW.bts.com"/>
-    <hyperlink ref="T137" r:id="rId36" display="www.bts.com"/>
-    <hyperlink ref="T138" r:id="rId37" display="WWW.bts.com"/>
-    <hyperlink ref="T143" r:id="rId38" display="www.bts.com"/>
-    <hyperlink ref="T144" r:id="rId39" display="WWW.bts.com"/>
-    <hyperlink ref="T147" r:id="rId40" display="www.bts.com"/>
-    <hyperlink ref="T148" r:id="rId41" display="WWW.bts.com"/>
-    <hyperlink ref="T153" r:id="rId42" display="www.bts.com"/>
-    <hyperlink ref="T154" r:id="rId43" display="WWW.bts.com"/>
-    <hyperlink ref="I156" r:id="rId44" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I157" r:id="rId45" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I158" r:id="rId46" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I159" r:id="rId47" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I160" r:id="rId48" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I161" r:id="rId49" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I162" r:id="rId50" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I167" r:id="rId51" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I168" r:id="rId52" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I169" r:id="rId53" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I170" r:id="rId54" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I171" r:id="rId55" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I172" r:id="rId56" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I173" r:id="rId57" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I174" r:id="rId58" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I175" r:id="rId59" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I176" r:id="rId60" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I177" r:id="rId61" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I178" r:id="rId62" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I179" r:id="rId63" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I180" r:id="rId64" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I181" r:id="rId65" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I182" r:id="rId66" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I183" r:id="rId67" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I184" r:id="rId68" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I185" r:id="rId69" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I186" r:id="rId70" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I187" r:id="rId71" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I188" r:id="rId72" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I189" r:id="rId73" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I190" r:id="rId74" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I191" r:id="rId75" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I192" r:id="rId76" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I193" r:id="rId77" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I194" r:id="rId78" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I195" r:id="rId79" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I196" r:id="rId80" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I197" r:id="rId81" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I198" r:id="rId82" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I199" r:id="rId83" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I200" r:id="rId84" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I201" r:id="rId85" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I202" r:id="rId86" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I203" r:id="rId87" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I204" r:id="rId88" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I205" r:id="rId89" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I206" r:id="rId90" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I207" r:id="rId91" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I208" r:id="rId92" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I209" r:id="rId93" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I210" r:id="rId94" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I211" r:id="rId95" display="parkjimin@gmail.com"/>
-    <hyperlink ref="I212" r:id="rId96" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I89" r:id="rId22" display="kimtaehyung@gmail.com"/>
+    <hyperlink ref="I93" r:id="rId23" display="1234567890@gmail.com"/>
+    <hyperlink ref="I94" r:id="rId24" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I95" r:id="rId25" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I96" r:id="rId26" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I97" r:id="rId27" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I98" r:id="rId28" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I99" r:id="rId29" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I103" r:id="rId30" display="taehyung@gmail.com"/>
+    <hyperlink ref="I104" r:id="rId31" display="taehyung@gmail.com"/>
+    <hyperlink ref="I106" r:id="rId32" display="taehyung@gmail.com"/>
+    <hyperlink ref="I107" r:id="rId33" display="kimsokjin@gmail.com"/>
+    <hyperlink ref="T130" r:id="rId34" display="www.bts.com"/>
+    <hyperlink ref="T131" r:id="rId35" display="WWW.bts.com"/>
+    <hyperlink ref="T136" r:id="rId36" display="www.bts.com"/>
+    <hyperlink ref="T137" r:id="rId37" display="WWW.bts.com"/>
+    <hyperlink ref="T142" r:id="rId38" display="www.bts.com"/>
+    <hyperlink ref="T143" r:id="rId39" display="WWW.bts.com"/>
+    <hyperlink ref="T146" r:id="rId40" display="www.bts.com"/>
+    <hyperlink ref="T147" r:id="rId41" display="WWW.bts.com"/>
+    <hyperlink ref="T152" r:id="rId42" display="www.bts.com"/>
+    <hyperlink ref="T153" r:id="rId43" display="WWW.bts.com"/>
+    <hyperlink ref="I155" r:id="rId44" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I156" r:id="rId45" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I157" r:id="rId46" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I158" r:id="rId47" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I159" r:id="rId48" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I160" r:id="rId49" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I161" r:id="rId50" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I166" r:id="rId51" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I167" r:id="rId52" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I168" r:id="rId53" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I169" r:id="rId54" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I170" r:id="rId55" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I171" r:id="rId56" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I172" r:id="rId57" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I173" r:id="rId58" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I174" r:id="rId59" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I175" r:id="rId60" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I176" r:id="rId61" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I177" r:id="rId62" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I178" r:id="rId63" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I179" r:id="rId64" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I180" r:id="rId65" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I181" r:id="rId66" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I182" r:id="rId67" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I183" r:id="rId68" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I184" r:id="rId69" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I185" r:id="rId70" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I186" r:id="rId71" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I187" r:id="rId72" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I188" r:id="rId73" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I189" r:id="rId74" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I190" r:id="rId75" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I191" r:id="rId76" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I192" r:id="rId77" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I193" r:id="rId78" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I194" r:id="rId79" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I195" r:id="rId80" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I196" r:id="rId81" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I197" r:id="rId82" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I198" r:id="rId83" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I199" r:id="rId84" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I200" r:id="rId85" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I201" r:id="rId86" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I202" r:id="rId87" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I203" r:id="rId88" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I204" r:id="rId89" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I205" r:id="rId90" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I206" r:id="rId91" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I207" r:id="rId92" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I208" r:id="rId93" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I209" r:id="rId94" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I210" r:id="rId95" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I211" r:id="rId96" display="parkjimin@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -20241,12 +20187,12 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
-      <selection pane="bottomRight" activeCell="M7" activeCellId="1" sqref="AX203:AX204 M7"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20455,7 +20401,7 @@
         <v>533</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>535</v>
@@ -20681,7 +20627,7 @@
         <v>551</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -20813,7 +20759,7 @@
   <dimension ref="A4:G50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="1" sqref="AX203:AX204 A50"/>
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20946,43 +20892,43 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>578</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>578</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>578</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>578</v>
@@ -20996,32 +20942,32 @@
         <v>578</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="38" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="40" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="41" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21029,7 +20975,7 @@
         <v>197198</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3038" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="593">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="594">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1473,6 +1473,9 @@
     <t xml:space="preserve">TestCase_199</t>
   </si>
   <si>
+    <t xml:space="preserve">www.discovery.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Business Transaction</t>
   </si>
   <si>
@@ -1482,6 +1485,9 @@
     <t xml:space="preserve">TestCase_200</t>
   </si>
   <si>
+    <t xml:space="preserve">www.greenearth.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Operating Account</t>
   </si>
   <si>
@@ -1617,100 +1623,100 @@
     <t xml:space="preserve">11.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiautomator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation-1-0-22-8-3-2022.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPadPro3rdGen_iOS_15.3.0_b7060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad_iOS_13.7.0_c08f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad8thGen_iOS_14.4.2_d5dd0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uiautomator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation-1-0-22-8-3-2022.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://device.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_11.0.0_383e3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPadPro3rdGen_iOS_15.3.0_b7060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad_iOS_13.7.0_c08f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad8thGen_iOS_14.4.2_d5dd0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM02_Android_11.0.0_51323</t>
@@ -1918,9 +1924,6 @@
   <si>
     <t xml:space="preserve">e2e testdata</t>
   </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-08-03-2022-16:32.apk</t>
-  </si>
 </sst>
 </file>
 
@@ -1935,7 +1938,7 @@
     <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2017,6 +2020,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2128,7 +2137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2253,19 +2262,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2289,11 +2302,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2376,62 +2389,62 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H163" activeCellId="0" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18825,7 +18838,7 @@
         <v>189</v>
       </c>
       <c r="T202" s="9" t="s">
-        <v>195</v>
+        <v>483</v>
       </c>
       <c r="U202" s="2" t="s">
         <v>473</v>
@@ -18849,7 +18862,7 @@
         <v>393</v>
       </c>
       <c r="AB202" s="17" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AC202" s="1" t="s">
         <v>419</v>
@@ -18892,10 +18905,10 @@
         <v>478</v>
       </c>
       <c r="AR202" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AS202" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AT202" s="9" t="n">
         <v>7898760</v>
@@ -18945,7 +18958,7 @@
         <v>481</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>52</v>
@@ -18996,7 +19009,7 @@
         <v>189</v>
       </c>
       <c r="T203" s="9" t="s">
-        <v>195</v>
+        <v>487</v>
       </c>
       <c r="U203" s="2" t="s">
         <v>473</v>
@@ -19020,7 +19033,7 @@
         <v>393</v>
       </c>
       <c r="AB203" s="17" t="n">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AC203" s="1" t="s">
         <v>419</v>
@@ -19063,10 +19076,10 @@
         <v>478</v>
       </c>
       <c r="AR203" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AS203" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AT203" s="9" t="n">
         <v>8976432</v>
@@ -19089,7 +19102,7 @@
         <v>481</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>52</v>
@@ -19212,7 +19225,7 @@
         <v>481</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>52</v>
@@ -19335,7 +19348,7 @@
         <v>481</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>52</v>
@@ -19458,7 +19471,7 @@
         <v>481</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>52</v>
@@ -19578,7 +19591,7 @@
         <v>481</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>52</v>
@@ -19693,7 +19706,7 @@
         <v>480</v>
       </c>
       <c r="AQ208" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AR208" s="9"/>
       <c r="AS208" s="9"/>
@@ -19703,7 +19716,7 @@
         <v>481</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>52</v>
@@ -19828,7 +19841,7 @@
         <v>481</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>52</v>
@@ -19953,7 +19966,7 @@
         <v>481</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>52</v>
@@ -20187,32 +20200,32 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20223,97 +20236,90 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>518</v>
+      </c>
       <c r="G2" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="H2"/>
+        <v>519</v>
+      </c>
       <c r="I2" s="23" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>521</v>
+      </c>
       <c r="N2" s="25" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="P2"/>
+        <v>523</v>
+      </c>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="S2" s="24" t="n">
         <v>0</v>
@@ -20321,405 +20327,366 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="S3" s="28" t="b">
+        <v>524</v>
+      </c>
+      <c r="S3" s="28" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="U3" s="29"/>
     </row>
-    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="P4"/>
+        <v>523</v>
+      </c>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="S4" s="34" t="b">
+        <v>539</v>
+      </c>
+      <c r="S4" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>528</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>529</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>535</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>536</v>
-      </c>
       <c r="O5" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="P5"/>
+        <v>523</v>
+      </c>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="S5" s="34" t="b">
+        <v>539</v>
+      </c>
+      <c r="S5" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>543</v>
+        <v>532</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>533</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="K6"/>
+        <v>534</v>
+      </c>
       <c r="L6" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="P6"/>
+        <v>523</v>
+      </c>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="S6" s="34" t="b">
+        <v>539</v>
+      </c>
+      <c r="S6" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>543</v>
+        <v>532</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>533</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
+        <v>534</v>
+      </c>
       <c r="M7" s="33" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="P7"/>
+        <v>523</v>
+      </c>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="S7" s="34" t="b">
+        <v>539</v>
+      </c>
+      <c r="S7" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>548</v>
+        <v>519</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>549</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="J8" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="35" t="s">
         <v>551</v>
       </c>
+      <c r="K8" s="35" t="s">
+        <v>552</v>
+      </c>
       <c r="L8" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+        <v>553</v>
+      </c>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="S8" s="34" t="b">
+        <v>554</v>
+      </c>
+      <c r="S8" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>555</v>
+        <v>519</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>556</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="K9" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
+      <c r="K9" s="37" t="s">
+        <v>552</v>
+      </c>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="S9" s="34" t="b">
+        <v>554</v>
+      </c>
+      <c r="S9" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10" s="35" t="s">
-        <v>557</v>
+      <c r="H10" s="36" t="s">
+        <v>558</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+        <v>559</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>551</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20764,69 +20731,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="s">
-        <v>543</v>
+      <c r="B5" s="38" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="s">
-        <v>560</v>
+      <c r="B6" s="38" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37" t="s">
-        <v>543</v>
+      <c r="B7" s="38" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="s">
-        <v>561</v>
+      <c r="B8" s="38" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="s">
-        <v>562</v>
+      <c r="B9" s="38" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="s">
-        <v>561</v>
+      <c r="B11" s="38" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="s">
-        <v>531</v>
+      <c r="B13" s="38" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20835,139 +20802,139 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>570</v>
+      <c r="B25" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="39" t="s">
-        <v>575</v>
+      <c r="B31" s="40" t="s">
+        <v>577</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="38" t="s">
-        <v>577</v>
+      <c r="B32" s="39" t="s">
+        <v>579</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>580</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="38" t="s">
-        <v>586</v>
+      <c r="B44" s="39" t="s">
+        <v>588</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="40" t="s">
-        <v>588</v>
+      <c r="B45" s="41" t="s">
+        <v>590</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="41" t="s">
-        <v>590</v>
+      <c r="B46" s="42" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20975,7 +20942,7 @@
         <v>197198</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="596">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1923,6 +1923,12 @@
   </si>
   <si>
     <t xml:space="preserve">e2e testdata</t>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-08-03-2022-16:32.apk</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -2395,56 +2401,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20210,22 +20216,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20300,21 +20306,28 @@
       <c r="D2" s="23" t="s">
         <v>518</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>519</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>520</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>521</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -20338,28 +20351,35 @@
       <c r="D3" s="22" t="s">
         <v>518</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>519</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>526</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>521</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20400,7 +20420,7 @@
         <v>535</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>537</v>
@@ -20411,13 +20431,14 @@
       <c r="O4" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S4" s="34" t="n">
+      <c r="S4" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20468,13 +20489,14 @@
       <c r="O5" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S5" s="34" t="n">
+      <c r="S5" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20510,6 +20532,7 @@
       <c r="J6" s="9" t="s">
         <v>534</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>545</v>
       </c>
@@ -20522,13 +20545,14 @@
       <c r="O6" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="34" t="n">
+      <c r="S6" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20564,6 +20588,8 @@
       <c r="J7" s="9" t="s">
         <v>534</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="33" t="s">
         <v>537</v>
       </c>
@@ -20573,13 +20599,14 @@
       <c r="O7" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S7" s="34" t="n">
+      <c r="S7" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20619,15 +20646,19 @@
         <v>552</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>553</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S8" s="34" t="n">
+      <c r="S8" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20666,18 +20697,30 @@
       <c r="K9" s="37" t="s">
         <v>552</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S9" s="34" t="n">
+      <c r="S9" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="36" t="s">
         <v>558</v>
       </c>
@@ -20687,6 +20730,15 @@
       <c r="J10" s="35" t="s">
         <v>551</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20731,9 +20783,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="595">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1926,9 +1926,6 @@
   </si>
   <si>
     <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-08-03-2022-16:32.apk</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -2395,8 +2392,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H163" activeCellId="0" sqref="H163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T201" activeCellId="0" sqref="T201:T202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18788,7 +18785,7 @@
       <c r="AW201" s="16"/>
       <c r="AX201" s="9"/>
     </row>
-    <row r="202" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
         <v>481</v>
       </c>
@@ -20211,7 +20208,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F5" activeCellId="1" sqref="T201:T202 F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20646,7 +20643,7 @@
         <v>552</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>595</v>
+        <v>553</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -20777,8 +20774,8 @@
   </sheetPr>
   <dimension ref="A4:G50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="1" sqref="T201:T202 A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="594">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1923,9 +1923,6 @@
   </si>
   <si>
     <t xml:space="preserve">e2e testdata</t>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-08-03-2022-16:32.apk</t>
   </si>
 </sst>
 </file>
@@ -2392,62 +2389,62 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T201" activeCellId="0" sqref="T201:T202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T201" activeCellId="0" sqref="T201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20203,32 +20200,32 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F5" activeCellId="1" sqref="T201:T202 F5"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20303,28 +20300,21 @@
       <c r="D2" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>520</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -20348,35 +20338,28 @@
       <c r="D3" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>526</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="S3" s="28" t="b">
+      <c r="S3" s="28" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20417,7 +20400,7 @@
         <v>535</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>537</v>
@@ -20428,14 +20411,13 @@
       <c r="O4" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S4" s="34" t="b">
+      <c r="S4" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20486,14 +20468,13 @@
       <c r="O5" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S5" s="34" t="b">
+      <c r="S5" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20529,7 +20510,6 @@
       <c r="J6" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>545</v>
       </c>
@@ -20542,14 +20522,13 @@
       <c r="O6" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="34" t="b">
+      <c r="S6" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20585,8 +20564,6 @@
       <c r="J7" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
       <c r="M7" s="33" t="s">
         <v>537</v>
       </c>
@@ -20596,14 +20573,13 @@
       <c r="O7" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S7" s="34" t="b">
+      <c r="S7" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20645,17 +20621,13 @@
       <c r="L8" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S8" s="34" t="b">
+      <c r="S8" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20694,30 +20666,18 @@
       <c r="K9" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S9" s="34" t="b">
+      <c r="S9" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="36" t="s">
         <v>558</v>
       </c>
@@ -20727,15 +20687,6 @@
       <c r="J10" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20775,14 +20726,14 @@
   <dimension ref="A4:G50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="1" sqref="T201:T202 A50"/>
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="596">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1923,6 +1923,12 @@
   </si>
   <si>
     <t xml:space="preserve">e2e testdata</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-08-03-2022-16:32.apk</t>
   </si>
 </sst>
 </file>
@@ -2395,56 +2401,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20210,22 +20216,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20300,21 +20306,28 @@
       <c r="D2" s="23" t="s">
         <v>518</v>
       </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>519</v>
       </c>
+      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>520</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>521</v>
       </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -20338,28 +20351,35 @@
       <c r="D3" s="22" t="s">
         <v>518</v>
       </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>519</v>
       </c>
+      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>526</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>521</v>
       </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="S3" s="28" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20400,7 +20420,7 @@
         <v>535</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>537</v>
@@ -20411,13 +20431,14 @@
       <c r="O4" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S4" s="34" t="n">
+      <c r="S4" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20468,13 +20489,14 @@
       <c r="O5" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S5" s="34" t="n">
+      <c r="S5" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20510,6 +20532,7 @@
       <c r="J6" s="9" t="s">
         <v>534</v>
       </c>
+      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>545</v>
       </c>
@@ -20522,13 +20545,14 @@
       <c r="O6" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="34" t="n">
+      <c r="S6" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20564,6 +20588,8 @@
       <c r="J7" s="9" t="s">
         <v>534</v>
       </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" s="33" t="s">
         <v>537</v>
       </c>
@@ -20573,13 +20599,14 @@
       <c r="O7" s="12" t="s">
         <v>523</v>
       </c>
+      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S7" s="34" t="n">
+      <c r="S7" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20619,15 +20646,19 @@
         <v>552</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>553</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S8" s="34" t="n">
+      <c r="S8" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20666,18 +20697,30 @@
       <c r="K9" s="37" t="s">
         <v>552</v>
       </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S9" s="34" t="n">
+      <c r="S9" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="36" t="s">
         <v>558</v>
       </c>
@@ -20687,6 +20730,15 @@
       <c r="J10" s="35" t="s">
         <v>551</v>
       </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20731,9 +20783,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="594">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1635,7 +1635,7 @@
     <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation-1-0-22-8-3-2022.apk</t>
+    <t xml:space="preserve">Automation-1-0-22-10-3-2022.apk</t>
   </si>
   <si>
     <t xml:space="preserve">com.iexceed.assistedonboardingapp.assistedonboarding.AssistedOnboardingActivity</t>
@@ -1923,12 +1923,6 @@
   </si>
   <si>
     <t xml:space="preserve">e2e testdata</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-08-03-2022-16:32.apk</t>
   </si>
 </sst>
 </file>
@@ -2401,56 +2395,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20207,31 +20201,31 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20306,28 +20300,21 @@
       <c r="D2" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="E2"/>
-      <c r="F2"/>
       <c r="G2" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="23" t="s">
         <v>520</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
       <c r="N2" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P2"/>
       <c r="Q2" s="24" t="n">
         <v>500</v>
       </c>
@@ -20351,41 +20338,34 @@
       <c r="D3" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="27" t="s">
         <v>526</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3" s="25" t="s">
         <v>522</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P3"/>
       <c r="Q3" s="24" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="S3" s="28" t="b">
+      <c r="S3" s="28" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="U3" s="29"/>
     </row>
-    <row r="4" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>527</v>
       </c>
@@ -20420,7 +20400,7 @@
         <v>535</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>595</v>
+        <v>536</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>537</v>
@@ -20431,14 +20411,13 @@
       <c r="O4" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" s="24" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S4" s="34" t="b">
+      <c r="S4" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20489,14 +20468,13 @@
       <c r="O5" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P5"/>
       <c r="Q5" s="24" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S5" s="34" t="b">
+      <c r="S5" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20532,7 +20510,6 @@
       <c r="J6" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="K6"/>
       <c r="L6" s="12" t="s">
         <v>545</v>
       </c>
@@ -20545,14 +20522,13 @@
       <c r="O6" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P6"/>
       <c r="Q6" s="24" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="34" t="b">
+      <c r="S6" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20588,8 +20564,6 @@
       <c r="J7" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
       <c r="M7" s="33" t="s">
         <v>537</v>
       </c>
@@ -20599,14 +20573,13 @@
       <c r="O7" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="P7"/>
       <c r="Q7" s="24" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S7" s="34" t="b">
+      <c r="S7" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20646,19 +20619,15 @@
         <v>552</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+        <v>553</v>
+      </c>
       <c r="Q8" s="24" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S8" s="34" t="b">
+      <c r="S8" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20697,30 +20666,18 @@
       <c r="K9" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
       <c r="Q9" s="24" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="S9" s="34" t="b">
+      <c r="S9" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="36" t="s">
         <v>558</v>
       </c>
@@ -20730,15 +20687,6 @@
       <c r="J10" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20783,9 +20731,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="596">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1647,75 +1647,75 @@
     <t xml:space="preserve">Android_002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0.0</t>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabA8_Android_11.0.0_31b61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPadPro3rdGen_iOS_15.3.0_b7060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XCUITest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad_iOS_13.7.0_c08f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPLE_iPad8thGen_iOS_14.4.2_d5dd0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS3_Android_9.0.0_77658</t>
   </si>
   <si>
-    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.19-02-02-2022-21:16.apk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://di</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android_0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPadPro3rdGen_iOS_15.3.0_b7060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XCUITest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://readuser:Re@d@1234@artifactory.appzillon.com/artifactory/iOS-ipa/ao/automated/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29/AUTOMATIONDebug-1.0.0-13-12-2021-13%3A29.ipa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://us.pcloudy.com/appiumcloud/wd/hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOS_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad_iOS_13.7.0_c08f6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE_iPad8thGen_iOS_14.4.2_d5dd0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENOVO_M10Plus_Android_10.0.0_2ba36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_10.0.0_cb1ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS4_Android_10.0.0_2133b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMSUNG_GalaxyTabS6_Android_9.0.0_16c48</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
   </si>
   <si>
@@ -1726,6 +1726,12 @@
   </si>
   <si>
     <t xml:space="preserve">SAMSUNG_GalaxyM12_Android_11.0.0_df6a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Westbangal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ind-west.pcloudy.com/appiumcloud/wd/hub</t>
   </si>
   <si>
     <t xml:space="preserve">APPLE_iPhoneXR_iOS_14.5.0_b3558</t>
@@ -1938,7 +1944,7 @@
     <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1985,6 +1991,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2022,23 +2034,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2137,7 +2137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2218,11 +2218,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2242,11 +2246,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2258,11 +2262,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2270,15 +2274,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2286,11 +2282,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2302,11 +2298,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2389,8 +2385,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T201" activeCellId="0" sqref="T201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D203" activeCellId="0" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18953,7 +18949,7 @@
       <c r="BX202" s="9"/>
       <c r="BY202" s="9"/>
     </row>
-    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
         <v>481</v>
       </c>
@@ -18966,7 +18962,7 @@
       <c r="D203" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E203" s="9" t="s">
+      <c r="E203" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -20201,11 +20197,11 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20241,10 +20237,10 @@
       <c r="D1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>502</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -20280,7 +20276,7 @@
       <c r="Q1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>514</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -20288,82 +20284,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>522</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="Q2" s="24" t="n">
+      <c r="Q2" s="25" t="n">
         <v>500</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="S2" s="24" t="n">
+      <c r="S2" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="28" t="s">
         <v>526</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="26" t="s">
         <v>522</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="Q3" s="24" t="n">
+      <c r="Q3" s="25" t="n">
         <v>501</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="S3" s="28" t="n">
+      <c r="S3" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U3" s="29"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -20378,10 +20374,10 @@
       <c r="D4" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>531</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -20390,7 +20386,7 @@
       <c r="H4" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="32" t="s">
         <v>533</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -20399,19 +20395,19 @@
       <c r="K4" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="26" t="s">
         <v>538</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="Q4" s="24" t="n">
+      <c r="Q4" s="25" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
@@ -20422,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>540</v>
       </c>
@@ -20435,20 +20431,20 @@
       <c r="D5" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>531</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>519</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>542</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>534</v>
@@ -20457,18 +20453,18 @@
         <v>535</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="M5" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="26" t="s">
         <v>538</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="Q5" s="24" t="n">
+      <c r="Q5" s="25" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
@@ -20481,7 +20477,7 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>52</v>
@@ -20492,10 +20488,10 @@
       <c r="D6" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>531</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -20504,25 +20500,25 @@
       <c r="H6" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="32" t="s">
         <v>533</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>534</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="M6" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="26" t="s">
         <v>538</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="Q6" s="24" t="n">
+      <c r="Q6" s="25" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
@@ -20535,7 +20531,7 @@
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>52</v>
@@ -20546,10 +20542,10 @@
       <c r="D7" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>531</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -20558,22 +20554,22 @@
       <c r="H7" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="32" t="s">
         <v>533</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="26" t="s">
         <v>522</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="Q7" s="24" t="n">
+      <c r="Q7" s="25" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
@@ -20586,7 +20582,7 @@
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>52</v>
@@ -20595,37 +20591,37 @@
         <v>528</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="E8" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="31" t="s">
         <v>531</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="K8" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="L8" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="Q8" s="25" t="n">
+        <v>506</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>553</v>
-      </c>
-      <c r="Q8" s="24" t="n">
-        <v>506</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>554</v>
       </c>
       <c r="S8" s="34" t="n">
         <f aca="false">FALSE()</f>
@@ -20634,7 +20630,7 @@
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>52</v>
@@ -20643,34 +20639,34 @@
         <v>528</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="E9" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>531</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>551</v>
       </c>
-      <c r="K9" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q9" s="24" t="n">
+      <c r="Q9" s="25" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S9" s="34" t="n">
         <f aca="false">FALSE()</f>
@@ -20678,14 +20674,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>551</v>
+      <c r="J10" s="32" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -20723,10 +20719,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:G50"/>
+  <dimension ref="A4:H50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20738,46 +20734,46 @@
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="37" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="37" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="38" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="37" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="38" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="37" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="38" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="38" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="37" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="38" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="38" t="s">
-        <v>562</v>
+      <c r="B11" s="37" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>564</v>
       </c>
     </row>
@@ -20798,143 +20794,153 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="39" t="s">
-        <v>571</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>572</v>
+      <c r="B25" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="40" t="s">
-        <v>577</v>
+      <c r="B31" s="39" t="s">
+        <v>579</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="39" t="s">
-        <v>579</v>
+      <c r="B32" s="38" t="s">
+        <v>581</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>582</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="39" t="s">
-        <v>588</v>
+      <c r="B44" s="38" t="s">
+        <v>590</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="41" t="s">
-        <v>590</v>
+      <c r="B45" s="40" t="s">
+        <v>592</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="42" t="s">
-        <v>592</v>
+      <c r="B46" s="41" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20942,10 +20948,13 @@
         <v>197198</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H19" r:id="rId1" display="https://ind-west.pcloudy.com/appiumcloud/wd/hub"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="596">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -2385,8 +2385,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D203" activeCellId="0" sqref="D203"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A203" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E205" activeCellId="0" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19093,7 +19093,7 @@
         <v>99910</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
         <v>481</v>
       </c>
@@ -19215,8 +19215,11 @@
       <c r="AQ204" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="205" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AR204" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="231" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="s">
         <v>481</v>
       </c>
@@ -19339,7 +19342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
         <v>481</v>
       </c>
@@ -19461,6 +19464,9 @@
       <c r="AQ206" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="AR206" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="s">
@@ -19582,7 +19588,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="s">
         <v>481</v>
       </c>
@@ -19704,7 +19710,9 @@
       <c r="AQ208" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="AR208" s="9"/>
+      <c r="AR208" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AS208" s="9"/>
     </row>
     <row r="209" customFormat="false" ht="231" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19829,7 +19837,9 @@
       <c r="AQ209" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AR209" s="9"/>
+      <c r="AR209" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AS209" s="9"/>
     </row>
     <row r="210" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20196,11 +20206,11 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
       <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -2385,8 +2385,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A203" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E205" activeCellId="0" sqref="E205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E160" activeCellId="0" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="604">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1224,6 +1224,9 @@
     <t xml:space="preserve">TestCase_158</t>
   </si>
   <si>
+    <t xml:space="preserve">transfer fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Home page -invalid username</t>
   </si>
   <si>
@@ -1519,6 +1522,24 @@
   </si>
   <si>
     <t xml:space="preserve">TestCase_208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS-Country code Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_212</t>
   </si>
   <si>
     <t xml:space="preserve">mode</t>
@@ -1929,6 +1950,9 @@
   </si>
   <si>
     <t xml:space="preserve">e2e testdata</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -2385,62 +2409,62 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E160" activeCellId="0" sqref="E160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
+    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
+    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
+    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
+    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
+    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
+    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
+    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16117,7 +16141,7 @@
       <c r="AI160" s="9"/>
       <c r="AJ160" s="9"/>
     </row>
-    <row r="161" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
         <v>398</v>
       </c>
@@ -16161,7 +16185,7 @@
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AB161" s="17" t="n">
         <v>34</v>
@@ -16177,10 +16201,10 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C162" s="9" t="s">
         <v>52</v>
@@ -16200,10 +16224,10 @@
     </row>
     <row r="163" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>52</v>
@@ -16218,15 +16242,15 @@
         <v>103</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>52</v>
@@ -16246,10 +16270,10 @@
     </row>
     <row r="165" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C165" s="9" t="s">
         <v>52</v>
@@ -16264,15 +16288,15 @@
         <v>103</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>52</v>
@@ -16287,7 +16311,7 @@
         <v>104</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I166" s="9" t="s">
         <v>93</v>
@@ -16340,10 +16364,10 @@
     </row>
     <row r="167" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>52</v>
@@ -16358,7 +16382,7 @@
         <v>104</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I167" s="9" t="s">
         <v>93</v>
@@ -16411,10 +16435,10 @@
     </row>
     <row r="168" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C168" s="9" t="s">
         <v>52</v>
@@ -16429,7 +16453,7 @@
         <v>105</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I168" s="9" t="s">
         <v>93</v>
@@ -16482,10 +16506,10 @@
     </row>
     <row r="169" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>52</v>
@@ -16500,7 +16524,7 @@
         <v>105</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>93</v>
@@ -16556,7 +16580,7 @@
         <v>90</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>52</v>
@@ -16598,7 +16622,7 @@
         <v>287</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C171" s="9" t="s">
         <v>52</v>
@@ -16635,10 +16659,10 @@
     </row>
     <row r="172" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>52</v>
@@ -16653,7 +16677,7 @@
         <v>105</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I172" s="9" t="s">
         <v>93</v>
@@ -16704,27 +16728,27 @@
         <v>12</v>
       </c>
       <c r="AC172" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD172" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE172" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF172" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG172" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>52</v>
@@ -16739,7 +16763,7 @@
         <v>105</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I173" s="9" t="s">
         <v>93</v>
@@ -16790,27 +16814,27 @@
         <v>12</v>
       </c>
       <c r="AC173" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD173" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE173" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF173" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG173" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>52</v>
@@ -16825,7 +16849,7 @@
         <v>105</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>93</v>
@@ -16876,27 +16900,27 @@
         <v>12</v>
       </c>
       <c r="AC174" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD174" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE174" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG174" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>52</v>
@@ -16911,7 +16935,7 @@
         <v>105</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I175" s="9" t="s">
         <v>93</v>
@@ -16962,19 +16986,19 @@
         <v>12</v>
       </c>
       <c r="AC175" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD175" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE175" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF175" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG175" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16982,7 +17006,7 @@
         <v>391</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>52</v>
@@ -17019,7 +17043,7 @@
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB176" s="17" t="n">
         <v>189</v>
@@ -17035,10 +17059,10 @@
     </row>
     <row r="177" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>52</v>
@@ -17075,7 +17099,7 @@
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB177" s="17" t="n">
         <v>129</v>
@@ -17091,10 +17115,10 @@
     </row>
     <row r="178" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>52</v>
@@ -17148,7 +17172,7 @@
         <v>396</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>52</v>
@@ -17187,7 +17211,7 @@
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB179" s="17" t="n">
         <v>555</v>
@@ -17206,7 +17230,7 @@
         <v>398</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>52</v>
@@ -17245,7 +17269,7 @@
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB180" s="17" t="n">
         <v>345</v>
@@ -17264,7 +17288,7 @@
         <v>398</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>52</v>
@@ -17317,10 +17341,10 @@
     </row>
     <row r="182" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>52</v>
@@ -17357,7 +17381,7 @@
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB182" s="17" t="n">
         <v>189</v>
@@ -17374,10 +17398,10 @@
     </row>
     <row r="183" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C183" s="9" t="s">
         <v>52</v>
@@ -17414,7 +17438,7 @@
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB183" s="17" t="n">
         <v>129</v>
@@ -17425,21 +17449,21 @@
       <c r="AF183" s="9"/>
       <c r="AG183" s="9"/>
       <c r="AH183" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI183" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ183" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>52</v>
@@ -17485,21 +17509,21 @@
       <c r="AF184" s="9"/>
       <c r="AG184" s="9"/>
       <c r="AH184" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI184" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ184" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>52</v>
@@ -17550,18 +17574,18 @@
         <v>12345</v>
       </c>
       <c r="AI185" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ185" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>52</v>
@@ -17616,10 +17640,10 @@
     </row>
     <row r="187" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>52</v>
@@ -17658,7 +17682,7 @@
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB187" s="17" t="n">
         <v>555</v>
@@ -17669,21 +17693,21 @@
       <c r="AF187" s="9"/>
       <c r="AG187" s="9"/>
       <c r="AH187" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AI187" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ187" s="17" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="136.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>52</v>
@@ -17722,7 +17746,7 @@
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB188" s="17" t="n">
         <v>345</v>
@@ -17733,21 +17757,21 @@
       <c r="AF188" s="9"/>
       <c r="AG188" s="9"/>
       <c r="AH188" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI188" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ188" s="17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>52</v>
@@ -17798,18 +17822,18 @@
         <v>12345</v>
       </c>
       <c r="AI189" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ189" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>52</v>
@@ -17846,7 +17870,7 @@
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB190" s="17" t="n">
         <v>189</v>
@@ -17860,19 +17884,19 @@
         <v>12346</v>
       </c>
       <c r="AI190" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ190" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK190" s="18"/>
     </row>
     <row r="191" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>52</v>
@@ -17909,7 +17933,7 @@
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
       <c r="AA191" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB191" s="17" t="n">
         <v>189</v>
@@ -17923,19 +17947,19 @@
         <v>12347</v>
       </c>
       <c r="AI191" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ191" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK191" s="18"/>
     </row>
     <row r="192" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>52</v>
@@ -17972,7 +17996,7 @@
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB192" s="17" t="n">
         <v>189</v>
@@ -17986,25 +18010,25 @@
         <v>12346</v>
       </c>
       <c r="AI192" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ192" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK192" s="18"/>
       <c r="AM192" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO192" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>52</v>
@@ -18041,7 +18065,7 @@
       <c r="Y193" s="9"/>
       <c r="Z193" s="9"/>
       <c r="AA193" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB193" s="17" t="n">
         <v>189</v>
@@ -18055,25 +18079,25 @@
         <v>12347</v>
       </c>
       <c r="AI193" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ193" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK193" s="18"/>
       <c r="AM193" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO193" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>52</v>
@@ -18110,7 +18134,7 @@
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
       <c r="AA194" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB194" s="17" t="n">
         <v>189</v>
@@ -18124,28 +18148,28 @@
         <v>12347</v>
       </c>
       <c r="AI194" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ194" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK194" s="18"/>
       <c r="AM194" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN194" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO194" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>52</v>
@@ -18182,7 +18206,7 @@
       <c r="Y195" s="9"/>
       <c r="Z195" s="9"/>
       <c r="AA195" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB195" s="17" t="n">
         <v>189</v>
@@ -18196,28 +18220,28 @@
         <v>12347</v>
       </c>
       <c r="AI195" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ195" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK195" s="18"/>
       <c r="AM195" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN195" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO195" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>52</v>
@@ -18254,7 +18278,7 @@
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
       <c r="AA196" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB196" s="17" t="n">
         <v>189</v>
@@ -18268,28 +18292,28 @@
         <v>12347</v>
       </c>
       <c r="AI196" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ196" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK196" s="18"/>
       <c r="AM196" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN196" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO196" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>52</v>
@@ -18326,7 +18350,7 @@
       <c r="Y197" s="9"/>
       <c r="Z197" s="9"/>
       <c r="AA197" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB197" s="17" t="n">
         <v>189</v>
@@ -18340,28 +18364,28 @@
         <v>12347</v>
       </c>
       <c r="AI197" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ197" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK197" s="18"/>
       <c r="AM197" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN197" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO197" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>52</v>
@@ -18398,7 +18422,7 @@
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
       <c r="AA198" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB198" s="17" t="n">
         <v>189</v>
@@ -18412,25 +18436,25 @@
         <v>12347</v>
       </c>
       <c r="AI198" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ198" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK198" s="18"/>
       <c r="AM198" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO198" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>52</v>
@@ -18467,7 +18491,7 @@
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
       <c r="AA199" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AB199" s="17" t="n">
         <v>189</v>
@@ -18481,14 +18505,14 @@
         <v>12347</v>
       </c>
       <c r="AI199" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ199" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK199" s="18"/>
       <c r="AM199" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18496,7 +18520,7 @@
         <v>261</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>52</v>
@@ -18550,16 +18574,16 @@
         <v>195</v>
       </c>
       <c r="U200" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V200" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W200" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X200" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y200" s="9" t="s">
         <v>235</v>
@@ -18574,44 +18598,44 @@
         <v>190</v>
       </c>
       <c r="AC200" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD200" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE200" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF200" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG200" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH200" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI200" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ200" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL200" s="9"/>
       <c r="AM200" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN200" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO200" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP200" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AQ200" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AR200" s="9"/>
       <c r="AS200" s="9"/>
@@ -18653,7 +18677,7 @@
         <v>261</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>52</v>
@@ -18707,16 +18731,16 @@
         <v>195</v>
       </c>
       <c r="U201" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V201" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W201" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X201" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y201" s="9" t="s">
         <v>235</v>
@@ -18731,44 +18755,44 @@
         <v>191</v>
       </c>
       <c r="AC201" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD201" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE201" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF201" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG201" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH201" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI201" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ201" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL201" s="9"/>
       <c r="AM201" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN201" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO201" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP201" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AQ201" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AR201" s="9"/>
       <c r="AS201" s="9"/>
@@ -18780,10 +18804,10 @@
     </row>
     <row r="202" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>52</v>
@@ -18834,19 +18858,19 @@
         <v>189</v>
       </c>
       <c r="T202" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="U202" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V202" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W202" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X202" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y202" s="9" t="s">
         <v>235</v>
@@ -18861,50 +18885,50 @@
         <v>75</v>
       </c>
       <c r="AC202" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD202" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE202" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF202" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG202" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH202" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI202" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ202" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL202" s="9"/>
       <c r="AM202" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN202" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO202" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP202" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AQ202" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AR202" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AS202" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AT202" s="9" t="n">
         <v>7898760</v>
@@ -18951,10 +18975,10 @@
     </row>
     <row r="203" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>52</v>
@@ -19005,19 +19029,19 @@
         <v>189</v>
       </c>
       <c r="T203" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="U203" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V203" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W203" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X203" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y203" s="9" t="s">
         <v>235</v>
@@ -19032,50 +19056,50 @@
         <v>76</v>
       </c>
       <c r="AC203" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD203" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE203" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF203" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH203" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI203" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ203" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL203" s="9"/>
       <c r="AM203" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN203" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO203" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP203" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AQ203" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AR203" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AS203" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AT203" s="9" t="n">
         <v>8976432</v>
@@ -19095,10 +19119,10 @@
     </row>
     <row r="204" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>52</v>
@@ -19152,16 +19176,16 @@
         <v>195</v>
       </c>
       <c r="U204" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W204" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X204" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y204" s="9" t="s">
         <v>235</v>
@@ -19176,44 +19200,44 @@
         <v>190</v>
       </c>
       <c r="AC204" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD204" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE204" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF204" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH204" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI204" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ204" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL204" s="9"/>
       <c r="AM204" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN204" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO204" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP204" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AQ204" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AR204" s="1" t="s">
         <v>70</v>
@@ -19221,10 +19245,10 @@
     </row>
     <row r="205" customFormat="false" ht="231" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>52</v>
@@ -19278,16 +19302,16 @@
         <v>195</v>
       </c>
       <c r="U205" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V205" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W205" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X205" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y205" s="9" t="s">
         <v>235</v>
@@ -19302,41 +19326,41 @@
         <v>190</v>
       </c>
       <c r="AC205" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD205" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE205" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF205" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG205" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH205" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI205" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ205" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL205" s="9"/>
       <c r="AM205" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN205" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO205" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP205" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AQ205" s="1" t="s">
         <v>70</v>
@@ -19344,10 +19368,10 @@
     </row>
     <row r="206" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>52</v>
@@ -19401,16 +19425,16 @@
         <v>195</v>
       </c>
       <c r="U206" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V206" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W206" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X206" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y206" s="9" t="s">
         <v>235</v>
@@ -19425,41 +19449,41 @@
         <v>190</v>
       </c>
       <c r="AC206" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD206" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE206" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF206" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH206" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI206" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ206" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL206" s="9"/>
       <c r="AM206" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN206" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO206" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP206" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AQ206" s="1" t="s">
         <v>73</v>
@@ -19470,10 +19494,10 @@
     </row>
     <row r="207" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>52</v>
@@ -19527,16 +19551,16 @@
         <v>195</v>
       </c>
       <c r="U207" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V207" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W207" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X207" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y207" s="9" t="s">
         <v>235</v>
@@ -19551,49 +19575,49 @@
         <v>190</v>
       </c>
       <c r="AC207" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD207" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE207" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF207" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG207" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AH207" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI207" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ207" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL207" s="9"/>
       <c r="AM207" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN207" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO207" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP207" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C208" s="9" t="s">
         <v>52</v>
@@ -19647,16 +19671,16 @@
         <v>195</v>
       </c>
       <c r="U208" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V208" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W208" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X208" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y208" s="9" t="s">
         <v>235</v>
@@ -19671,44 +19695,44 @@
         <v>191</v>
       </c>
       <c r="AC208" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD208" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE208" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF208" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH208" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI208" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ208" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL208" s="9"/>
       <c r="AM208" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN208" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO208" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP208" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AQ208" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AR208" s="1" t="s">
         <v>73</v>
@@ -19717,10 +19741,10 @@
     </row>
     <row r="209" customFormat="false" ht="231" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>52</v>
@@ -19774,16 +19798,16 @@
         <v>195</v>
       </c>
       <c r="U209" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V209" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W209" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X209" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y209" s="9" t="s">
         <v>235</v>
@@ -19798,41 +19822,41 @@
         <v>191</v>
       </c>
       <c r="AC209" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD209" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE209" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF209" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH209" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI209" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ209" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL209" s="9"/>
       <c r="AM209" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN209" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO209" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP209" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AQ209" s="1" t="s">
         <v>70</v>
@@ -19844,10 +19868,10 @@
     </row>
     <row r="210" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>52</v>
@@ -19901,16 +19925,16 @@
         <v>195</v>
       </c>
       <c r="U210" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V210" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W210" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X210" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y210" s="9" t="s">
         <v>235</v>
@@ -19925,41 +19949,41 @@
         <v>191</v>
       </c>
       <c r="AC210" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD210" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE210" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF210" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH210" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI210" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ210" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL210" s="9"/>
       <c r="AM210" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN210" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO210" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP210" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AQ210" s="1" t="s">
         <v>73</v>
@@ -19967,12 +19991,12 @@
       <c r="AR210" s="9"/>
       <c r="AS210" s="9"/>
     </row>
-    <row r="211" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>52</v>
@@ -20026,16 +20050,16 @@
         <v>195</v>
       </c>
       <c r="U211" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V211" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W211" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="X211" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y211" s="9" t="s">
         <v>235</v>
@@ -20050,44 +20074,272 @@
         <v>191</v>
       </c>
       <c r="AC211" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD211" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE211" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF211" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AH211" s="17" t="n">
         <v>12345</v>
       </c>
       <c r="AI211" s="19" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AJ211" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL211" s="9"/>
       <c r="AM211" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN211" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO211" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP211" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AR211" s="9"/>
       <c r="AS211" s="9"/>
+    </row>
+    <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G212" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I212" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J212" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K212" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M212" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N212" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W212" s="9"/>
+      <c r="X212" s="9"/>
+      <c r="Y212" s="9"/>
+      <c r="Z212" s="9"/>
+      <c r="AA212" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB212" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC212" s="9"/>
+      <c r="AD212" s="9"/>
+      <c r="AE212" s="9"/>
+      <c r="AF212" s="9"/>
+      <c r="AG212" s="9"/>
+      <c r="AH212" s="17"/>
+      <c r="AI212" s="9"/>
+      <c r="AJ212" s="9"/>
+    </row>
+    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G213" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J213" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="K213" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M213" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N213" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W213" s="9"/>
+      <c r="X213" s="9"/>
+      <c r="Y213" s="9"/>
+      <c r="Z213" s="9"/>
+      <c r="AA213" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB213" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC213" s="9"/>
+      <c r="AD213" s="9"/>
+      <c r="AE213" s="9"/>
+      <c r="AF213" s="9"/>
+      <c r="AG213" s="9"/>
+      <c r="AH213" s="17"/>
+      <c r="AI213" s="9"/>
+      <c r="AJ213" s="9"/>
+    </row>
+    <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G214" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I214" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J214" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K214" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M214" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N214" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R214" s="9"/>
+      <c r="T214" s="9"/>
+      <c r="W214" s="9"/>
+      <c r="X214" s="9"/>
+      <c r="Y214" s="9"/>
+      <c r="Z214" s="9"/>
+      <c r="AA214" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB214" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC214" s="9"/>
+      <c r="AD214" s="9"/>
+      <c r="AE214" s="9"/>
+      <c r="AF214" s="9"/>
+      <c r="AG214" s="9"/>
+      <c r="AH214" s="17"/>
+      <c r="AI214" s="9"/>
+      <c r="AJ214" s="9"/>
+    </row>
+    <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G215" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J215" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="K215" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M215" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N215" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R215" s="9"/>
+      <c r="T215" s="9"/>
+      <c r="W215" s="9"/>
+      <c r="X215" s="9"/>
+      <c r="Y215" s="9"/>
+      <c r="Z215" s="9"/>
+      <c r="AA215" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB215" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC215" s="9"/>
+      <c r="AD215" s="9"/>
+      <c r="AE215" s="9"/>
+      <c r="AF215" s="9"/>
+      <c r="AG215" s="9"/>
+      <c r="AH215" s="17"/>
+      <c r="AI215" s="9"/>
+      <c r="AJ215" s="9"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -20188,6 +20440,10 @@
     <hyperlink ref="I209" r:id="rId94" display="parkjimin@gmail.com"/>
     <hyperlink ref="I210" r:id="rId95" display="parkjimin@gmail.com"/>
     <hyperlink ref="I211" r:id="rId96" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I212" r:id="rId97" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I213" r:id="rId98" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I214" r:id="rId99" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I215" r:id="rId100" display="parkjimin@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -20216,22 +20472,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
+    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20242,90 +20498,97 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>518</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2" s="24" t="s">
-        <v>519</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" s="24" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>521</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
       <c r="N2" s="26" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>523</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="P2"/>
       <c r="Q2" s="25" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="S2" s="25" t="n">
         <v>0</v>
@@ -20333,39 +20596,46 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>518</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="23" t="s">
-        <v>519</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="H3"/>
       <c r="I3" s="28" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>521</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
       <c r="N3" s="26" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>523</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="P3"/>
       <c r="Q3" s="25" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="S3" s="29" t="n">
+        <v>531</v>
+      </c>
+      <c r="S3" s="29" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20373,326 +20643,358 @@
     </row>
     <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E4" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>523</v>
-      </c>
+      <c r="P4"/>
       <c r="Q4" s="25" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="S4" s="34" t="n">
+        <v>546</v>
+      </c>
+      <c r="S4" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E5" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>523</v>
-      </c>
+      <c r="P5"/>
       <c r="Q5" s="25" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="S5" s="34" t="n">
+        <v>546</v>
+      </c>
+      <c r="S5" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E6" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>523</v>
-      </c>
+      <c r="P6"/>
       <c r="Q6" s="25" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="S6" s="34" t="n">
+        <v>546</v>
+      </c>
+      <c r="S6" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="N7" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="O7" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>523</v>
-      </c>
+      <c r="P7"/>
       <c r="Q7" s="25" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="S7" s="34" t="n">
+        <v>546</v>
+      </c>
+      <c r="S7" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>552</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" s="25" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="S8" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="S8" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>547</v>
-      </c>
       <c r="E9" s="31" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>551</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9" s="25" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="S9" s="34" t="n">
+        <v>560</v>
+      </c>
+      <c r="S9" s="34" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="J10" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>550</v>
-      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20737,220 +21039,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="37" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="37" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="37" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="37" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="37" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="37" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="37" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="38" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="39" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="38" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="38" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="40" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="41" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20958,7 +21260,7 @@
         <v>197198</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="605">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1540,6 +1540,12 @@
   </si>
   <si>
     <t xml:space="preserve">TestCase_212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_214</t>
   </si>
   <si>
     <t xml:space="preserve">mode</t>
@@ -1950,9 +1956,6 @@
   </si>
   <si>
     <t xml:space="preserve">e2e testdata</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -2409,62 +2412,62 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B218" activeCellId="0" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20340,6 +20343,148 @@
       <c r="AH215" s="17"/>
       <c r="AI215" s="9"/>
       <c r="AJ215" s="9"/>
+    </row>
+    <row r="216" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G216" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="H216" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="I216" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J216" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="K216" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M216" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N216" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R216" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T216" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U216" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V216" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z216" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA216" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB216" s="17" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G217" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="I217" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J217" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="K217" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M217" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N217" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R217" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T217" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="U217" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="V217" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z217" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA217" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB217" s="17" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -20444,6 +20589,8 @@
     <hyperlink ref="I213" r:id="rId98" display="parkjimin@gmail.com"/>
     <hyperlink ref="I214" r:id="rId99" display="parkjimin@gmail.com"/>
     <hyperlink ref="I215" r:id="rId100" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I216" r:id="rId101" display="parkjimin@gmail.com"/>
+    <hyperlink ref="I217" r:id="rId102" display="parkjimin@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -20472,22 +20619,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="11" width="26.35" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="17" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="11" width="29.45" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="1025" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="11" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="11" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="11" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="11" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="11" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="11" width="9.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20498,97 +20645,90 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>527</v>
+      </c>
       <c r="G2" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="H2"/>
+        <v>528</v>
+      </c>
       <c r="I2" s="24" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>530</v>
+      </c>
       <c r="N2" s="26" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="P2"/>
+        <v>532</v>
+      </c>
       <c r="Q2" s="25" t="n">
         <v>500</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="S2" s="25" t="n">
         <v>0</v>
@@ -20596,46 +20736,39 @@
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="P3"/>
       <c r="Q3" s="25" t="n">
         <v>501</v>
       </c>
       <c r="R3" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="S3" s="29" t="b">
+        <v>533</v>
+      </c>
+      <c r="S3" s="29" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20643,358 +20776,326 @@
     </row>
     <row r="4" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="P4"/>
+        <v>532</v>
+      </c>
       <c r="Q4" s="25" t="n">
         <v>502</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="S4" s="34" t="b">
+        <v>548</v>
+      </c>
+      <c r="S4" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="109.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="N5" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>545</v>
-      </c>
       <c r="O5" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="P5"/>
+        <v>532</v>
+      </c>
       <c r="Q5" s="25" t="n">
         <v>503</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="S5" s="34" t="b">
+        <v>548</v>
+      </c>
+      <c r="S5" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="K6"/>
+        <v>543</v>
+      </c>
       <c r="L6" s="12" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="P6"/>
+        <v>532</v>
+      </c>
       <c r="Q6" s="25" t="n">
         <v>504</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="S6" s="34" t="b">
+        <v>548</v>
+      </c>
+      <c r="S6" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
+        <v>543</v>
+      </c>
       <c r="M7" s="12" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="P7"/>
+        <v>532</v>
+      </c>
       <c r="Q7" s="25" t="n">
         <v>505</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="S7" s="34" t="b">
+        <v>548</v>
+      </c>
+      <c r="S7" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
+        <v>561</v>
+      </c>
       <c r="Q8" s="25" t="n">
         <v>506</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="S8" s="34" t="b">
+        <v>562</v>
+      </c>
+      <c r="S8" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="82.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="J9" s="32" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
+        <v>560</v>
+      </c>
       <c r="Q9" s="25" t="n">
         <v>507</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="S9" s="34" t="b">
+        <v>562</v>
+      </c>
+      <c r="S9" s="34" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" s="35" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
+        <v>559</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21039,220 +21140,220 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.93" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="37" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="37" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="37" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="37" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="37" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="38" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="39" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="38" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>591</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="38" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="40" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="41" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21260,7 +21361,7 @@
         <v>197198</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="642">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>

--- a/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
+++ b/${project.build.directory}/test-classes/DataSet/NMCO_ONB.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="641">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -1767,7 +1767,7 @@
     <t xml:space="preserve">http://readuser:Re@d@1234@20.80.0.230:8082/artifactory/android-apk/ao/manual/qaRelease-1.0.5-06-12-2021-19:31.apk</t>
   </si>
   <si>
-    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.21-24-02-2022-13:09.apk</t>
+    <t xml:space="preserve">https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-17-03-2022-17:10.apk</t>
   </si>
   <si>
     <t xml:space="preserve">Automation-1-0-22-10-3-2022.apk</t>
@@ -2065,9 +2065,6 @@
   <si>
     <t xml:space="preserve">e2e testdata</t>
   </si>
-  <si>
-    <t>https://artifactory.appzillon.com/artifactory/android-apk/ao/automation/qaDebug-1.0.22-17-03-2022-17:10.apk</t>
-  </si>
 </sst>
 </file>
 
@@ -2082,7 +2079,7 @@
     <numFmt numFmtId="169" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="170" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2127,12 +2124,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2275,7 +2266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2356,19 +2347,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2388,11 +2371,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2404,15 +2387,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2424,11 +2407,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2440,11 +2423,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2528,63 +2511,63 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BA219" activeCellId="0" sqref="BA219"/>
+      <selection pane="topLeft" activeCell="AY224" activeCellId="0" sqref="AY224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="32.3" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="14.33" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="4.43" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="7.83" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="6" customWidth="true" hidden="false" style="1" width="11.9" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="8" customWidth="true" hidden="false" style="1" width="15.54" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="17.31" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="2" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="1" width="16.2" collapsed="true" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="1" width="15.21" collapsed="true" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="1" width="13.78" collapsed="true" outlineLevel="0"/>
-    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="13.56" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="24.43" collapsed="true" outlineLevel="0"/>
-    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="14.11" collapsed="true" outlineLevel="0"/>
-    <col min="21" max="21" customWidth="true" hidden="false" style="2" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="22" max="22" customWidth="true" hidden="false" style="2" width="21.17" collapsed="true" outlineLevel="0"/>
-    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="14.99" collapsed="true" outlineLevel="0"/>
-    <col min="24" max="25" customWidth="true" hidden="false" style="1" width="19.51" collapsed="true" outlineLevel="0"/>
-    <col min="26" max="26" customWidth="true" hidden="false" style="1" width="24.36" collapsed="true" outlineLevel="0"/>
-    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
-    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="30" max="31" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="22.49" collapsed="true" outlineLevel="0"/>
-    <col min="33" max="33" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="34" max="34" customWidth="true" hidden="false" style="1" width="20.28" collapsed="true" outlineLevel="0"/>
-    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="21.04" collapsed="true" outlineLevel="0"/>
-    <col min="36" max="37" customWidth="true" hidden="false" style="1" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="18.3" collapsed="true" outlineLevel="0"/>
-    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="19.95" collapsed="true" outlineLevel="0"/>
-    <col min="40" max="40" customWidth="true" hidden="false" style="2" width="20.84" collapsed="true" outlineLevel="0"/>
-    <col min="41" max="41" customWidth="true" hidden="false" style="3" width="32.74" collapsed="true" outlineLevel="0"/>
-    <col min="42" max="42" customWidth="true" hidden="false" style="1" width="22.04" collapsed="true" outlineLevel="0"/>
-    <col min="43" max="43" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="20.94" collapsed="true" outlineLevel="0"/>
-    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="19.18" collapsed="true" outlineLevel="0"/>
-    <col min="47" max="47" customWidth="true" hidden="false" style="1" width="16.74" collapsed="true" outlineLevel="0"/>
-    <col min="48" max="48" customWidth="true" hidden="false" style="3" width="14.0" collapsed="true" outlineLevel="0"/>
-    <col min="49" max="49" customWidth="true" hidden="false" style="3" width="16.11" collapsed="true" outlineLevel="0"/>
-    <col min="50" max="50" customWidth="true" hidden="false" style="1" width="12.35" collapsed="true" outlineLevel="0"/>
-    <col min="51" max="52" customWidth="true" hidden="false" style="1" width="17.64" collapsed="true" outlineLevel="0"/>
-    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="54" max="54" customWidth="true" hidden="false" style="2" width="18.08" collapsed="true" outlineLevel="0"/>
-    <col min="55" max="55" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="56" max="56" customWidth="true" hidden="false" style="1" width="11.57" collapsed="true" outlineLevel="0"/>
-    <col min="57" max="990" customWidth="true" hidden="false" style="1" width="8.57" collapsed="true" outlineLevel="0"/>
-    <col min="991" max="1025" customWidth="true" hidden="false" style="4" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="32.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="22.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="3" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="3" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="990" min="57" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="991" style="4" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19118,7 +19101,7 @@
       <c r="D203" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E203" s="20" t="s">
+      <c r="E203" s="9" t="s">
         <v>68</v>
       </c>
       <c r="F203" s="1" t="s">
@@ -20732,7 +20715,7 @@
       <c r="J219" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="K219" s="21" t="s">
+      <c r="K219" s="13" t="s">
         <v>519</v>
       </c>
       <c r="M219" s="10" t="s">
@@ -21457,22 +21440,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="11" width="12.57" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="11" width="5.18" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="4" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="11" width="19.4" collapsed="true" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="11" width="20.5" collapsed="true" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="11" width="15.11" collapsed="true" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="11" width="18.85" collapsed="true" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="11" width="9.17" collapsed="true" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="11" width="17.86" collapsed="true" outlineLevel="0"/>
-    <col min="12" max="13" customWidth="true" hidden="false" style="11" width="14.87" collapsed="true" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="11" width="19.18" collap